--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxiuhong/Desktop/svn-脚本/基础架构菜单初始化脚本0622/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\company\companyRD\project\prod-repo-service\src\main\resources\script\db\init-data\hrds_prod_repo\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F6CDB8-A7B5-324B-8217-606001B12D1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D6408B-71D0-48AE-A0A4-E8E6BEA7382D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-200" yWindow="0" windowWidth="21070" windowHeight="13330" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2472,225 +2472,114 @@
     <t>iam_menu_permission-8</t>
   </si>
   <si>
-    <t>hrds-prod-repo.prod-user.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-9</t>
   </si>
   <si>
-    <t>hrds-prod-repo.prod-user.getRoleList</t>
-  </si>
-  <si>
     <t>iam_menu_permission-10</t>
   </si>
   <si>
-    <t>hrds-prod-repo.product-library.listByProject</t>
-  </si>
-  <si>
     <t>iam_menu_permission-11</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-auth.listByOrg</t>
-  </si>
-  <si>
     <t>iam_menu_permission-12</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-auth.orgExport</t>
-  </si>
-  <si>
     <t>iam_menu_permission-13</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-guide.getTagGuide</t>
-  </si>
-  <si>
     <t>iam_menu_permission-14</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-image-tag.buildLog</t>
-  </si>
-  <si>
     <t>iam_menu_permission-15</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-image-tag.copyTag</t>
-  </si>
-  <si>
     <t>iam_menu_permission-16</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-image-tag.delete</t>
-  </si>
-  <si>
     <t>iam_menu_permission-17</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-image-tag.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-18</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-image.delete</t>
-  </si>
-  <si>
     <t>iam_menu_permission-19</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-image.getByOrg</t>
-  </si>
-  <si>
     <t>iam_menu_permission-20</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-log.listAuthLogByOrg</t>
-  </si>
-  <si>
     <t>iam_menu_permission-21</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-log.listImageLogByOrg</t>
-  </si>
-  <si>
     <t>iam_menu_permission-22</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-project.listAll</t>
-  </si>
-  <si>
     <t>iam_menu_permission-23</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-project.listByOrg</t>
-  </si>
-  <si>
     <t>iam_menu_permission-24</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-project.updatePublicFlag</t>
-  </si>
-  <si>
     <t>iam_menu_permission-25</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-quota.getGlobalQuota</t>
-  </si>
-  <si>
     <t>iam_menu_permission-26</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-quota.getProjectQuota</t>
-  </si>
-  <si>
     <t>iam_menu_permission-27</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-quota.updateGlobalQuota</t>
-  </si>
-  <si>
     <t>iam_menu_permission-28</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-quota.updateProjectQuota</t>
-  </si>
-  <si>
     <t>iam_menu_permission-29</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-auth.listByOrg</t>
-  </si>
-  <si>
     <t>iam_menu_permission-30</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-auth.orgExport</t>
-  </si>
-  <si>
     <t>iam_menu_permission-31</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-component-org.listComponents</t>
-  </si>
-  <si>
     <t>iam_menu_permission-32</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-component-org.listNpmComponents</t>
-  </si>
-  <si>
     <t>iam_menu_permission-33</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-component.componentGuide</t>
-  </si>
-  <si>
     <t>iam_menu_permission-34</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-log.listLogByOrg</t>
-  </si>
-  <si>
     <t>iam_menu_permission-35</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository-org.listNpmRepo</t>
-  </si>
-  <si>
     <t>iam_menu_permission-36</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository-org.listOtherMavenRepo</t>
-  </si>
-  <si>
     <t>iam_menu_permission-37</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository.getMavenRepo</t>
-  </si>
-  <si>
     <t>iam_menu_permission-38</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository.mavenRepoGuide</t>
-  </si>
-  <si>
     <t>iam_menu_permission-39</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-auth.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-40</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-auth.listByProject</t>
-  </si>
-  <si>
     <t>iam_menu_permission-41</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-custom-repo.checkCustomRepo</t>
-  </si>
-  <si>
     <t>iam_menu_permission-42</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-custom-repo.detailByProject</t>
-  </si>
-  <si>
     <t>iam_menu_permission-43</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-custom-repo.pageRelatedServiceByProject</t>
-  </si>
-  <si>
     <t>iam_menu_permission-44</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-guide.getProjectGuid</t>
-  </si>
-  <si>
     <t>iam_menu_permission-45</t>
   </si>
   <si>
@@ -2703,120 +2592,69 @@
     <t>iam_menu_permission-48</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-image.getByProject</t>
-  </si>
-  <si>
     <t>iam_menu_permission-49</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-image.updateDesc</t>
-  </si>
-  <si>
     <t>iam_menu_permission-50</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-project.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-51</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-project.listByProject</t>
-  </si>
-  <si>
     <t>iam_menu_permission-52</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-auth.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-53</t>
   </si>
   <si>
     <t>iam_menu_permission-54</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-auth.getUserList</t>
-  </si>
-  <si>
     <t>iam_menu_permission-55</t>
   </si>
   <si>
     <t>iam_menu_permission-56</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-auth.projectExport</t>
-  </si>
-  <si>
     <t>iam_menu_permission-57</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-auth.remove</t>
-  </si>
-  <si>
     <t>iam_menu_permission-58</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-auth.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-59</t>
   </si>
   <si>
     <t>iam_menu_permission-60</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-custom-repo.createByProject</t>
-  </si>
-  <si>
     <t>iam_menu_permission-61</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-custom-repo.deleteByProject</t>
-  </si>
-  <si>
     <t>iam_menu_permission-62</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-custom-repo.deleteRelation</t>
-  </si>
-  <si>
     <t>iam_menu_permission-63</t>
   </si>
   <si>
     <t>iam_menu_permission-64</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-custom-repo.existProjectShareCustomRepo</t>
-  </si>
-  <si>
     <t>iam_menu_permission-65</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-custom-repo.listAppServiceByCreate</t>
-  </si>
-  <si>
     <t>iam_menu_permission-66</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-custom-repo.pageNoRelatedService</t>
-  </si>
-  <si>
     <t>iam_menu_permission-67</t>
   </si>
   <si>
     <t>iam_menu_permission-68</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-custom-repo.relateServiceByProject</t>
-  </si>
-  <si>
     <t>iam_menu_permission-69</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-custom-repo.updateByProject</t>
-  </si>
-  <si>
     <t>iam_menu_permission-70</t>
   </si>
   <si>
@@ -2844,27 +2682,15 @@
     <t>iam_menu_permission-78</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-log.listAuthLogByProject</t>
-  </si>
-  <si>
     <t>iam_menu_permission-79</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-log.listImageLogByProject</t>
-  </si>
-  <si>
     <t>iam_menu_permission-80</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-project.createSaga</t>
-  </si>
-  <si>
     <t>iam_menu_permission-81</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-project.delete</t>
-  </si>
-  <si>
     <t>iam_menu_permission-82</t>
   </si>
   <si>
@@ -2874,93 +2700,54 @@
     <t>iam_menu_permission-84</t>
   </si>
   <si>
-    <t>hrds-prod-repo.harbor-project.updateSaga</t>
-  </si>
-  <si>
     <t>iam_menu_permission-85</t>
   </si>
   <si>
     <t>iam_menu_permission-86</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-auth.listByProject</t>
-  </si>
-  <si>
     <t>iam_menu_permission-87</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-auth.projectExport</t>
-  </si>
-  <si>
     <t>iam_menu_permission-88</t>
   </si>
   <si>
     <t>iam_menu_permission-89</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-component.componentsUpload</t>
-  </si>
-  <si>
     <t>iam_menu_permission-90</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-component.deleteComponents</t>
-  </si>
-  <si>
     <t>iam_menu_permission-91</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-component.deleteNpmComponents</t>
-  </si>
-  <si>
     <t>iam_menu_permission-92</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-component.listComponents</t>
-  </si>
-  <si>
     <t>iam_menu_permission-93</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-component.listNpmComponents</t>
-  </si>
-  <si>
     <t>iam_menu_permission-94</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-component.pomValidate</t>
-  </si>
-  <si>
     <t>iam_menu_permission-95</t>
   </si>
   <si>
     <t>iam_menu_permission-96</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository.getNpmRepo</t>
-  </si>
-  <si>
     <t>iam_menu_permission-97</t>
   </si>
   <si>
     <t>iam_menu_permission-98</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository.nexusRepoEnableAndDisAble</t>
-  </si>
-  <si>
     <t>iam_menu_permission-99</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-auth.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-100</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-auth.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-101</t>
   </si>
   <si>
@@ -2970,15 +2757,9 @@
     <t>iam_menu_permission-103</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-auth.remove</t>
-  </si>
-  <si>
     <t>iam_menu_permission-104</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-auth.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-105</t>
   </si>
   <si>
@@ -2997,36 +2778,21 @@
     <t>iam_menu_permission-110</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-log.listLogByProject</t>
-  </si>
-  <si>
     <t>iam_menu_permission-111</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository.createMavenRepo</t>
-  </si>
-  <si>
     <t>iam_menu_permission-112</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository.deleteMavenRepo</t>
-  </si>
-  <si>
     <t>iam_menu_permission-113</t>
   </si>
   <si>
     <t>iam_menu_permission-114</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository.groupRepo</t>
-  </si>
-  <si>
     <t>iam_menu_permission-115</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository.listRelatedMavenRepo</t>
-  </si>
-  <si>
     <t>iam_menu_permission-116</t>
   </si>
   <si>
@@ -3036,39 +2802,21 @@
     <t>iam_menu_permission-118</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository.relatedMavenRepo</t>
-  </si>
-  <si>
     <t>iam_menu_permission-119</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository.updateMavenRepo</t>
-  </si>
-  <si>
     <t>iam_menu_permission-120</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-server-config.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-121</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-server-config.enableProjectServerConfig</t>
-  </si>
-  <si>
     <t>iam_menu_permission-122</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-server-config.queryServerConfig</t>
-  </si>
-  <si>
     <t>iam_menu_permission-123</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-server-config.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-124</t>
   </si>
   <si>
@@ -3087,9 +2835,6 @@
     <t>iam_menu_permission-129</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository-org.groupRepo</t>
-  </si>
-  <si>
     <t>iam_menu_permission-130</t>
   </si>
   <si>
@@ -3111,15 +2856,9 @@
     <t>iam_menu_permission-136</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-component.listNpmComponentsVersion</t>
-  </si>
-  <si>
     <t>iam_menu_permission-137</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-component.npmComponentsUpload</t>
-  </si>
-  <si>
     <t>iam_menu_permission-138</t>
   </si>
   <si>
@@ -3171,45 +2910,27 @@
     <t>iam_menu_permission-154</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository.createNpmRepo</t>
-  </si>
-  <si>
     <t>iam_menu_permission-155</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository.deleteNpmRepo</t>
-  </si>
-  <si>
     <t>iam_menu_permission-156</t>
   </si>
   <si>
     <t>iam_menu_permission-157</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository.groupNpmRepo</t>
-  </si>
-  <si>
     <t>iam_menu_permission-158</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository.listRelatedNpmRepo</t>
-  </si>
-  <si>
     <t>iam_menu_permission-159</t>
   </si>
   <si>
     <t>iam_menu_permission-160</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository.relatedNpmRepo</t>
-  </si>
-  <si>
     <t>iam_menu_permission-161</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository.updateNpmRepo</t>
-  </si>
-  <si>
     <t>iam_menu_permission-162</t>
   </si>
   <si>
@@ -3231,9 +2952,6 @@
     <t>iam_menu_permission-168</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-component-org.listNpmComponentsVersion</t>
-  </si>
-  <si>
     <t>iam_menu_permission-169</t>
   </si>
   <si>
@@ -3243,9 +2961,6 @@
     <t>iam_menu_permission-171</t>
   </si>
   <si>
-    <t>hrds-prod-repo.nexus-repository-org.npmRepoName</t>
-  </si>
-  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -3880,6 +3595,292 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
+  </si>
+  <si>
+    <t>prod-repo-service.prod-user.detail</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod-repo-service.prod-user.getRoleList</t>
+  </si>
+  <si>
+    <t>prod-repo-service.product-library.listByProject</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-auth.listByOrg</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-auth.orgExport</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-guide.getTagGuide</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-image-tag.buildLog</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-image-tag.copyTag</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-image-tag.delete</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-image-tag.list</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-image.delete</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-image.getByOrg</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-log.listAuthLogByOrg</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-log.listImageLogByOrg</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-project.listAll</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-project.listByOrg</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-project.updatePublicFlag</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-quota.getGlobalQuota</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-quota.getProjectQuota</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-quota.updateGlobalQuota</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-quota.updateProjectQuota</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-auth.listByOrg</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-auth.orgExport</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-component-org.listComponents</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-component-org.listNpmComponents</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-component.componentGuide</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-log.listLogByOrg</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository-org.listNpmRepo</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository-org.listOtherMavenRepo</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository.getMavenRepo</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository.mavenRepoGuide</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-auth.detail</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-auth.listByProject</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-custom-repo.checkCustomRepo</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-custom-repo.detailByProject</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-custom-repo.pageRelatedServiceByProject</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-guide.getProjectGuid</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-image.getByProject</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-image.updateDesc</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-project.detail</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-project.listByProject</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-auth.create</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-auth.getUserList</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-auth.projectExport</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-auth.remove</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-auth.update</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-custom-repo.createByProject</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-custom-repo.deleteByProject</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-custom-repo.deleteRelation</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-custom-repo.existProjectShareCustomRepo</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-custom-repo.listAppServiceByCreate</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-custom-repo.pageNoRelatedService</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-custom-repo.relateServiceByProject</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-custom-repo.updateByProject</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-log.listAuthLogByProject</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-log.listImageLogByProject</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-project.createSaga</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-project.delete</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-project.updateSaga</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-auth.listByProject</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-auth.projectExport</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-component.componentsUpload</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-component.deleteComponents</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-component.deleteNpmComponents</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-component.listComponents</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-component.listNpmComponents</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-component.pomValidate</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository.getNpmRepo</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository.nexusRepoEnableAndDisAble</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-auth.create</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-auth.detail</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-auth.remove</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-auth.update</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-log.listLogByProject</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository.createMavenRepo</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository.deleteMavenRepo</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository.groupRepo</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository.listRelatedMavenRepo</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository.relatedMavenRepo</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository.updateMavenRepo</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-server-config.create</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-server-config.enableProjectServerConfig</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-server-config.queryServerConfig</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-server-config.update</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository-org.groupRepo</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-component.listNpmComponentsVersion</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-component.npmComponentsUpload</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository.createNpmRepo</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository.deleteNpmRepo</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository.groupNpmRepo</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository.listRelatedNpmRepo</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository.relatedNpmRepo</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository.updateNpmRepo</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-component-org.listNpmComponentsVersion</t>
+  </si>
+  <si>
+    <t>prod-repo-service.nexus-repository-org.npmRepoName</t>
   </si>
 </sst>
 </file>
@@ -4556,7 +4557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4693,6 +4694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5041,7 +5043,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
@@ -5084,7 +5086,7 @@
       <c r="F3" s="99"/>
       <c r="G3" s="99"/>
     </row>
-    <row r="4" spans="1:8" ht="19">
+    <row r="4" spans="1:8">
       <c r="C4" s="100" t="s">
         <v>3</v>
       </c>
@@ -5125,7 +5127,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="57">
+    <row r="9" spans="1:8" ht="49.5">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -5139,7 +5141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="57">
+    <row r="10" spans="1:8" ht="49.5">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -5150,7 +5152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="76">
+    <row r="11" spans="1:8" ht="66">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -5161,7 +5163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19">
+    <row r="12" spans="1:8">
       <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
@@ -5182,7 +5184,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="38">
+    <row r="15" spans="1:8" ht="33">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -5255,7 +5257,7 @@
       </c>
       <c r="E26" s="97"/>
     </row>
-    <row r="27" spans="3:5" ht="57">
+    <row r="27" spans="3:5" ht="49.5">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -5280,11 +5282,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
@@ -6534,11 +6536,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="E178" sqref="E178"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="31.140625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
@@ -6601,1964 +6603,1964 @@
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
-      <c r="G8" t="s">
-        <v>180</v>
+      <c r="G8" s="102" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="E9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
-      <c r="G9" t="s">
-        <v>182</v>
+      <c r="G9" s="102" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="E10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G10" t="s">
-        <v>184</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="E11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G11" t="s">
-        <v>186</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="E12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G12" t="s">
-        <v>188</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="E13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G13" t="s">
-        <v>190</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G14" t="s">
-        <v>192</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="E15" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G15" t="s">
-        <v>194</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G16" t="s">
-        <v>196</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G17" t="s">
-        <v>198</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G18" t="s">
-        <v>200</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G19" t="s">
-        <v>202</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G20" t="s">
-        <v>204</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G21" t="s">
-        <v>206</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G22" t="s">
-        <v>208</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G23" t="s">
-        <v>210</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G24" t="s">
-        <v>212</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G25" t="s">
-        <v>214</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G26" t="s">
-        <v>216</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G27" t="s">
-        <v>218</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G28" t="s">
-        <v>220</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G29" t="s">
-        <v>222</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G30" t="s">
-        <v>224</v>
+        <v>577</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G31" t="s">
-        <v>226</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G32" t="s">
-        <v>228</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G33" t="s">
-        <v>230</v>
+        <v>580</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G34" t="s">
-        <v>232</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G35" t="s">
-        <v>234</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G36" t="s">
-        <v>236</v>
+        <v>583</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G37" t="s">
-        <v>238</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G38" t="s">
-        <v>240</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G39" t="s">
-        <v>242</v>
+        <v>586</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G40" t="s">
-        <v>244</v>
+        <v>587</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G41" t="s">
-        <v>246</v>
+        <v>588</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G42" t="s">
-        <v>248</v>
+        <v>589</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G43" t="s">
-        <v>250</v>
+        <v>590</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G44" t="s">
-        <v>252</v>
+        <v>591</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G45" t="s">
-        <v>190</v>
+        <v>560</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G46" t="s">
-        <v>192</v>
+        <v>561</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G47" t="s">
-        <v>198</v>
+        <v>564</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G48" t="s">
-        <v>257</v>
+        <v>592</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G49" t="s">
-        <v>259</v>
+        <v>593</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G50" t="s">
-        <v>261</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G51" t="s">
-        <v>263</v>
+        <v>595</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="F52" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G52" t="s">
-        <v>265</v>
+        <v>596</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G53" t="s">
-        <v>242</v>
+        <v>586</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G54" t="s">
-        <v>268</v>
+        <v>597</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="F55" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G55" t="s">
-        <v>244</v>
+        <v>587</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G56" t="s">
-        <v>271</v>
+        <v>598</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G57" t="s">
-        <v>273</v>
+        <v>599</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G58" t="s">
-        <v>275</v>
+        <v>600</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G59" t="s">
-        <v>246</v>
+        <v>588</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G60" t="s">
-        <v>278</v>
+        <v>601</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="F61" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G61" t="s">
-        <v>280</v>
+        <v>602</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G62" t="s">
-        <v>282</v>
+        <v>603</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G63" t="s">
-        <v>248</v>
+        <v>589</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G64" t="s">
-        <v>285</v>
+        <v>604</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G65" t="s">
-        <v>287</v>
+        <v>605</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G66" t="s">
-        <v>289</v>
+        <v>606</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>290</v>
+        <v>238</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G67" t="s">
-        <v>250</v>
+        <v>590</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G68" t="s">
-        <v>292</v>
+        <v>607</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G69" t="s">
-        <v>294</v>
+        <v>608</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G70" t="s">
-        <v>252</v>
+        <v>591</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G71" t="s">
-        <v>190</v>
+        <v>560</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G72" t="s">
-        <v>192</v>
+        <v>561</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G73" t="s">
-        <v>196</v>
+        <v>563</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G74" t="s">
-        <v>198</v>
+        <v>564</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G75" t="s">
-        <v>200</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G76" t="s">
-        <v>257</v>
+        <v>592</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G77" t="s">
-        <v>259</v>
+        <v>593</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G78" t="s">
-        <v>304</v>
+        <v>609</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G79" t="s">
-        <v>306</v>
+        <v>610</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G80" t="s">
-        <v>308</v>
+        <v>611</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G81" t="s">
-        <v>310</v>
+        <v>612</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G82" t="s">
-        <v>261</v>
+        <v>594</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G83" t="s">
-        <v>263</v>
+        <v>595</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>313</v>
+        <v>255</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G84" t="s">
-        <v>314</v>
+        <v>613</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>315</v>
+        <v>256</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G85" t="s">
-        <v>214</v>
+        <v>572</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>316</v>
+        <v>257</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G86" t="s">
-        <v>317</v>
+        <v>614</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G87" t="s">
-        <v>319</v>
+        <v>615</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G88" t="s">
-        <v>230</v>
+        <v>580</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G89" t="s">
-        <v>322</v>
+        <v>616</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>323</v>
+        <v>261</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G90" t="s">
-        <v>324</v>
+        <v>617</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G91" t="s">
-        <v>326</v>
+        <v>618</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>327</v>
+        <v>263</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G92" t="s">
-        <v>328</v>
+        <v>619</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>329</v>
+        <v>264</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G93" t="s">
-        <v>330</v>
+        <v>620</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G94" t="s">
-        <v>332</v>
+        <v>621</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G95" t="s">
-        <v>238</v>
+        <v>584</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>334</v>
+        <v>267</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G96" t="s">
-        <v>335</v>
+        <v>622</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G97" t="s">
-        <v>240</v>
+        <v>585</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G98" t="s">
-        <v>338</v>
+        <v>623</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>339</v>
+        <v>270</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G99" t="s">
-        <v>340</v>
+        <v>624</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>341</v>
+        <v>271</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G100" t="s">
-        <v>342</v>
+        <v>625</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G101" t="s">
-        <v>317</v>
+        <v>614</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>344</v>
+        <v>273</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G102" t="s">
-        <v>319</v>
+        <v>615</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>345</v>
+        <v>274</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G103" t="s">
-        <v>346</v>
+        <v>626</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>347</v>
+        <v>275</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G104" t="s">
-        <v>348</v>
+        <v>627</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>349</v>
+        <v>276</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G105" t="s">
-        <v>230</v>
+        <v>580</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>350</v>
+        <v>277</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G106" t="s">
-        <v>322</v>
+        <v>616</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>351</v>
+        <v>278</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G107" t="s">
-        <v>324</v>
+        <v>617</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>352</v>
+        <v>279</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G108" t="s">
-        <v>328</v>
+        <v>619</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>353</v>
+        <v>280</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G109" t="s">
-        <v>332</v>
+        <v>621</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>354</v>
+        <v>281</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G110" t="s">
-        <v>355</v>
+        <v>628</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>356</v>
+        <v>282</v>
       </c>
       <c r="F111" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G111" t="s">
-        <v>357</v>
+        <v>629</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>358</v>
+        <v>283</v>
       </c>
       <c r="F112" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G112" t="s">
-        <v>359</v>
+        <v>630</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>360</v>
+        <v>284</v>
       </c>
       <c r="F113" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G113" t="s">
-        <v>238</v>
+        <v>584</v>
       </c>
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>361</v>
+        <v>285</v>
       </c>
       <c r="F114" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G114" t="s">
-        <v>362</v>
+        <v>631</v>
       </c>
     </row>
     <row r="115" spans="5:7">
       <c r="E115" t="s">
-        <v>363</v>
+        <v>286</v>
       </c>
       <c r="F115" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G115" t="s">
-        <v>364</v>
+        <v>632</v>
       </c>
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>365</v>
+        <v>287</v>
       </c>
       <c r="F116" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G116" t="s">
-        <v>240</v>
+        <v>585</v>
       </c>
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>366</v>
+        <v>288</v>
       </c>
       <c r="F117" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G117" t="s">
-        <v>338</v>
+        <v>623</v>
       </c>
     </row>
     <row r="118" spans="5:7">
       <c r="E118" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="F118" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G118" t="s">
-        <v>368</v>
+        <v>633</v>
       </c>
     </row>
     <row r="119" spans="5:7">
       <c r="E119" t="s">
-        <v>369</v>
+        <v>290</v>
       </c>
       <c r="F119" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G119" t="s">
-        <v>370</v>
+        <v>634</v>
       </c>
     </row>
     <row r="120" spans="5:7">
       <c r="E120" t="s">
-        <v>371</v>
+        <v>291</v>
       </c>
       <c r="F120" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G120" t="s">
-        <v>372</v>
+        <v>635</v>
       </c>
     </row>
     <row r="121" spans="5:7">
       <c r="E121" t="s">
-        <v>373</v>
+        <v>292</v>
       </c>
       <c r="F121" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G121" t="s">
-        <v>374</v>
+        <v>636</v>
       </c>
     </row>
     <row r="122" spans="5:7">
       <c r="E122" t="s">
-        <v>375</v>
+        <v>293</v>
       </c>
       <c r="F122" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G122" t="s">
-        <v>376</v>
+        <v>637</v>
       </c>
     </row>
     <row r="123" spans="5:7">
       <c r="E123" t="s">
-        <v>377</v>
+        <v>294</v>
       </c>
       <c r="F123" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G123" t="s">
-        <v>378</v>
+        <v>638</v>
       </c>
     </row>
     <row r="124" spans="5:7">
       <c r="E124" t="s">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="F124" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G124" t="s">
-        <v>222</v>
+        <v>576</v>
       </c>
     </row>
     <row r="125" spans="5:7">
       <c r="E125" t="s">
-        <v>380</v>
+        <v>296</v>
       </c>
       <c r="F125" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G125" t="s">
-        <v>224</v>
+        <v>577</v>
       </c>
     </row>
     <row r="126" spans="5:7">
       <c r="E126" t="s">
-        <v>381</v>
+        <v>297</v>
       </c>
       <c r="F126" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G126" t="s">
-        <v>226</v>
+        <v>578</v>
       </c>
     </row>
     <row r="127" spans="5:7">
       <c r="E127" t="s">
-        <v>382</v>
+        <v>298</v>
       </c>
       <c r="F127" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G127" t="s">
-        <v>230</v>
+        <v>580</v>
       </c>
     </row>
     <row r="128" spans="5:7">
       <c r="E128" t="s">
-        <v>383</v>
+        <v>299</v>
       </c>
       <c r="F128" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G128" t="s">
-        <v>232</v>
+        <v>581</v>
       </c>
     </row>
     <row r="129" spans="5:7">
       <c r="E129" t="s">
-        <v>384</v>
+        <v>300</v>
       </c>
       <c r="F129" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G129" t="s">
-        <v>385</v>
+        <v>639</v>
       </c>
     </row>
     <row r="130" spans="5:7">
       <c r="E130" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="F130" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G130" t="s">
-        <v>236</v>
+        <v>583</v>
       </c>
     </row>
     <row r="131" spans="5:7">
       <c r="E131" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="F131" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G131" t="s">
-        <v>240</v>
+        <v>585</v>
       </c>
     </row>
     <row r="132" spans="5:7">
       <c r="E132" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="F132" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G132" t="s">
-        <v>317</v>
+        <v>614</v>
       </c>
     </row>
     <row r="133" spans="5:7">
       <c r="E133" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="F133" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G133" t="s">
-        <v>319</v>
+        <v>615</v>
       </c>
     </row>
     <row r="134" spans="5:7">
       <c r="E134" t="s">
-        <v>390</v>
+        <v>305</v>
       </c>
       <c r="F134" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G134" t="s">
-        <v>326</v>
+        <v>618</v>
       </c>
     </row>
     <row r="135" spans="5:7">
       <c r="E135" t="s">
-        <v>391</v>
+        <v>306</v>
       </c>
       <c r="F135" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G135" t="s">
-        <v>330</v>
+        <v>620</v>
       </c>
     </row>
     <row r="136" spans="5:7">
       <c r="E136" t="s">
-        <v>392</v>
+        <v>307</v>
       </c>
       <c r="F136" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G136" t="s">
-        <v>393</v>
+        <v>640</v>
       </c>
     </row>
     <row r="137" spans="5:7">
       <c r="E137" t="s">
-        <v>394</v>
+        <v>308</v>
       </c>
       <c r="F137" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G137" t="s">
-        <v>395</v>
+        <v>641</v>
       </c>
     </row>
     <row r="138" spans="5:7">
       <c r="E138" t="s">
-        <v>396</v>
+        <v>309</v>
       </c>
       <c r="F138" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G138" t="s">
-        <v>332</v>
+        <v>621</v>
       </c>
     </row>
     <row r="139" spans="5:7">
       <c r="E139" t="s">
-        <v>397</v>
+        <v>310</v>
       </c>
       <c r="F139" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G139" t="s">
-        <v>355</v>
+        <v>628</v>
       </c>
     </row>
     <row r="140" spans="5:7">
       <c r="E140" t="s">
-        <v>398</v>
+        <v>311</v>
       </c>
       <c r="F140" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G140" t="s">
-        <v>335</v>
+        <v>622</v>
       </c>
     </row>
     <row r="141" spans="5:7">
       <c r="E141" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="F141" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G141" t="s">
-        <v>338</v>
+        <v>623</v>
       </c>
     </row>
     <row r="142" spans="5:7">
       <c r="E142" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="F142" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G142" t="s">
-        <v>340</v>
+        <v>624</v>
       </c>
     </row>
     <row r="143" spans="5:7">
       <c r="E143" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="F143" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G143" t="s">
-        <v>342</v>
+        <v>625</v>
       </c>
     </row>
     <row r="144" spans="5:7">
       <c r="E144" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="F144" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G144" t="s">
-        <v>317</v>
+        <v>614</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="F145" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G145" t="s">
-        <v>319</v>
+        <v>615</v>
       </c>
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="F146" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G146" t="s">
-        <v>346</v>
+        <v>626</v>
       </c>
     </row>
     <row r="147" spans="5:7">
       <c r="E147" t="s">
-        <v>405</v>
+        <v>318</v>
       </c>
       <c r="F147" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G147" t="s">
-        <v>348</v>
+        <v>627</v>
       </c>
     </row>
     <row r="148" spans="5:7">
       <c r="E148" t="s">
-        <v>406</v>
+        <v>319</v>
       </c>
       <c r="F148" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G148" t="s">
-        <v>326</v>
+        <v>618</v>
       </c>
     </row>
     <row r="149" spans="5:7">
       <c r="E149" t="s">
-        <v>407</v>
+        <v>320</v>
       </c>
       <c r="F149" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G149" t="s">
-        <v>330</v>
+        <v>620</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
       <c r="F150" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G150" t="s">
-        <v>393</v>
+        <v>640</v>
       </c>
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>409</v>
+        <v>322</v>
       </c>
       <c r="F151" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G151" t="s">
-        <v>395</v>
+        <v>641</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>410</v>
+        <v>323</v>
       </c>
       <c r="F152" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G152" t="s">
-        <v>332</v>
+        <v>621</v>
       </c>
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>411</v>
+        <v>324</v>
       </c>
       <c r="F153" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G153" t="s">
-        <v>355</v>
+        <v>628</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>412</v>
+        <v>325</v>
       </c>
       <c r="F154" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G154" t="s">
-        <v>413</v>
+        <v>642</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>414</v>
+        <v>326</v>
       </c>
       <c r="F155" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G155" t="s">
-        <v>415</v>
+        <v>643</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="F156" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G156" t="s">
-        <v>335</v>
+        <v>622</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="F157" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G157" t="s">
-        <v>418</v>
+        <v>644</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>419</v>
+        <v>329</v>
       </c>
       <c r="F158" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G158" t="s">
-        <v>420</v>
+        <v>645</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>421</v>
+        <v>330</v>
       </c>
       <c r="F159" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G159" t="s">
-        <v>338</v>
+        <v>623</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
-        <v>422</v>
+        <v>331</v>
       </c>
       <c r="F160" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G160" t="s">
-        <v>423</v>
+        <v>646</v>
       </c>
     </row>
     <row r="161" spans="5:7">
       <c r="E161" t="s">
-        <v>424</v>
+        <v>332</v>
       </c>
       <c r="F161" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G161" t="s">
-        <v>425</v>
+        <v>647</v>
       </c>
     </row>
     <row r="162" spans="5:7">
       <c r="E162" t="s">
-        <v>426</v>
+        <v>333</v>
       </c>
       <c r="F162" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G162" t="s">
-        <v>372</v>
+        <v>635</v>
       </c>
     </row>
     <row r="163" spans="5:7">
       <c r="E163" t="s">
-        <v>427</v>
+        <v>334</v>
       </c>
       <c r="F163" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G163" t="s">
-        <v>374</v>
+        <v>636</v>
       </c>
     </row>
     <row r="164" spans="5:7">
       <c r="E164" t="s">
-        <v>428</v>
+        <v>335</v>
       </c>
       <c r="F164" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G164" t="s">
-        <v>378</v>
+        <v>638</v>
       </c>
     </row>
     <row r="165" spans="5:7">
       <c r="E165" t="s">
-        <v>429</v>
+        <v>336</v>
       </c>
       <c r="F165" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G165" t="s">
-        <v>222</v>
+        <v>576</v>
       </c>
     </row>
     <row r="166" spans="5:7">
       <c r="E166" t="s">
-        <v>430</v>
+        <v>337</v>
       </c>
       <c r="F166" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G166" t="s">
-        <v>224</v>
+        <v>577</v>
       </c>
     </row>
     <row r="167" spans="5:7">
       <c r="E167" t="s">
-        <v>431</v>
+        <v>338</v>
       </c>
       <c r="F167" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G167" t="s">
-        <v>228</v>
+        <v>579</v>
       </c>
     </row>
     <row r="168" spans="5:7">
       <c r="E168" t="s">
-        <v>432</v>
+        <v>339</v>
       </c>
       <c r="F168" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G168" t="s">
-        <v>433</v>
+        <v>648</v>
       </c>
     </row>
     <row r="169" spans="5:7">
       <c r="E169" t="s">
-        <v>434</v>
+        <v>340</v>
       </c>
       <c r="F169" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G169" t="s">
-        <v>232</v>
+        <v>581</v>
       </c>
     </row>
     <row r="170" spans="5:7">
       <c r="E170" t="s">
-        <v>435</v>
+        <v>341</v>
       </c>
       <c r="F170" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G170" t="s">
-        <v>234</v>
+        <v>582</v>
       </c>
     </row>
     <row r="171" spans="5:7">
       <c r="E171" t="s">
-        <v>436</v>
+        <v>342</v>
       </c>
       <c r="F171" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G171" t="s">
-        <v>437</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -8575,7 +8577,7 @@
       <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
@@ -8615,66 +8617,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>438</v>
+        <v>343</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>439</v>
+        <v>344</v>
       </c>
       <c r="E7" s="73" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="74" t="s">
-        <v>440</v>
+        <v>345</v>
       </c>
       <c r="G7" s="75" t="s">
-        <v>441</v>
+        <v>346</v>
       </c>
       <c r="H7" t="s">
-        <v>442</v>
+        <v>347</v>
       </c>
       <c r="I7" t="s">
-        <v>443</v>
+        <v>348</v>
       </c>
       <c r="J7" t="s">
-        <v>444</v>
+        <v>349</v>
       </c>
       <c r="K7" t="s">
-        <v>445</v>
+        <v>350</v>
       </c>
       <c r="L7" t="s">
-        <v>446</v>
+        <v>351</v>
       </c>
       <c r="M7" t="s">
-        <v>447</v>
+        <v>352</v>
       </c>
       <c r="N7" t="s">
-        <v>448</v>
+        <v>353</v>
       </c>
       <c r="O7" t="s">
-        <v>449</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>450</v>
+        <v>355</v>
       </c>
       <c r="F8" t="s">
-        <v>451</v>
+        <v>356</v>
       </c>
       <c r="G8" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J8" t="s">
-        <v>454</v>
+        <v>359</v>
       </c>
       <c r="K8" t="s">
-        <v>451</v>
+        <v>356</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -8688,25 +8690,25 @@
     </row>
     <row r="9" spans="1:15">
       <c r="E9" t="s">
-        <v>455</v>
+        <v>360</v>
       </c>
       <c r="F9" t="s">
-        <v>456</v>
+        <v>361</v>
       </c>
       <c r="G9" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J9" t="s">
-        <v>457</v>
+        <v>362</v>
       </c>
       <c r="K9" t="s">
-        <v>456</v>
+        <v>361</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -8720,19 +8722,19 @@
     </row>
     <row r="10" spans="1:15">
       <c r="E10" t="s">
-        <v>458</v>
+        <v>363</v>
       </c>
       <c r="F10" t="s">
-        <v>459</v>
+        <v>364</v>
       </c>
       <c r="G10" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>460</v>
+        <v>365</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -8746,19 +8748,19 @@
     </row>
     <row r="11" spans="1:15">
       <c r="E11" t="s">
-        <v>461</v>
+        <v>366</v>
       </c>
       <c r="F11" t="s">
-        <v>462</v>
+        <v>367</v>
       </c>
       <c r="G11" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="M11" t="s">
         <v>79</v>
@@ -8772,25 +8774,25 @@
     </row>
     <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>463</v>
+        <v>368</v>
       </c>
       <c r="F12" t="s">
-        <v>464</v>
+        <v>369</v>
       </c>
       <c r="G12" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>460</v>
+        <v>365</v>
       </c>
       <c r="J12" t="s">
-        <v>465</v>
+        <v>370</v>
       </c>
       <c r="K12" t="s">
-        <v>465</v>
+        <v>370</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -8804,22 +8806,22 @@
     </row>
     <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>466</v>
+        <v>371</v>
       </c>
       <c r="F13" t="s">
-        <v>467</v>
+        <v>372</v>
       </c>
       <c r="G13" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J13" t="s">
-        <v>468</v>
+        <v>373</v>
       </c>
       <c r="M13" t="s">
         <v>79</v>
@@ -8833,22 +8835,22 @@
     </row>
     <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>469</v>
+        <v>374</v>
       </c>
       <c r="F14" t="s">
-        <v>470</v>
+        <v>375</v>
       </c>
       <c r="G14" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J14" t="s">
-        <v>471</v>
+        <v>376</v>
       </c>
       <c r="M14" t="s">
         <v>79</v>
@@ -8862,22 +8864,22 @@
     </row>
     <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>472</v>
+        <v>377</v>
       </c>
       <c r="F15" t="s">
-        <v>473</v>
+        <v>378</v>
       </c>
       <c r="G15" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J15" t="s">
-        <v>474</v>
+        <v>379</v>
       </c>
       <c r="M15" t="s">
         <v>79</v>
@@ -8891,22 +8893,22 @@
     </row>
     <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>475</v>
+        <v>380</v>
       </c>
       <c r="F16" t="s">
-        <v>476</v>
+        <v>381</v>
       </c>
       <c r="G16" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J16" t="s">
-        <v>477</v>
+        <v>382</v>
       </c>
       <c r="M16" t="s">
         <v>79</v>
@@ -8920,25 +8922,25 @@
     </row>
     <row r="17" spans="1:15">
       <c r="E17" t="s">
-        <v>478</v>
+        <v>383</v>
       </c>
       <c r="F17" t="s">
-        <v>479</v>
+        <v>384</v>
       </c>
       <c r="G17" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J17" t="s">
-        <v>480</v>
+        <v>385</v>
       </c>
       <c r="K17" t="s">
-        <v>480</v>
+        <v>385</v>
       </c>
       <c r="M17" t="s">
         <v>79</v>
@@ -8952,25 +8954,25 @@
     </row>
     <row r="18" spans="1:15">
       <c r="E18" t="s">
-        <v>481</v>
+        <v>386</v>
       </c>
       <c r="F18" t="s">
-        <v>482</v>
+        <v>387</v>
       </c>
       <c r="G18" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J18" t="s">
-        <v>483</v>
+        <v>388</v>
       </c>
       <c r="K18" t="s">
-        <v>483</v>
+        <v>388</v>
       </c>
       <c r="M18" t="s">
         <v>79</v>
@@ -8984,25 +8986,25 @@
     </row>
     <row r="19" spans="1:15">
       <c r="E19" t="s">
-        <v>484</v>
+        <v>389</v>
       </c>
       <c r="F19" t="s">
-        <v>485</v>
+        <v>390</v>
       </c>
       <c r="G19" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J19" t="s">
-        <v>486</v>
+        <v>391</v>
       </c>
       <c r="K19" t="s">
-        <v>485</v>
+        <v>390</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -9016,19 +9018,19 @@
     </row>
     <row r="20" spans="1:15">
       <c r="E20" t="s">
-        <v>487</v>
+        <v>392</v>
       </c>
       <c r="F20" t="s">
-        <v>488</v>
+        <v>393</v>
       </c>
       <c r="G20" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>460</v>
+        <v>365</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -9042,25 +9044,25 @@
     </row>
     <row r="21" spans="1:15">
       <c r="E21" t="s">
-        <v>489</v>
+        <v>394</v>
       </c>
       <c r="F21" t="s">
-        <v>490</v>
+        <v>395</v>
       </c>
       <c r="G21" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>460</v>
+        <v>365</v>
       </c>
       <c r="J21" t="s">
-        <v>491</v>
+        <v>396</v>
       </c>
       <c r="K21" t="s">
-        <v>491</v>
+        <v>396</v>
       </c>
       <c r="M21" t="s">
         <v>79</v>
@@ -9074,25 +9076,25 @@
     </row>
     <row r="22" spans="1:15">
       <c r="E22" t="s">
-        <v>492</v>
+        <v>397</v>
       </c>
       <c r="F22" t="s">
-        <v>493</v>
+        <v>398</v>
       </c>
       <c r="G22" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>460</v>
+        <v>365</v>
       </c>
       <c r="J22" t="s">
-        <v>494</v>
+        <v>399</v>
       </c>
       <c r="K22" t="s">
-        <v>494</v>
+        <v>399</v>
       </c>
       <c r="M22" t="s">
         <v>79</v>
@@ -9106,25 +9108,25 @@
     </row>
     <row r="23" spans="1:15">
       <c r="E23" t="s">
-        <v>495</v>
+        <v>400</v>
       </c>
       <c r="F23" t="s">
-        <v>496</v>
+        <v>401</v>
       </c>
       <c r="G23" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>460</v>
+        <v>365</v>
       </c>
       <c r="J23" t="s">
-        <v>497</v>
+        <v>402</v>
       </c>
       <c r="K23" t="s">
-        <v>497</v>
+        <v>402</v>
       </c>
       <c r="M23" t="s">
         <v>79</v>
@@ -9138,19 +9140,19 @@
     </row>
     <row r="24" spans="1:15">
       <c r="E24" t="s">
-        <v>498</v>
+        <v>403</v>
       </c>
       <c r="F24" t="s">
-        <v>499</v>
+        <v>404</v>
       </c>
       <c r="G24" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>460</v>
+        <v>365</v>
       </c>
       <c r="M24" t="s">
         <v>79</v>
@@ -9164,22 +9166,22 @@
     </row>
     <row r="25" spans="1:15">
       <c r="E25" t="s">
-        <v>500</v>
+        <v>405</v>
       </c>
       <c r="F25" t="s">
-        <v>501</v>
+        <v>406</v>
       </c>
       <c r="G25" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>460</v>
+        <v>365</v>
       </c>
       <c r="J25" t="s">
-        <v>502</v>
+        <v>407</v>
       </c>
       <c r="M25" t="s">
         <v>79</v>
@@ -9193,22 +9195,22 @@
     </row>
     <row r="26" spans="1:15">
       <c r="E26" t="s">
-        <v>503</v>
+        <v>408</v>
       </c>
       <c r="F26" t="s">
-        <v>504</v>
+        <v>409</v>
       </c>
       <c r="G26" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>460</v>
+        <v>365</v>
       </c>
       <c r="J26" t="s">
-        <v>505</v>
+        <v>410</v>
       </c>
       <c r="M26" t="s">
         <v>79</v>
@@ -9222,25 +9224,25 @@
     </row>
     <row r="27" spans="1:15">
       <c r="E27" t="s">
-        <v>506</v>
+        <v>411</v>
       </c>
       <c r="F27" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="G27" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H27" t="s">
         <v>82</v>
       </c>
       <c r="I27" t="s">
-        <v>460</v>
+        <v>365</v>
       </c>
       <c r="J27" t="s">
-        <v>508</v>
+        <v>413</v>
       </c>
       <c r="K27" t="s">
-        <v>508</v>
+        <v>413</v>
       </c>
       <c r="M27" t="s">
         <v>79</v>
@@ -9254,25 +9256,25 @@
     </row>
     <row r="28" spans="1:15">
       <c r="E28" t="s">
-        <v>509</v>
+        <v>414</v>
       </c>
       <c r="F28" t="s">
-        <v>510</v>
+        <v>415</v>
       </c>
       <c r="G28" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="H28" t="s">
         <v>82</v>
       </c>
       <c r="I28" t="s">
-        <v>460</v>
+        <v>365</v>
       </c>
       <c r="J28" t="s">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="K28" t="s">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="M28" t="s">
         <v>79</v>
@@ -9292,33 +9294,33 @@
         <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>512</v>
+        <v>417</v>
       </c>
       <c r="D30" s="76" t="s">
-        <v>513</v>
+        <v>418</v>
       </c>
       <c r="E30" s="77" t="s">
-        <v>514</v>
+        <v>419</v>
       </c>
       <c r="F30" s="78" t="s">
-        <v>515</v>
+        <v>420</v>
       </c>
       <c r="G30" s="79" t="s">
-        <v>516</v>
+        <v>421</v>
       </c>
       <c r="H30" s="80" t="s">
-        <v>517</v>
+        <v>422</v>
       </c>
       <c r="I30" t="s">
-        <v>518</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="E31" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F31" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -9329,15 +9331,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I31" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="E32" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F32" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -9348,15 +9350,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I32" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F33" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -9367,15 +9369,15 @@
         <v>iam_label-27</v>
       </c>
       <c r="I33" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F34" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -9386,15 +9388,15 @@
         <v>iam_label-28</v>
       </c>
       <c r="I34" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F35" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -9405,15 +9407,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I35" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F36" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -9424,15 +9426,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I36" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F37" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -9443,15 +9445,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I37" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F38" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -9462,15 +9464,15 @@
         <v>iam_label-27</v>
       </c>
       <c r="I38" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F39" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -9481,15 +9483,15 @@
         <v>iam_label-28</v>
       </c>
       <c r="I39" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F40" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G40" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -9500,15 +9502,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I40" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F41" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!E18</f>
@@ -9519,15 +9521,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I41" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F42" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -9538,15 +9540,15 @@
         <v>iam_label-28</v>
       </c>
       <c r="I42" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F43" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -9557,15 +9559,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I43" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F44" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -9576,15 +9578,15 @@
         <v>iam_label-27</v>
       </c>
       <c r="I44" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F45" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -9595,15 +9597,15 @@
         <v>iam_label-28</v>
       </c>
       <c r="I45" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F46" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -9614,15 +9616,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I46" t="s">
-        <v>521</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F47" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -9633,15 +9635,15 @@
         <v>iam_label-19</v>
       </c>
       <c r="I47" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F48" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -9652,15 +9654,15 @@
         <v>iam_label-28</v>
       </c>
       <c r="I48" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F49" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -9671,15 +9673,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I49" t="s">
-        <v>521</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F50" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -9690,15 +9692,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I50" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="E51" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F51" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G51" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -9709,15 +9711,15 @@
         <v>iam_label-28</v>
       </c>
       <c r="I51" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="E52" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F52" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G52" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -9728,15 +9730,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I52" t="s">
-        <v>521</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="E53" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F53" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G53" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -9747,15 +9749,15 @@
         <v>iam_label-19</v>
       </c>
       <c r="I53" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="5:9">
       <c r="E54" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F54" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G54" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -9766,15 +9768,15 @@
         <v>iam_label-28</v>
       </c>
       <c r="I54" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="5:9">
       <c r="E55" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F55" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G55" t="str">
         <f>菜单SAAS版!$E$28</f>
@@ -9785,15 +9787,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I55" t="s">
-        <v>521</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56" spans="5:9">
       <c r="E56" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F56" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G56" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -9804,15 +9806,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I56" t="s">
-        <v>521</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57" spans="5:9">
       <c r="E57" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F57" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G57" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -9823,15 +9825,15 @@
         <v>iam_label-19</v>
       </c>
       <c r="I57" t="s">
-        <v>521</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="5:9">
       <c r="E58" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F58" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G58" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -9842,15 +9844,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I58" t="s">
-        <v>521</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59" spans="5:9">
       <c r="E59" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F59" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G59" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -9861,15 +9863,15 @@
         <v>iam_label-19</v>
       </c>
       <c r="I59" t="s">
-        <v>521</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60" spans="5:9">
       <c r="E60" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F60" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G60" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -9880,15 +9882,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I60" t="s">
-        <v>521</v>
+        <v>426</v>
       </c>
     </row>
     <row r="61" spans="5:9">
       <c r="E61" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F61" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G61" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -9899,15 +9901,15 @@
         <v>iam_label-19</v>
       </c>
       <c r="I61" t="s">
-        <v>521</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" spans="5:9">
       <c r="E62" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F62" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G62" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -9918,15 +9920,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I62" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="5:9">
       <c r="E63" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F63" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G63" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -9937,15 +9939,15 @@
         <v>iam_label-27</v>
       </c>
       <c r="I63" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="64" spans="5:9">
       <c r="E64" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="F64" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="G64" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -9956,7 +9958,7 @@
         <v>iam_label-28</v>
       </c>
       <c r="I64" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -9973,7 +9975,7 @@
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="48" t="s">
@@ -10008,10 +10010,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>522</v>
+        <v>427</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>523</v>
+        <v>428</v>
       </c>
       <c r="E7" s="82" t="s">
         <v>54</v>
@@ -10026,72 +10028,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>524</v>
+        <v>429</v>
       </c>
       <c r="J7" t="s">
-        <v>443</v>
+        <v>348</v>
       </c>
       <c r="K7" s="84" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>525</v>
+        <v>430</v>
       </c>
       <c r="M7" s="85" t="s">
-        <v>526</v>
+        <v>431</v>
       </c>
       <c r="N7" s="86" t="s">
-        <v>527</v>
+        <v>432</v>
       </c>
       <c r="O7" t="s">
-        <v>528</v>
+        <v>433</v>
       </c>
       <c r="P7" t="s">
-        <v>529</v>
+        <v>434</v>
       </c>
       <c r="Q7" t="s">
-        <v>530</v>
+        <v>435</v>
       </c>
       <c r="R7" t="s">
-        <v>531</v>
+        <v>436</v>
       </c>
       <c r="S7" t="s">
-        <v>532</v>
+        <v>437</v>
       </c>
       <c r="T7" t="s">
-        <v>533</v>
+        <v>438</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>534</v>
+        <v>439</v>
       </c>
       <c r="W7" s="87" t="s">
-        <v>535</v>
+        <v>440</v>
       </c>
       <c r="X7" t="s">
-        <v>536</v>
+        <v>441</v>
       </c>
       <c r="Y7" t="s">
-        <v>537</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="E8" t="s">
-        <v>538</v>
+        <v>443</v>
       </c>
       <c r="F8" t="s">
-        <v>539</v>
+        <v>444</v>
       </c>
       <c r="G8" t="s">
-        <v>540</v>
+        <v>445</v>
       </c>
       <c r="H8" t="s">
-        <v>541</v>
+        <v>446</v>
       </c>
       <c r="I8" t="s">
-        <v>542</v>
+        <v>447</v>
       </c>
       <c r="J8" t="s">
         <v>166</v>
@@ -10127,10 +10129,10 @@
         <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>541</v>
+        <v>446</v>
       </c>
       <c r="V8" t="s">
-        <v>541</v>
+        <v>446</v>
       </c>
       <c r="W8" t="s">
         <v>79</v>
@@ -10138,19 +10140,19 @@
     </row>
     <row r="9" spans="1:25">
       <c r="E9" t="s">
-        <v>543</v>
+        <v>448</v>
       </c>
       <c r="F9" t="s">
-        <v>544</v>
+        <v>449</v>
       </c>
       <c r="G9" t="s">
-        <v>545</v>
+        <v>450</v>
       </c>
       <c r="H9" t="s">
-        <v>546</v>
+        <v>451</v>
       </c>
       <c r="I9" t="s">
-        <v>547</v>
+        <v>452</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -10186,10 +10188,10 @@
         <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>546</v>
+        <v>451</v>
       </c>
       <c r="V9" t="s">
-        <v>546</v>
+        <v>451</v>
       </c>
       <c r="W9" t="s">
         <v>79</v>
@@ -10197,16 +10199,16 @@
     </row>
     <row r="10" spans="1:25">
       <c r="E10" t="s">
-        <v>548</v>
+        <v>453</v>
       </c>
       <c r="F10" t="s">
-        <v>549</v>
+        <v>454</v>
       </c>
       <c r="G10" t="s">
-        <v>550</v>
+        <v>455</v>
       </c>
       <c r="H10" t="s">
-        <v>551</v>
+        <v>456</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -10243,33 +10245,33 @@
         <v>79</v>
       </c>
       <c r="U10" t="s">
-        <v>552</v>
+        <v>457</v>
       </c>
       <c r="V10" t="s">
-        <v>553</v>
+        <v>458</v>
       </c>
       <c r="W10" t="s">
         <v>79</v>
       </c>
       <c r="X10" t="s">
-        <v>554</v>
+        <v>459</v>
       </c>
       <c r="Y10" t="s">
-        <v>555</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="E11" t="s">
-        <v>556</v>
+        <v>461</v>
       </c>
       <c r="F11" t="s">
-        <v>557</v>
+        <v>462</v>
       </c>
       <c r="G11" t="s">
-        <v>558</v>
+        <v>463</v>
       </c>
       <c r="H11" t="s">
-        <v>559</v>
+        <v>464</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
@@ -10306,33 +10308,33 @@
         <v>79</v>
       </c>
       <c r="U11" t="s">
-        <v>560</v>
+        <v>465</v>
       </c>
       <c r="V11" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="W11" t="s">
         <v>79</v>
       </c>
       <c r="X11" t="s">
-        <v>562</v>
+        <v>467</v>
       </c>
       <c r="Y11" t="s">
-        <v>563</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="E12" t="s">
-        <v>564</v>
+        <v>469</v>
       </c>
       <c r="F12" t="s">
-        <v>565</v>
+        <v>470</v>
       </c>
       <c r="G12" t="s">
-        <v>566</v>
+        <v>471</v>
       </c>
       <c r="H12" t="s">
-        <v>567</v>
+        <v>472</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -10369,33 +10371,33 @@
         <v>79</v>
       </c>
       <c r="U12" t="s">
-        <v>568</v>
+        <v>473</v>
       </c>
       <c r="V12" t="s">
-        <v>569</v>
+        <v>474</v>
       </c>
       <c r="W12" t="s">
         <v>79</v>
       </c>
       <c r="X12" t="s">
-        <v>570</v>
+        <v>475</v>
       </c>
       <c r="Y12" t="s">
-        <v>571</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="E13" t="s">
-        <v>572</v>
+        <v>477</v>
       </c>
       <c r="F13" t="s">
-        <v>573</v>
+        <v>478</v>
       </c>
       <c r="G13" t="s">
-        <v>574</v>
+        <v>479</v>
       </c>
       <c r="H13" t="s">
-        <v>575</v>
+        <v>480</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -10432,33 +10434,33 @@
         <v>79</v>
       </c>
       <c r="U13" t="s">
-        <v>576</v>
+        <v>481</v>
       </c>
       <c r="V13" t="s">
-        <v>577</v>
+        <v>482</v>
       </c>
       <c r="W13" t="s">
         <v>79</v>
       </c>
       <c r="X13" t="s">
-        <v>578</v>
+        <v>483</v>
       </c>
       <c r="Y13" t="s">
-        <v>579</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="E14" t="s">
-        <v>580</v>
+        <v>485</v>
       </c>
       <c r="F14" t="s">
-        <v>581</v>
+        <v>486</v>
       </c>
       <c r="G14" t="s">
-        <v>581</v>
+        <v>486</v>
       </c>
       <c r="H14" t="s">
-        <v>582</v>
+        <v>487</v>
       </c>
       <c r="J14" t="s">
         <v>166</v>
@@ -10495,10 +10497,10 @@
         <v>79</v>
       </c>
       <c r="U14" t="s">
-        <v>583</v>
+        <v>488</v>
       </c>
       <c r="V14" t="s">
-        <v>584</v>
+        <v>489</v>
       </c>
       <c r="W14" t="s">
         <v>79</v>
@@ -10512,33 +10514,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>585</v>
+        <v>490</v>
       </c>
       <c r="D16" s="88" t="s">
-        <v>586</v>
+        <v>491</v>
       </c>
       <c r="E16" s="89" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="90" t="s">
-        <v>587</v>
+        <v>492</v>
       </c>
       <c r="G16" s="91" t="s">
-        <v>588</v>
+        <v>493</v>
       </c>
       <c r="H16" t="s">
-        <v>589</v>
+        <v>494</v>
       </c>
       <c r="I16" t="s">
-        <v>590</v>
+        <v>495</v>
       </c>
       <c r="J16" s="92" t="s">
-        <v>441</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>591</v>
+        <v>496</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -10549,18 +10551,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H17" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I17" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J17" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>595</v>
+        <v>500</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -10571,18 +10573,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I18" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J18" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>596</v>
+        <v>501</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -10593,18 +10595,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I19" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J19" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>597</v>
+        <v>502</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -10615,18 +10617,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H20" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I20" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J20" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>598</v>
+        <v>503</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -10637,18 +10639,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H21" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I21" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J21" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>599</v>
+        <v>504</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -10659,18 +10661,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H22" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I22" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J22" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>600</v>
+        <v>505</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -10681,18 +10683,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H23" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I23" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J23" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>601</v>
+        <v>506</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -10703,18 +10705,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H24" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I24" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J24" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>602</v>
+        <v>507</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -10725,18 +10727,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H25" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I25" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J25" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>603</v>
+        <v>508</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -10747,18 +10749,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H26" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I26" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J26" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>604</v>
+        <v>509</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -10769,18 +10771,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H27" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I27" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J27" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>605</v>
+        <v>510</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -10791,18 +10793,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H28" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I28" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J28" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>606</v>
+        <v>511</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -10813,18 +10815,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H29" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I29" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J29" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>607</v>
+        <v>512</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$12</f>
@@ -10835,18 +10837,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H30" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I30" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J30" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>608</v>
+        <v>513</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$12</f>
@@ -10857,18 +10859,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H31" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I31" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J31" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>609</v>
+        <v>514</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$12</f>
@@ -10879,18 +10881,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H32" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I32" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J32" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>610</v>
+        <v>515</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$12</f>
@@ -10901,18 +10903,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H33" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I33" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J33" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>611</v>
+        <v>516</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$12</f>
@@ -10923,18 +10925,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H34" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I34" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J34" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>612</v>
+        <v>517</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$13</f>
@@ -10945,18 +10947,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H35" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I35" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J35" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>613</v>
+        <v>518</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$13</f>
@@ -10967,18 +10969,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I36" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J36" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>614</v>
+        <v>519</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$13</f>
@@ -10989,18 +10991,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H37" t="s">
-        <v>615</v>
+        <v>520</v>
       </c>
       <c r="I37" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J37" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>616</v>
+        <v>521</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$13</f>
@@ -11011,18 +11013,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H38" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I38" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J38" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>617</v>
+        <v>522</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$13</f>
@@ -11033,18 +11035,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H39" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I39" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J39" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>618</v>
+        <v>523</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$13</f>
@@ -11055,13 +11057,13 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H40" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="I40" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="J40" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -11078,7 +11080,7 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="55" t="s">
@@ -11113,66 +11115,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>438</v>
+        <v>343</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>439</v>
+        <v>344</v>
       </c>
       <c r="E7" s="94" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="95" t="s">
-        <v>440</v>
+        <v>345</v>
       </c>
       <c r="G7" s="96" t="s">
-        <v>441</v>
+        <v>346</v>
       </c>
       <c r="H7" t="s">
-        <v>442</v>
+        <v>347</v>
       </c>
       <c r="I7" t="s">
-        <v>443</v>
+        <v>348</v>
       </c>
       <c r="J7" t="s">
-        <v>444</v>
+        <v>349</v>
       </c>
       <c r="K7" t="s">
-        <v>445</v>
+        <v>350</v>
       </c>
       <c r="L7" t="s">
-        <v>446</v>
+        <v>351</v>
       </c>
       <c r="M7" t="s">
-        <v>447</v>
+        <v>352</v>
       </c>
       <c r="N7" t="s">
-        <v>448</v>
+        <v>353</v>
       </c>
       <c r="O7" t="s">
-        <v>449</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>450</v>
+        <v>355</v>
       </c>
       <c r="F8" t="s">
-        <v>619</v>
+        <v>524</v>
       </c>
       <c r="G8" t="s">
-        <v>620</v>
+        <v>525</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J8" t="s">
-        <v>621</v>
+        <v>526</v>
       </c>
       <c r="K8" t="s">
-        <v>622</v>
+        <v>527</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -11186,22 +11188,22 @@
     </row>
     <row r="9" spans="1:15">
       <c r="E9" t="s">
-        <v>455</v>
+        <v>360</v>
       </c>
       <c r="F9" t="s">
-        <v>623</v>
+        <v>528</v>
       </c>
       <c r="G9" t="s">
-        <v>620</v>
+        <v>525</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>460</v>
+        <v>365</v>
       </c>
       <c r="J9" t="s">
-        <v>624</v>
+        <v>529</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -11215,25 +11217,25 @@
     </row>
     <row r="10" spans="1:15">
       <c r="E10" t="s">
-        <v>458</v>
+        <v>363</v>
       </c>
       <c r="F10" t="s">
-        <v>625</v>
+        <v>530</v>
       </c>
       <c r="G10" t="s">
-        <v>620</v>
+        <v>525</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J10" t="s">
-        <v>626</v>
+        <v>531</v>
       </c>
       <c r="K10" t="s">
-        <v>626</v>
+        <v>531</v>
       </c>
       <c r="M10" t="s">
         <v>79</v>
@@ -11247,25 +11249,25 @@
     </row>
     <row r="11" spans="1:15">
       <c r="E11" t="s">
-        <v>461</v>
+        <v>366</v>
       </c>
       <c r="F11" t="s">
-        <v>627</v>
+        <v>532</v>
       </c>
       <c r="G11" t="s">
-        <v>620</v>
+        <v>525</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J11" t="s">
-        <v>628</v>
+        <v>533</v>
       </c>
       <c r="K11" t="s">
-        <v>629</v>
+        <v>534</v>
       </c>
       <c r="M11" t="s">
         <v>79</v>
@@ -11279,25 +11281,25 @@
     </row>
     <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>463</v>
+        <v>368</v>
       </c>
       <c r="F12" t="s">
-        <v>630</v>
+        <v>535</v>
       </c>
       <c r="G12" t="s">
-        <v>620</v>
+        <v>525</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J12" t="s">
-        <v>631</v>
+        <v>536</v>
       </c>
       <c r="K12" t="s">
-        <v>631</v>
+        <v>536</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -11311,25 +11313,25 @@
     </row>
     <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>466</v>
+        <v>371</v>
       </c>
       <c r="F13" t="s">
-        <v>632</v>
+        <v>537</v>
       </c>
       <c r="G13" t="s">
-        <v>620</v>
+        <v>525</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J13" t="s">
-        <v>633</v>
+        <v>538</v>
       </c>
       <c r="K13" t="s">
-        <v>634</v>
+        <v>539</v>
       </c>
       <c r="M13" t="s">
         <v>79</v>
@@ -11343,25 +11345,25 @@
     </row>
     <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>469</v>
+        <v>374</v>
       </c>
       <c r="F14" t="s">
-        <v>635</v>
+        <v>540</v>
       </c>
       <c r="G14" t="s">
-        <v>620</v>
+        <v>525</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J14" t="s">
-        <v>636</v>
+        <v>541</v>
       </c>
       <c r="K14" t="s">
-        <v>571</v>
+        <v>476</v>
       </c>
       <c r="M14" t="s">
         <v>79</v>
@@ -11375,25 +11377,25 @@
     </row>
     <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>472</v>
+        <v>377</v>
       </c>
       <c r="F15" t="s">
-        <v>637</v>
+        <v>542</v>
       </c>
       <c r="G15" t="s">
-        <v>620</v>
+        <v>525</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J15" t="s">
-        <v>638</v>
+        <v>543</v>
       </c>
       <c r="K15" t="s">
-        <v>639</v>
+        <v>544</v>
       </c>
       <c r="M15" t="s">
         <v>79</v>
@@ -11407,25 +11409,25 @@
     </row>
     <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>475</v>
+        <v>380</v>
       </c>
       <c r="F16" t="s">
-        <v>640</v>
+        <v>545</v>
       </c>
       <c r="G16" t="s">
-        <v>620</v>
+        <v>525</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J16" t="s">
-        <v>641</v>
+        <v>546</v>
       </c>
       <c r="K16" t="s">
-        <v>642</v>
+        <v>547</v>
       </c>
       <c r="M16" t="s">
         <v>79</v>
@@ -11439,25 +11441,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>478</v>
+        <v>383</v>
       </c>
       <c r="F17" t="s">
-        <v>643</v>
+        <v>548</v>
       </c>
       <c r="G17" t="s">
-        <v>620</v>
+        <v>525</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J17" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="K17" t="s">
-        <v>645</v>
+        <v>550</v>
       </c>
       <c r="M17" t="s">
         <v>79</v>
@@ -11471,25 +11473,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>481</v>
+        <v>386</v>
       </c>
       <c r="F18" t="s">
-        <v>646</v>
+        <v>551</v>
       </c>
       <c r="G18" t="s">
-        <v>620</v>
+        <v>525</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J18" t="s">
-        <v>647</v>
+        <v>552</v>
       </c>
       <c r="K18" t="s">
-        <v>646</v>
+        <v>551</v>
       </c>
       <c r="M18" t="s">
         <v>79</v>
@@ -11503,25 +11505,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>484</v>
+        <v>389</v>
       </c>
       <c r="F19" t="s">
-        <v>648</v>
+        <v>553</v>
       </c>
       <c r="G19" t="s">
-        <v>620</v>
+        <v>525</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="J19" t="s">
-        <v>649</v>
+        <v>554</v>
       </c>
       <c r="K19" t="s">
-        <v>648</v>
+        <v>553</v>
       </c>
       <c r="M19" t="s">
         <v>79</v>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -3130,7 +3130,7 @@
     <t>iam_label-21</t>
   </si>
   <si>
-    <t>DEVOPS</t>
+    <t>N_DEVOPS</t>
   </si>
   <si>
     <t>devops模块菜单</t>
@@ -3583,11 +3583,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3619,6 +3619,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -3627,13 +3628,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3669,8 +3663,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3683,54 +3678,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3751,25 +3700,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3784,14 +3723,53 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3810,6 +3788,22 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3889,13 +3883,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3913,19 +3979,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3937,139 +4057,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4177,6 +4171,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -4200,17 +4209,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4222,6 +4220,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4241,30 +4248,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4273,208 +4256,218 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4487,7 +4480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4890,10 +4883,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.2847222222222" style="7" customWidth="1"/>
+    <col min="1" max="1" width="15.5694444444444" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.2847222222222" style="8" customWidth="1"/>
     <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="35.2847222222222" style="8" customWidth="1"/>
+    <col min="4" max="4" width="35.2847222222222" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
     <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
     <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
@@ -4918,31 +4911,31 @@
       <c r="H1" s="11"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="12"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4953,33 +4946,33 @@
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4987,56 +4980,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="31" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5046,64 +5039,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
     </row>
@@ -6450,7 +6443,7 @@
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6462,7 +6455,7 @@
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>182</v>
       </c>
     </row>
@@ -8422,7 +8415,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="17.4"/>
@@ -8630,7 +8623,7 @@
       <c r="E12" t="s">
         <v>463</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
         <v>464</v>
       </c>
       <c r="G12" t="s">

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="616">
   <si>
     <r>
       <rPr>
@@ -3130,10 +3130,19 @@
     <t>iam_label-21</t>
   </si>
   <si>
-    <t>N_DEVOPS</t>
+    <t>N_DEVOPS_MENU</t>
   </si>
   <si>
     <t>devops模块菜单</t>
+  </si>
+  <si>
+    <t>iam_label-22</t>
+  </si>
+  <si>
+    <t>N_OPERATIONS_MENU</t>
+  </si>
+  <si>
+    <t>运维模块菜单</t>
   </si>
   <si>
     <t>标签关系表</t>
@@ -3582,9 +3591,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -3659,22 +3668,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3686,7 +3687,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3694,7 +3695,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3715,7 +3716,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3738,53 +3763,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3799,9 +3778,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3883,139 +3892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4033,7 +3910,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4051,19 +4006,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4170,36 +4179,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4224,11 +4203,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4248,11 +4233,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4267,151 +4258,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5121,15 +5130,15 @@
   <sheetPr/>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="12.1388888888889" customWidth="1"/>
-    <col min="6" max="6" width="24.5694444444444" customWidth="1"/>
-    <col min="7" max="7" width="12.8541666666667" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="62.25" customWidth="1"/>
+    <col min="7" max="7" width="32.9166666666667" customWidth="1"/>
     <col min="16" max="16" width="29.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6376,7 +6385,7 @@
   <sheetPr/>
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
@@ -8414,16 +8423,17 @@
   <sheetPr/>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="17.4"/>
   <cols>
     <col min="5" max="5" width="13.7083333333333" customWidth="1"/>
-    <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="13.1388888888889" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="27.75" customWidth="1"/>
     <col min="8" max="8" width="14.7083333333333" customWidth="1"/>
+    <col min="9" max="9" width="15.9166666666667" customWidth="1"/>
     <col min="10" max="10" width="24.8333333333333" customWidth="1"/>
     <col min="11" max="11" width="16.9166666666667" customWidth="1"/>
     <col min="12" max="12" width="18.9166666666667" customWidth="1"/>
@@ -8651,57 +8661,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
+    <row r="13" spans="5:15">
+      <c r="E13" t="s">
+        <v>466</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="G13" t="s">
+        <v>452</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>453</v>
+      </c>
+      <c r="J13" t="s">
+        <v>468</v>
+      </c>
+      <c r="K13" t="s">
+        <v>468</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
         <v>50</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
-        <v>466</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="C15" t="s">
         <v>469</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="I14" t="s">
+      <c r="F15" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="15" spans="5:9">
-      <c r="E15" t="s">
+      <c r="G15" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="F15" t="s">
-        <v>452</v>
-      </c>
-      <c r="G15" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H15" t="str">
-        <f>菜单标签数据!$E$9</f>
-        <v>iam_label-11</v>
+      <c r="H15" s="3" t="s">
+        <v>474</v>
       </c>
       <c r="I15" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F16" t="s">
         <v>452</v>
@@ -8711,16 +8734,16 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H16" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
+        <f>菜单标签数据!$E$9</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I16" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F17" t="s">
         <v>452</v>
@@ -8734,596 +8757,596 @@
         <v>iam_label-21</v>
       </c>
       <c r="I17" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F18" t="s">
         <v>452</v>
       </c>
       <c r="G18" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
+        <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="H18" t="str">
         <f>E12</f>
         <v>iam_label-21</v>
       </c>
       <c r="I18" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F19" t="s">
         <v>452</v>
       </c>
       <c r="G19" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="H19" t="str">
         <f>E12</f>
         <v>iam_label-21</v>
       </c>
       <c r="I19" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F20" t="s">
         <v>452</v>
       </c>
       <c r="G20" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+        <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="H20" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I20" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F21" t="s">
         <v>452</v>
       </c>
       <c r="G21" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+        <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="H21" t="str">
         <f>E12</f>
         <v>iam_label-21</v>
       </c>
       <c r="I21" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F22" t="s">
         <v>452</v>
       </c>
       <c r="G22" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+        <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="H22" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F23" t="s">
         <v>452</v>
       </c>
       <c r="G23" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+        <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="H23" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
+        <f>E13</f>
+        <v>iam_label-22</v>
       </c>
       <c r="I23" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F24" t="s">
         <v>452</v>
       </c>
       <c r="G24" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
+        <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="H24" t="str">
         <f>E12</f>
         <v>iam_label-21</v>
       </c>
       <c r="I24" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F25" t="s">
         <v>452</v>
       </c>
       <c r="G25" t="str">
-        <f>菜单SAAS版!E18</f>
-        <v>iam_menu-18</v>
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="H25" t="str">
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9">
+      <c r="E26" t="s">
+        <v>476</v>
+      </c>
+      <c r="F26" t="s">
+        <v>452</v>
+      </c>
+      <c r="G26" t="str">
+        <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="H26" t="str">
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9">
+      <c r="E27" t="s">
+        <v>476</v>
+      </c>
+      <c r="F27" t="s">
+        <v>452</v>
+      </c>
+      <c r="G27" t="str">
+        <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="H27" t="str">
         <f>E12</f>
         <v>iam_label-21</v>
       </c>
-      <c r="I25" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9">
-      <c r="E26" t="s">
-        <v>473</v>
-      </c>
-      <c r="F26" t="s">
-        <v>452</v>
-      </c>
-      <c r="G26" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="H26" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
-      </c>
-      <c r="I26" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9">
-      <c r="E27" t="s">
-        <v>473</v>
-      </c>
-      <c r="F27" t="s">
-        <v>452</v>
-      </c>
-      <c r="G27" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H27" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
       <c r="I27" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F28" t="s">
         <v>452</v>
       </c>
       <c r="G28" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="H28" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I28" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F29" t="s">
         <v>452</v>
       </c>
       <c r="G29" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="H29" t="str">
         <f>E12</f>
         <v>iam_label-21</v>
       </c>
       <c r="I29" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F30" t="s">
         <v>452</v>
       </c>
       <c r="G30" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="H30" t="str">
+        <f>E13</f>
+        <v>iam_label-22</v>
+      </c>
+      <c r="I30" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9">
+      <c r="E31" t="s">
+        <v>476</v>
+      </c>
+      <c r="F31" t="s">
+        <v>452</v>
+      </c>
+      <c r="G31" t="str">
+        <f>菜单SAAS版!$E$28</f>
+        <v>iam_menu-28</v>
+      </c>
+      <c r="H31" t="str">
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
+      </c>
+      <c r="I31" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9">
+      <c r="E32" t="s">
+        <v>476</v>
+      </c>
+      <c r="F32" t="s">
+        <v>452</v>
+      </c>
+      <c r="G32" t="str">
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="H32" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-8</v>
       </c>
-      <c r="I30" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9">
-      <c r="E31" t="s">
-        <v>473</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="I32" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9">
+      <c r="E33" t="s">
+        <v>476</v>
+      </c>
+      <c r="F33" t="s">
         <v>452</v>
       </c>
-      <c r="G31" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H31" t="str">
+      <c r="G33" t="str">
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="H33" t="str">
         <f>E12</f>
         <v>iam_label-21</v>
       </c>
-      <c r="I31" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9">
-      <c r="E32" t="s">
-        <v>473</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="I33" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9">
+      <c r="E34" t="s">
+        <v>476</v>
+      </c>
+      <c r="F34" t="s">
         <v>452</v>
       </c>
-      <c r="G32" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H32" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
-      </c>
-      <c r="I32" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9">
-      <c r="E33" t="s">
-        <v>473</v>
-      </c>
-      <c r="F33" t="s">
-        <v>452</v>
-      </c>
-      <c r="G33" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="H33" t="str">
+      <c r="G34" t="str">
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H34" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-8</v>
       </c>
-      <c r="I33" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9">
-      <c r="E34" t="s">
-        <v>473</v>
-      </c>
-      <c r="F34" t="s">
-        <v>452</v>
-      </c>
-      <c r="G34" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
-      </c>
-      <c r="H34" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
-      </c>
       <c r="I34" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F35" t="s">
         <v>452</v>
       </c>
       <c r="G35" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="H35" t="str">
         <f>E12</f>
         <v>iam_label-21</v>
       </c>
       <c r="I35" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F36" t="s">
         <v>452</v>
       </c>
       <c r="G36" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H36" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I36" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F37" t="s">
         <v>452</v>
       </c>
       <c r="G37" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H37" t="str">
         <f>E12</f>
         <v>iam_label-21</v>
       </c>
       <c r="I37" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F38" t="s">
         <v>452</v>
       </c>
       <c r="G38" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="H38" t="str">
+        <f>菜单标签数据!$E$9</f>
+        <v>iam_label-11</v>
+      </c>
+      <c r="I38" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9">
+      <c r="E39" t="s">
+        <v>476</v>
+      </c>
+      <c r="F39" t="s">
+        <v>452</v>
+      </c>
+      <c r="G39" t="str">
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H39" t="str">
         <f>E12</f>
         <v>iam_label-21</v>
       </c>
-      <c r="I38" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="39" spans="5:9">
-      <c r="E39" t="s">
-        <v>473</v>
-      </c>
-      <c r="F39" t="s">
-        <v>452</v>
-      </c>
-      <c r="G39" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-28</v>
-      </c>
-      <c r="H39" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
-      </c>
       <c r="I39" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F40" t="s">
         <v>452</v>
       </c>
       <c r="G40" t="str">
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H40" t="str">
+        <f>E13</f>
+        <v>iam_label-22</v>
+      </c>
+      <c r="I40" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="5:9">
+      <c r="E41" t="s">
+        <v>476</v>
+      </c>
+      <c r="F41" t="s">
+        <v>452</v>
+      </c>
+      <c r="G41" t="str">
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
+      </c>
+      <c r="H41" t="str">
+        <f>E13</f>
+        <v>iam_label-22</v>
+      </c>
+      <c r="I41" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="5:9">
+      <c r="E42" t="s">
+        <v>476</v>
+      </c>
+      <c r="F42" t="s">
+        <v>452</v>
+      </c>
+      <c r="G42" t="str">
+        <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
+      </c>
+      <c r="H42" t="str">
+        <f>E13</f>
+        <v>iam_label-22</v>
+      </c>
+      <c r="I42" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="5:9">
+      <c r="E43" t="s">
+        <v>476</v>
+      </c>
+      <c r="F43" t="s">
+        <v>452</v>
+      </c>
+      <c r="G43" t="str">
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="H43" t="str">
+        <f>E13</f>
+        <v>iam_label-22</v>
+      </c>
+      <c r="I43" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="5:9">
+      <c r="E44" t="s">
+        <v>476</v>
+      </c>
+      <c r="F44" t="s">
+        <v>452</v>
+      </c>
+      <c r="G44" t="str">
+        <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
+      </c>
+      <c r="H44" t="str">
+        <f>E13</f>
+        <v>iam_label-22</v>
+      </c>
+      <c r="I44" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="5:9">
+      <c r="E45" t="s">
+        <v>476</v>
+      </c>
+      <c r="F45" t="s">
+        <v>452</v>
+      </c>
+      <c r="G45" t="str">
+        <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="H45" t="str">
+        <f>E13</f>
+        <v>iam_label-22</v>
+      </c>
+      <c r="I45" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="5:9">
+      <c r="E46" t="s">
+        <v>476</v>
+      </c>
+      <c r="F46" t="s">
+        <v>452</v>
+      </c>
+      <c r="G46" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
-      <c r="H40" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I40" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="41" spans="5:9">
-      <c r="E41" t="s">
-        <v>473</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="H46" t="str">
+        <f>E13</f>
+        <v>iam_label-22</v>
+      </c>
+      <c r="I46" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="5:9">
+      <c r="E47" t="s">
+        <v>476</v>
+      </c>
+      <c r="F47" t="s">
         <v>452</v>
       </c>
-      <c r="G41" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H41" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
-      </c>
-      <c r="I41" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="42" spans="5:9">
-      <c r="E42" t="s">
-        <v>473</v>
-      </c>
-      <c r="F42" t="s">
-        <v>452</v>
-      </c>
-      <c r="G42" t="str">
+      <c r="G47" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
-      <c r="H42" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I42" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="43" spans="5:9">
-      <c r="E43" t="s">
-        <v>473</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="H47" t="str">
+        <f>E13</f>
+        <v>iam_label-22</v>
+      </c>
+      <c r="I47" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="5:9">
+      <c r="E48" t="s">
+        <v>476</v>
+      </c>
+      <c r="F48" t="s">
         <v>452</v>
       </c>
-      <c r="G43" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H43" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
-      </c>
-      <c r="I43" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="44" spans="5:9">
-      <c r="E44" t="s">
-        <v>473</v>
-      </c>
-      <c r="F44" t="s">
-        <v>452</v>
-      </c>
-      <c r="G44" t="str">
+      <c r="G48" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
-      <c r="H44" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I44" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="45" spans="5:9">
-      <c r="E45" t="s">
-        <v>473</v>
-      </c>
-      <c r="F45" t="s">
-        <v>452</v>
-      </c>
-      <c r="G45" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H45" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
-      </c>
-      <c r="I45" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="46" spans="5:9">
-      <c r="E46" t="s">
-        <v>473</v>
-      </c>
-      <c r="F46" t="s">
-        <v>452</v>
-      </c>
-      <c r="G46" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H46" t="str">
-        <f>菜单标签数据!$E$9</f>
-        <v>iam_label-11</v>
-      </c>
-      <c r="I46" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="47" spans="5:9">
-      <c r="E47" t="s">
-        <v>473</v>
-      </c>
-      <c r="F47" t="s">
-        <v>452</v>
-      </c>
-      <c r="G47" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H47" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
-      </c>
-      <c r="I47" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="48" spans="5:9">
-      <c r="E48" t="s">
-        <v>473</v>
-      </c>
-      <c r="F48" t="s">
-        <v>452</v>
-      </c>
-      <c r="G48" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
       <c r="H48" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
+        <f>E13</f>
+        <v>iam_label-22</v>
       </c>
       <c r="I48" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -9376,10 +9399,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -9394,7 +9417,7 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="J7" t="s">
         <v>443</v>
@@ -9403,63 +9426,63 @@
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="O7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="P7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="Q7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="R7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="S7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="T7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="X7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="Y7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F8" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G8" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="H8" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="I8" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="J8" t="s">
         <v>166</v>
@@ -9495,10 +9518,10 @@
         <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="V8" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="W8" t="s">
         <v>79</v>
@@ -9506,19 +9529,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F9" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G9" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H9" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="I9" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -9554,10 +9577,10 @@
         <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="V9" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="W9" t="s">
         <v>79</v>
@@ -9565,16 +9588,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F10" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G10" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H10" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -9611,33 +9634,33 @@
         <v>79</v>
       </c>
       <c r="U10" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="V10" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="W10" t="s">
         <v>79</v>
       </c>
       <c r="X10" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="Y10" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F11" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G11" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H11" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
@@ -9674,33 +9697,33 @@
         <v>79</v>
       </c>
       <c r="U11" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="V11" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="W11" t="s">
         <v>79</v>
       </c>
       <c r="X11" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="Y11" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F12" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G12" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="H12" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -9737,33 +9760,33 @@
         <v>79</v>
       </c>
       <c r="U12" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="V12" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="W12" t="s">
         <v>79</v>
       </c>
       <c r="X12" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="Y12" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F13" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="G13" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="H13" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -9800,33 +9823,33 @@
         <v>79</v>
       </c>
       <c r="U13" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="V13" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="W13" t="s">
         <v>79</v>
       </c>
       <c r="X13" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="Y13" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="G14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H14" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J14" t="s">
         <v>166</v>
@@ -9863,10 +9886,10 @@
         <v>79</v>
       </c>
       <c r="U14" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="V14" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="W14" t="s">
         <v>79</v>
@@ -9880,25 +9903,25 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H16" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="I16" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>441</v>
@@ -9906,7 +9929,7 @@
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -9917,18 +9940,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H17" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I17" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J17" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -9939,18 +9962,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I18" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J18" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -9961,18 +9984,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I19" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J19" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -9983,18 +10006,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H20" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I20" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J20" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -10005,18 +10028,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H21" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I21" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J21" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -10027,18 +10050,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H22" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I22" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J22" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -10049,18 +10072,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H23" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I23" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J23" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -10071,18 +10094,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H24" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I24" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J24" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -10093,18 +10116,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H25" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I25" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J25" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -10115,18 +10138,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H26" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I26" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J26" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -10137,18 +10160,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H27" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I27" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J27" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -10159,18 +10182,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H28" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I28" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J28" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -10181,18 +10204,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H29" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I29" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J29" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$12</f>
@@ -10203,18 +10226,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H30" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I30" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J30" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$12</f>
@@ -10225,18 +10248,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H31" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I31" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J31" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$12</f>
@@ -10247,18 +10270,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H32" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I32" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J32" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$12</f>
@@ -10269,18 +10292,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H33" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I33" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J33" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$12</f>
@@ -10291,18 +10314,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H34" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I34" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J34" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$13</f>
@@ -10313,18 +10336,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H35" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I35" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J35" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$13</f>
@@ -10335,18 +10358,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I36" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J36" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$13</f>
@@ -10357,18 +10380,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H37" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="I37" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J37" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$13</f>
@@ -10379,18 +10402,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H38" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I38" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J38" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$13</f>
@@ -10401,18 +10424,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H39" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I39" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J39" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$13</f>
@@ -10423,13 +10446,13 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H40" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I40" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J40" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -10526,10 +10549,10 @@
         <v>450</v>
       </c>
       <c r="F8" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="G8" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -10538,10 +10561,10 @@
         <v>453</v>
       </c>
       <c r="J8" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K8" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -10555,13 +10578,13 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
+        <v>580</v>
+      </c>
+      <c r="F9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G9" t="s">
         <v>577</v>
-      </c>
-      <c r="F9" t="s">
-        <v>578</v>
-      </c>
-      <c r="G9" t="s">
-        <v>574</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
@@ -10570,7 +10593,7 @@
         <v>459</v>
       </c>
       <c r="J9" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -10584,13 +10607,13 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="F10" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="G10" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
@@ -10599,10 +10622,10 @@
         <v>453</v>
       </c>
       <c r="J10" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="K10" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="M10" t="s">
         <v>79</v>
@@ -10619,10 +10642,10 @@
         <v>455</v>
       </c>
       <c r="F11" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="G11" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
@@ -10631,10 +10654,10 @@
         <v>453</v>
       </c>
       <c r="J11" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="K11" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="M11" t="s">
         <v>79</v>
@@ -10651,10 +10674,10 @@
         <v>457</v>
       </c>
       <c r="F12" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="G12" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
@@ -10663,10 +10686,10 @@
         <v>453</v>
       </c>
       <c r="J12" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K12" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -10680,13 +10703,13 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F13" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="G13" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
@@ -10695,10 +10718,10 @@
         <v>453</v>
       </c>
       <c r="J13" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="K13" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="M13" t="s">
         <v>79</v>
@@ -10712,13 +10735,13 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F14" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="G14" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
@@ -10727,10 +10750,10 @@
         <v>453</v>
       </c>
       <c r="J14" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M14" t="s">
         <v>79</v>
@@ -10744,13 +10767,13 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="F15" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="G15" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
@@ -10759,10 +10782,10 @@
         <v>453</v>
       </c>
       <c r="J15" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K15" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="M15" t="s">
         <v>79</v>
@@ -10776,13 +10799,13 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="F16" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="G16" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
@@ -10791,10 +10814,10 @@
         <v>453</v>
       </c>
       <c r="J16" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K16" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="M16" t="s">
         <v>79</v>
@@ -10808,13 +10831,13 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F17" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G17" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
@@ -10823,10 +10846,10 @@
         <v>453</v>
       </c>
       <c r="J17" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="K17" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="M17" t="s">
         <v>79</v>
@@ -10840,13 +10863,13 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="F18" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="G18" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
@@ -10855,10 +10878,10 @@
         <v>453</v>
       </c>
       <c r="J18" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="K18" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="M18" t="s">
         <v>79</v>
@@ -10872,13 +10895,13 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="F19" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="G19" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
@@ -10887,10 +10910,10 @@
         <v>453</v>
       </c>
       <c r="J19" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="K19" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="M19" t="s">
         <v>79</v>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="615">
   <si>
     <r>
       <rPr>
@@ -2123,9 +2123,6 @@
   </si>
   <si>
     <t>choerodon.code.project.infra</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>iam_menu-18</t>
@@ -3591,8 +3588,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3666,9 +3663,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3679,8 +3737,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3702,7 +3761,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3715,16 +3774,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3738,9 +3790,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3749,61 +3801,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3892,7 +3889,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3904,37 +4021,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3946,37 +4051,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3988,91 +4069,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4179,15 +4176,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4203,32 +4191,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4250,11 +4217,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4268,159 +4233,191 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5130,8 +5127,8 @@
   <sheetPr/>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="17.4"/>
@@ -5747,8 +5744,8 @@
       <c r="L17" t="s">
         <v>80</v>
       </c>
-      <c r="M17" t="s">
-        <v>129</v>
+      <c r="M17">
+        <v>90</v>
       </c>
       <c r="N17" t="s">
         <v>82</v>
@@ -5774,10 +5771,10 @@
     </row>
     <row r="18" spans="5:24">
       <c r="E18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" t="s">
         <v>130</v>
-      </c>
-      <c r="F18" t="s">
-        <v>131</v>
       </c>
       <c r="G18" t="s">
         <v>86</v>
@@ -5808,16 +5805,16 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>79</v>
+      </c>
+      <c r="R18" t="s">
+        <v>79</v>
+      </c>
+      <c r="S18" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>79</v>
-      </c>
-      <c r="R18" t="s">
-        <v>79</v>
-      </c>
-      <c r="S18" t="s">
-        <v>133</v>
       </c>
       <c r="T18" t="s">
         <v>79</v>
@@ -5831,10 +5828,10 @@
     </row>
     <row r="19" spans="5:24">
       <c r="E19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" t="s">
-        <v>135</v>
       </c>
       <c r="G19" t="s">
         <v>95</v>
@@ -5868,7 +5865,7 @@
         <v>79</v>
       </c>
       <c r="S19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T19" t="s">
         <v>79</v>
@@ -5885,16 +5882,16 @@
     </row>
     <row r="20" spans="5:24">
       <c r="E20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" t="s">
         <v>137</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>138</v>
       </c>
-      <c r="G20" t="s">
-        <v>139</v>
-      </c>
       <c r="H20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I20" t="s">
         <v>87</v>
@@ -5925,7 +5922,7 @@
         <v>79</v>
       </c>
       <c r="S20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T20" t="s">
         <v>79</v>
@@ -5942,16 +5939,16 @@
     </row>
     <row r="21" spans="5:24">
       <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" t="s">
         <v>141</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>142</v>
       </c>
-      <c r="G21" t="s">
-        <v>143</v>
-      </c>
       <c r="H21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I21" t="s">
         <v>87</v>
@@ -5982,7 +5979,7 @@
         <v>79</v>
       </c>
       <c r="S21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T21" t="s">
         <v>79</v>
@@ -5996,16 +5993,16 @@
     </row>
     <row r="22" spans="5:24">
       <c r="E22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" t="s">
         <v>145</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>146</v>
       </c>
-      <c r="G22" t="s">
-        <v>147</v>
-      </c>
       <c r="H22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I22" t="s">
         <v>87</v>
@@ -6021,7 +6018,7 @@
         <v>96</v>
       </c>
       <c r="M22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N22" t="s">
         <v>82</v>
@@ -6036,7 +6033,7 @@
         <v>79</v>
       </c>
       <c r="S22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T22" t="s">
         <v>79</v>
@@ -6050,16 +6047,16 @@
     </row>
     <row r="23" spans="5:24">
       <c r="E23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" t="s">
         <v>150</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>151</v>
       </c>
-      <c r="G23" t="s">
-        <v>152</v>
-      </c>
       <c r="H23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I23" t="s">
         <v>87</v>
@@ -6090,7 +6087,7 @@
         <v>79</v>
       </c>
       <c r="S23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T23" t="s">
         <v>79</v>
@@ -6107,16 +6104,16 @@
     </row>
     <row r="24" spans="5:24">
       <c r="E24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" t="s">
         <v>154</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>155</v>
       </c>
-      <c r="G24" t="s">
-        <v>156</v>
-      </c>
       <c r="H24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I24" t="s">
         <v>87</v>
@@ -6132,7 +6129,7 @@
         <v>96</v>
       </c>
       <c r="M24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N24" t="s">
         <v>82</v>
@@ -6147,7 +6144,7 @@
         <v>79</v>
       </c>
       <c r="S24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T24" t="s">
         <v>79</v>
@@ -6161,16 +6158,16 @@
     </row>
     <row r="25" spans="5:24">
       <c r="E25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" t="s">
         <v>159</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>160</v>
       </c>
-      <c r="G25" t="s">
-        <v>161</v>
-      </c>
       <c r="H25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I25" t="s">
         <v>87</v>
@@ -6186,7 +6183,7 @@
         <v>96</v>
       </c>
       <c r="M25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N25" t="s">
         <v>82</v>
@@ -6201,7 +6198,7 @@
         <v>79</v>
       </c>
       <c r="S25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T25" t="s">
         <v>79</v>
@@ -6215,10 +6212,10 @@
     </row>
     <row r="26" spans="5:24">
       <c r="E26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" t="s">
         <v>164</v>
-      </c>
-      <c r="F26" t="s">
-        <v>165</v>
       </c>
       <c r="G26" t="s">
         <v>77</v>
@@ -6230,7 +6227,7 @@
         <v>87</v>
       </c>
       <c r="J26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K26" t="s">
         <v>79</v>
@@ -6239,7 +6236,7 @@
         <v>80</v>
       </c>
       <c r="M26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N26" t="s">
         <v>82</v>
@@ -6251,7 +6248,7 @@
         <v>79</v>
       </c>
       <c r="S26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T26" t="s">
         <v>79</v>
@@ -6265,10 +6262,10 @@
     </row>
     <row r="27" spans="5:24">
       <c r="E27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" t="s">
         <v>168</v>
-      </c>
-      <c r="F27" t="s">
-        <v>169</v>
       </c>
       <c r="G27" t="s">
         <v>86</v>
@@ -6280,7 +6277,7 @@
         <v>87</v>
       </c>
       <c r="J27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K27" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -6299,16 +6296,16 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>79</v>
+      </c>
+      <c r="R27" t="s">
+        <v>79</v>
+      </c>
+      <c r="S27" t="s">
         <v>170</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>79</v>
-      </c>
-      <c r="R27" t="s">
-        <v>79</v>
-      </c>
-      <c r="S27" t="s">
-        <v>171</v>
       </c>
       <c r="T27" t="s">
         <v>79</v>
@@ -6322,10 +6319,10 @@
     </row>
     <row r="28" spans="5:24">
       <c r="E28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" t="s">
         <v>172</v>
-      </c>
-      <c r="F28" t="s">
-        <v>173</v>
       </c>
       <c r="G28" t="s">
         <v>95</v>
@@ -6337,7 +6334,7 @@
         <v>87</v>
       </c>
       <c r="J28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K28" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -6359,7 +6356,7 @@
         <v>79</v>
       </c>
       <c r="S28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T28" t="s">
         <v>79</v>
@@ -6429,1987 +6426,1987 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F52" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F55" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G56" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G60" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F61" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G62" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G64" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G69" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G76" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G78" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G79" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G80" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G81" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G82" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G83" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G84" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G86" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G87" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G88" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G89" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G90" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G91" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G92" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G93" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G94" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G95" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G96" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G98" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G99" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G100" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G101" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G102" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G103" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G104" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G106" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G107" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G108" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G109" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F111" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G111" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F112" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G112" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F113" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G113" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F114" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G114" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="115" spans="5:7">
       <c r="E115" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F115" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G115" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F116" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F117" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G117" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118" spans="5:7">
       <c r="E118" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F118" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G118" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="119" spans="5:7">
       <c r="E119" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F119" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G119" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="120" spans="5:7">
       <c r="E120" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F120" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G120" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="121" spans="5:7">
       <c r="E121" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F121" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G121" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="122" spans="5:7">
       <c r="E122" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F122" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G122" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="123" spans="5:7">
       <c r="E123" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F123" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G123" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="124" spans="5:7">
       <c r="E124" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F124" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G124" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125" spans="5:7">
       <c r="E125" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F125" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G125" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="126" spans="5:7">
       <c r="E126" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F126" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G126" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="127" spans="5:7">
       <c r="E127" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F127" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G127" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="128" spans="5:7">
       <c r="E128" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F128" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G128" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="129" spans="5:7">
       <c r="E129" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F129" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G129" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="130" spans="5:7">
       <c r="E130" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F130" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G130" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="131" spans="5:7">
       <c r="E131" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F131" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G131" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="5:7">
       <c r="E132" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F132" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G132" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="5:7">
       <c r="E133" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F133" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G133" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="134" spans="5:7">
       <c r="E134" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F134" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G134" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="135" spans="5:7">
       <c r="E135" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F135" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G135" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="136" spans="5:7">
       <c r="E136" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F136" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G136" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="137" spans="5:7">
       <c r="E137" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F137" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G137" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="138" spans="5:7">
       <c r="E138" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F138" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G138" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="139" spans="5:7">
       <c r="E139" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F139" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G139" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="140" spans="5:7">
       <c r="E140" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F140" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G140" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="141" spans="5:7">
       <c r="E141" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F141" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G141" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="142" spans="5:7">
       <c r="E142" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F142" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G142" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="143" spans="5:7">
       <c r="E143" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F143" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G143" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="144" spans="5:7">
       <c r="E144" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F144" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G144" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F145" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G145" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F146" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G146" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="147" spans="5:7">
       <c r="E147" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F147" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G147" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="148" spans="5:7">
       <c r="E148" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F148" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G148" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="149" spans="5:7">
       <c r="E149" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F149" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G149" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F150" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G150" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F151" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G151" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F152" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G152" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F153" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G153" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F154" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G154" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F155" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G155" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F156" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G156" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F157" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G157" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F158" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G158" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F159" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G159" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F160" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G160" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="161" spans="5:7">
       <c r="E161" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F161" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G161" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="162" spans="5:7">
       <c r="E162" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F162" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G162" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="163" spans="5:7">
       <c r="E163" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F163" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G163" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="164" spans="5:7">
       <c r="E164" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F164" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G164" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="165" spans="5:7">
       <c r="E165" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F165" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G165" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="166" spans="5:7">
       <c r="E166" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F166" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G166" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="167" spans="5:7">
       <c r="E167" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F167" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G167" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="168" spans="5:7">
       <c r="E168" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F168" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G168" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="169" spans="5:7">
       <c r="E169" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F169" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G169" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="170" spans="5:7">
       <c r="E170" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F170" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G170" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="171" spans="5:7">
       <c r="E171" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F171" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G171" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -8423,7 +8420,7 @@
   <sheetPr/>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -8474,66 +8471,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" t="s">
         <v>441</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>442</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>443</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>444</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>445</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>446</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>447</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>448</v>
-      </c>
-      <c r="O7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F8" t="s">
         <v>450</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>451</v>
-      </c>
-      <c r="G8" t="s">
-        <v>452</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
+        <v>452</v>
+      </c>
+      <c r="J8" t="s">
         <v>453</v>
       </c>
-      <c r="J8" t="s">
-        <v>454</v>
-      </c>
       <c r="K8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -8547,19 +8544,19 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
+        <v>454</v>
+      </c>
+      <c r="F9" t="s">
         <v>455</v>
       </c>
-      <c r="F9" t="s">
-        <v>456</v>
-      </c>
       <c r="G9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -8573,25 +8570,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
+        <v>456</v>
+      </c>
+      <c r="F10" t="s">
         <v>457</v>
       </c>
-      <c r="F10" t="s">
-        <v>458</v>
-      </c>
       <c r="G10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
+        <v>458</v>
+      </c>
+      <c r="J10" t="s">
         <v>459</v>
       </c>
-      <c r="J10" t="s">
-        <v>460</v>
-      </c>
       <c r="K10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -8605,19 +8602,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
+        <v>460</v>
+      </c>
+      <c r="F11" t="s">
         <v>461</v>
       </c>
-      <c r="F11" t="s">
-        <v>462</v>
-      </c>
       <c r="G11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M11" t="s">
         <v>82</v>
@@ -8631,25 +8628,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
+        <v>462</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>464</v>
-      </c>
       <c r="G12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -8663,25 +8660,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
+        <v>465</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>467</v>
-      </c>
       <c r="G13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -8701,33 +8698,33 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
+        <v>468</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" t="s">
         <v>474</v>
-      </c>
-      <c r="I15" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -8738,15 +8735,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -8757,15 +8754,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -8776,15 +8773,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -8795,15 +8792,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -8814,15 +8811,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -8833,15 +8830,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G22" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -8852,15 +8849,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G23" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -8871,15 +8868,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G24" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -8890,15 +8887,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G25" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -8909,15 +8906,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G26" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -8928,15 +8925,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I26" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G27" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -8947,15 +8944,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G28" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -8966,15 +8963,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -8985,15 +8982,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -9004,15 +9001,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$28</f>
@@ -9023,15 +9020,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -9042,15 +9039,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -9061,15 +9058,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -9080,15 +9077,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -9099,15 +9096,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -9118,15 +9115,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I36" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -9137,15 +9134,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F38" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -9156,15 +9153,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -9175,15 +9172,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G40" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -9194,15 +9191,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="5:9">
       <c r="E41" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -9213,15 +9210,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I41" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="5:9">
       <c r="E42" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -9232,15 +9229,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="5:9">
       <c r="E43" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F43" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -9251,15 +9248,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I43" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="5:9">
       <c r="E44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -9270,15 +9267,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I44" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="5:9">
       <c r="E45" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -9289,15 +9286,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I45" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="5:9">
       <c r="E46" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F46" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -9308,15 +9305,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I46" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="5:9">
       <c r="E47" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F47" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -9327,15 +9324,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I47" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="5:9">
       <c r="E48" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F48" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -9346,7 +9343,7 @@
         <v>iam_label-22</v>
       </c>
       <c r="I48" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -9399,10 +9396,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -9417,75 +9414,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
+        <v>481</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" t="s">
         <v>484</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>485</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>486</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>487</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>488</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>489</v>
-      </c>
-      <c r="T7" t="s">
-        <v>490</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
+        <v>490</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" t="s">
         <v>492</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>493</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F8" t="s">
         <v>495</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>496</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>497</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>498</v>
       </c>
-      <c r="I8" t="s">
-        <v>499</v>
-      </c>
       <c r="J8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K8" t="s">
         <v>79</v>
@@ -9518,10 +9515,10 @@
         <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="V8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W8" t="s">
         <v>79</v>
@@ -9529,19 +9526,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
+        <v>499</v>
+      </c>
+      <c r="F9" t="s">
         <v>500</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>501</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>502</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>503</v>
-      </c>
-      <c r="I9" t="s">
-        <v>504</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -9577,10 +9574,10 @@
         <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="W9" t="s">
         <v>79</v>
@@ -9588,16 +9585,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
+        <v>504</v>
+      </c>
+      <c r="F10" t="s">
         <v>505</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>506</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>507</v>
-      </c>
-      <c r="H10" t="s">
-        <v>508</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -9634,33 +9631,33 @@
         <v>79</v>
       </c>
       <c r="U10" t="s">
+        <v>508</v>
+      </c>
+      <c r="V10" t="s">
         <v>509</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
+        <v>79</v>
+      </c>
+      <c r="X10" t="s">
         <v>510</v>
       </c>
-      <c r="W10" t="s">
-        <v>79</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>511</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
+        <v>512</v>
+      </c>
+      <c r="F11" t="s">
         <v>513</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>514</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>515</v>
-      </c>
-      <c r="H11" t="s">
-        <v>516</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
@@ -9697,33 +9694,33 @@
         <v>79</v>
       </c>
       <c r="U11" t="s">
+        <v>516</v>
+      </c>
+      <c r="V11" t="s">
         <v>517</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
+        <v>79</v>
+      </c>
+      <c r="X11" t="s">
         <v>518</v>
       </c>
-      <c r="W11" t="s">
-        <v>79</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>519</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F12" t="s">
         <v>521</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>522</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>523</v>
-      </c>
-      <c r="H12" t="s">
-        <v>524</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -9760,33 +9757,33 @@
         <v>79</v>
       </c>
       <c r="U12" t="s">
+        <v>524</v>
+      </c>
+      <c r="V12" t="s">
         <v>525</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
+        <v>79</v>
+      </c>
+      <c r="X12" t="s">
         <v>526</v>
       </c>
-      <c r="W12" t="s">
-        <v>79</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>527</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
+        <v>528</v>
+      </c>
+      <c r="F13" t="s">
         <v>529</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>530</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>531</v>
-      </c>
-      <c r="H13" t="s">
-        <v>532</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -9823,36 +9820,36 @@
         <v>79</v>
       </c>
       <c r="U13" t="s">
+        <v>532</v>
+      </c>
+      <c r="V13" t="s">
         <v>533</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
+        <v>79</v>
+      </c>
+      <c r="X13" t="s">
         <v>534</v>
       </c>
-      <c r="W13" t="s">
-        <v>79</v>
-      </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>535</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
+        <v>536</v>
+      </c>
+      <c r="F14" t="s">
         <v>537</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>537</v>
+      </c>
+      <c r="H14" t="s">
         <v>538</v>
       </c>
-      <c r="G14" t="s">
-        <v>538</v>
-      </c>
-      <c r="H14" t="s">
-        <v>539</v>
-      </c>
       <c r="J14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s">
         <v>79</v>
@@ -9886,10 +9883,10 @@
         <v>79</v>
       </c>
       <c r="U14" t="s">
+        <v>539</v>
+      </c>
+      <c r="V14" t="s">
         <v>540</v>
-      </c>
-      <c r="V14" t="s">
-        <v>541</v>
       </c>
       <c r="W14" t="s">
         <v>79</v>
@@ -9903,33 +9900,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
+        <v>541</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" t="s">
         <v>545</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>546</v>
       </c>
-      <c r="I16" t="s">
-        <v>547</v>
-      </c>
       <c r="J16" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -9940,18 +9937,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H17" t="s">
+        <v>548</v>
+      </c>
+      <c r="I17" t="s">
         <v>549</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>550</v>
-      </c>
-      <c r="J17" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -9962,18 +9959,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
+        <v>548</v>
+      </c>
+      <c r="I18" t="s">
         <v>549</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>550</v>
-      </c>
-      <c r="J18" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -9984,18 +9981,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
+        <v>548</v>
+      </c>
+      <c r="I19" t="s">
         <v>549</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>550</v>
-      </c>
-      <c r="J19" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -10006,18 +10003,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H20" t="s">
+        <v>548</v>
+      </c>
+      <c r="I20" t="s">
         <v>549</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>550</v>
-      </c>
-      <c r="J20" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -10028,18 +10025,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H21" t="s">
+        <v>548</v>
+      </c>
+      <c r="I21" t="s">
         <v>549</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>550</v>
-      </c>
-      <c r="J21" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -10050,18 +10047,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H22" t="s">
+        <v>548</v>
+      </c>
+      <c r="I22" t="s">
         <v>549</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>550</v>
-      </c>
-      <c r="J22" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -10072,18 +10069,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H23" t="s">
+        <v>548</v>
+      </c>
+      <c r="I23" t="s">
         <v>549</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>550</v>
-      </c>
-      <c r="J23" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -10094,18 +10091,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H24" t="s">
+        <v>548</v>
+      </c>
+      <c r="I24" t="s">
         <v>549</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>550</v>
-      </c>
-      <c r="J24" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -10116,18 +10113,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H25" t="s">
+        <v>548</v>
+      </c>
+      <c r="I25" t="s">
         <v>549</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>550</v>
-      </c>
-      <c r="J25" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -10138,18 +10135,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H26" t="s">
+        <v>548</v>
+      </c>
+      <c r="I26" t="s">
         <v>549</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>550</v>
-      </c>
-      <c r="J26" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -10160,18 +10157,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H27" t="s">
+        <v>548</v>
+      </c>
+      <c r="I27" t="s">
         <v>549</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>550</v>
-      </c>
-      <c r="J27" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -10182,18 +10179,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H28" t="s">
+        <v>548</v>
+      </c>
+      <c r="I28" t="s">
         <v>549</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>550</v>
-      </c>
-      <c r="J28" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -10204,18 +10201,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H29" t="s">
+        <v>548</v>
+      </c>
+      <c r="I29" t="s">
         <v>549</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>550</v>
-      </c>
-      <c r="J29" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$12</f>
@@ -10226,18 +10223,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H30" t="s">
+        <v>548</v>
+      </c>
+      <c r="I30" t="s">
         <v>549</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>550</v>
-      </c>
-      <c r="J30" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$12</f>
@@ -10248,18 +10245,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H31" t="s">
+        <v>548</v>
+      </c>
+      <c r="I31" t="s">
         <v>549</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>550</v>
-      </c>
-      <c r="J31" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$12</f>
@@ -10270,18 +10267,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H32" t="s">
+        <v>548</v>
+      </c>
+      <c r="I32" t="s">
         <v>549</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>550</v>
-      </c>
-      <c r="J32" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$12</f>
@@ -10292,18 +10289,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H33" t="s">
+        <v>548</v>
+      </c>
+      <c r="I33" t="s">
         <v>549</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>550</v>
-      </c>
-      <c r="J33" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$12</f>
@@ -10314,18 +10311,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H34" t="s">
+        <v>548</v>
+      </c>
+      <c r="I34" t="s">
         <v>549</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>550</v>
-      </c>
-      <c r="J34" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$13</f>
@@ -10336,18 +10333,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H35" t="s">
+        <v>548</v>
+      </c>
+      <c r="I35" t="s">
         <v>549</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>550</v>
-      </c>
-      <c r="J35" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$13</f>
@@ -10358,18 +10355,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
+        <v>548</v>
+      </c>
+      <c r="I36" t="s">
         <v>549</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>550</v>
-      </c>
-      <c r="J36" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$13</f>
@@ -10380,18 +10377,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I37" t="s">
+        <v>549</v>
+      </c>
+      <c r="J37" t="s">
         <v>550</v>
-      </c>
-      <c r="J37" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$13</f>
@@ -10402,18 +10399,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H38" t="s">
+        <v>548</v>
+      </c>
+      <c r="I38" t="s">
         <v>549</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>550</v>
-      </c>
-      <c r="J38" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$13</f>
@@ -10424,18 +10421,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H39" t="s">
+        <v>548</v>
+      </c>
+      <c r="I39" t="s">
         <v>549</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>550</v>
-      </c>
-      <c r="J39" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$13</f>
@@ -10446,13 +10443,13 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H40" t="s">
+        <v>548</v>
+      </c>
+      <c r="I40" t="s">
         <v>549</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>550</v>
-      </c>
-      <c r="J40" t="s">
-        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -10505,66 +10502,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" t="s">
         <v>441</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>442</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>443</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>444</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>445</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>446</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>447</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>448</v>
-      </c>
-      <c r="O7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F8" t="s">
+        <v>575</v>
+      </c>
+      <c r="G8" t="s">
         <v>576</v>
-      </c>
-      <c r="G8" t="s">
-        <v>577</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J8" t="s">
+        <v>577</v>
+      </c>
+      <c r="K8" t="s">
         <v>578</v>
-      </c>
-      <c r="K8" t="s">
-        <v>579</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -10578,22 +10575,22 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
+        <v>579</v>
+      </c>
+      <c r="F9" t="s">
         <v>580</v>
       </c>
-      <c r="F9" t="s">
-        <v>581</v>
-      </c>
       <c r="G9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -10607,25 +10604,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
+        <v>582</v>
+      </c>
+      <c r="F10" t="s">
         <v>583</v>
       </c>
-      <c r="F10" t="s">
-        <v>584</v>
-      </c>
       <c r="G10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M10" t="s">
         <v>79</v>
@@ -10639,25 +10636,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J11" t="s">
+        <v>586</v>
+      </c>
+      <c r="K11" t="s">
         <v>587</v>
-      </c>
-      <c r="K11" t="s">
-        <v>588</v>
       </c>
       <c r="M11" t="s">
         <v>79</v>
@@ -10671,25 +10668,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -10703,25 +10700,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
+        <v>590</v>
+      </c>
+      <c r="F13" t="s">
         <v>591</v>
       </c>
-      <c r="F13" t="s">
-        <v>592</v>
-      </c>
       <c r="G13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J13" t="s">
+        <v>592</v>
+      </c>
+      <c r="K13" t="s">
         <v>593</v>
-      </c>
-      <c r="K13" t="s">
-        <v>594</v>
       </c>
       <c r="M13" t="s">
         <v>79</v>
@@ -10735,25 +10732,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
+        <v>594</v>
+      </c>
+      <c r="F14" t="s">
         <v>595</v>
       </c>
-      <c r="F14" t="s">
-        <v>596</v>
-      </c>
       <c r="G14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M14" t="s">
         <v>79</v>
@@ -10767,25 +10764,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
+        <v>597</v>
+      </c>
+      <c r="F15" t="s">
         <v>598</v>
       </c>
-      <c r="F15" t="s">
-        <v>599</v>
-      </c>
       <c r="G15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J15" t="s">
+        <v>599</v>
+      </c>
+      <c r="K15" t="s">
         <v>600</v>
-      </c>
-      <c r="K15" t="s">
-        <v>601</v>
       </c>
       <c r="M15" t="s">
         <v>79</v>
@@ -10799,25 +10796,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
+        <v>601</v>
+      </c>
+      <c r="F16" t="s">
         <v>602</v>
       </c>
-      <c r="F16" t="s">
-        <v>603</v>
-      </c>
       <c r="G16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J16" t="s">
+        <v>603</v>
+      </c>
+      <c r="K16" t="s">
         <v>604</v>
-      </c>
-      <c r="K16" t="s">
-        <v>605</v>
       </c>
       <c r="M16" t="s">
         <v>79</v>
@@ -10831,25 +10828,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
+        <v>605</v>
+      </c>
+      <c r="F17" t="s">
         <v>606</v>
       </c>
-      <c r="F17" t="s">
-        <v>607</v>
-      </c>
       <c r="G17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J17" t="s">
+        <v>607</v>
+      </c>
+      <c r="K17" t="s">
         <v>608</v>
-      </c>
-      <c r="K17" t="s">
-        <v>609</v>
       </c>
       <c r="M17" t="s">
         <v>79</v>
@@ -10863,25 +10860,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
+        <v>609</v>
+      </c>
+      <c r="F18" t="s">
         <v>610</v>
       </c>
-      <c r="F18" t="s">
-        <v>611</v>
-      </c>
       <c r="G18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M18" t="s">
         <v>79</v>
@@ -10895,25 +10892,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
+        <v>612</v>
+      </c>
+      <c r="F19" t="s">
         <v>613</v>
       </c>
-      <c r="F19" t="s">
-        <v>614</v>
-      </c>
       <c r="G19" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K19" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M19" t="s">
         <v>79</v>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="615">
   <si>
     <r>
       <rPr>
@@ -3588,10 +3588,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -3669,16 +3669,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3686,16 +3692,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3730,13 +3736,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -3746,15 +3745,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3776,15 +3776,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3806,8 +3805,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3889,7 +3889,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3901,91 +3991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3997,25 +4003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4033,7 +4021,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4045,31 +4039,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4176,50 +4176,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4248,13 +4209,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4273,162 +4238,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4441,6 +4442,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4889,10 +4891,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.2847222222222" style="8" customWidth="1"/>
+    <col min="1" max="1" width="15.5694444444444" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.2847222222222" style="9" customWidth="1"/>
     <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="35.2847222222222" style="6" customWidth="1"/>
+    <col min="4" max="4" width="35.2847222222222" style="7" customWidth="1"/>
     <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
     <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
     <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
@@ -4906,79 +4908,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="5"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4986,56 +4988,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5045,64 +5047,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5127,8 +5129,8 @@
   <sheetPr/>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="17.4"/>
@@ -6449,7 +6451,7 @@
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>179</v>
       </c>
     </row>
@@ -6461,7 +6463,7 @@
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>181</v>
       </c>
     </row>
@@ -8418,10 +8420,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="17.4"/>
@@ -8626,67 +8628,67 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
-      <c r="E12" t="s">
+    <row r="12" s="5" customFormat="1" spans="5:15">
+      <c r="E12" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="5">
         <v>0</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="5">
         <v>1</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
-      <c r="E13" t="s">
+    <row r="13" s="5" customFormat="1" spans="5:15">
+      <c r="E13" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="5">
         <v>0</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="5">
         <v>1</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="5">
         <v>1</v>
       </c>
     </row>
@@ -8746,12 +8748,12 @@
         <v>451</v>
       </c>
       <c r="G17" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
+        <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="H17" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
         <v>476</v>
@@ -8765,15 +8767,15 @@
         <v>451</v>
       </c>
       <c r="G18" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+        <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="H18" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="5:9">
@@ -8784,15 +8786,15 @@
         <v>451</v>
       </c>
       <c r="G19" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="H19" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="5:9">
@@ -8803,12 +8805,12 @@
         <v>451</v>
       </c>
       <c r="G20" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
+        <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="H20" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I20" t="s">
         <v>476</v>
@@ -8822,15 +8824,15 @@
         <v>451</v>
       </c>
       <c r="G21" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="H21" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I21" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="5:9">
@@ -8841,12 +8843,12 @@
         <v>451</v>
       </c>
       <c r="G22" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!$E$28</f>
+        <v>iam_menu-28</v>
       </c>
       <c r="H22" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I22" t="s">
         <v>477</v>
@@ -8860,15 +8862,15 @@
         <v>451</v>
       </c>
       <c r="G23" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H23" t="str">
-        <f>E13</f>
-        <v>iam_label-22</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I23" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="5:9">
@@ -8879,15 +8881,15 @@
         <v>451</v>
       </c>
       <c r="G24" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="H24" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I24" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="5:9">
@@ -8898,8 +8900,8 @@
         <v>451</v>
       </c>
       <c r="G25" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H25" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -8917,18 +8919,18 @@
         <v>451</v>
       </c>
       <c r="G26" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="H26" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
+        <f>菜单标签数据!$E$9</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" customFormat="1" spans="5:9">
       <c r="E27" t="s">
         <v>475</v>
       </c>
@@ -8936,18 +8938,18 @@
         <v>451</v>
       </c>
       <c r="G27" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <f>菜单SAAS版!E17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="H27" t="str">
-        <f>E12</f>
+        <f t="shared" ref="H27:H29" si="0">E12</f>
         <v>iam_label-21</v>
       </c>
       <c r="I27" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" customFormat="1" spans="5:9">
       <c r="E28" t="s">
         <v>475</v>
       </c>
@@ -8955,18 +8957,18 @@
         <v>451</v>
       </c>
       <c r="G28" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
+        <f>菜单SAAS版!E17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="H28" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
+        <f t="shared" si="0"/>
+        <v>iam_label-22</v>
       </c>
       <c r="I28" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="5:9">
       <c r="E29" t="s">
         <v>475</v>
       </c>
@@ -8974,8 +8976,8 @@
         <v>451</v>
       </c>
       <c r="G29" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="H29" t="str">
         <f>E12</f>
@@ -8985,7 +8987,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" customFormat="1" spans="5:9">
       <c r="E30" t="s">
         <v>475</v>
       </c>
@@ -8993,8 +8995,8 @@
         <v>451</v>
       </c>
       <c r="G30" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="H30" t="str">
         <f>E13</f>
@@ -9002,348 +9004,6 @@
       </c>
       <c r="I30" t="s">
         <v>476</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9">
-      <c r="E31" t="s">
-        <v>475</v>
-      </c>
-      <c r="F31" t="s">
-        <v>451</v>
-      </c>
-      <c r="G31" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-28</v>
-      </c>
-      <c r="H31" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
-      </c>
-      <c r="I31" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9">
-      <c r="E32" t="s">
-        <v>475</v>
-      </c>
-      <c r="F32" t="s">
-        <v>451</v>
-      </c>
-      <c r="G32" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H32" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I32" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9">
-      <c r="E33" t="s">
-        <v>475</v>
-      </c>
-      <c r="F33" t="s">
-        <v>451</v>
-      </c>
-      <c r="G33" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H33" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
-      </c>
-      <c r="I33" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9">
-      <c r="E34" t="s">
-        <v>475</v>
-      </c>
-      <c r="F34" t="s">
-        <v>451</v>
-      </c>
-      <c r="G34" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H34" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I34" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
-      <c r="E35" t="s">
-        <v>475</v>
-      </c>
-      <c r="F35" t="s">
-        <v>451</v>
-      </c>
-      <c r="G35" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H35" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
-      </c>
-      <c r="I35" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="36" spans="5:9">
-      <c r="E36" t="s">
-        <v>475</v>
-      </c>
-      <c r="F36" t="s">
-        <v>451</v>
-      </c>
-      <c r="G36" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H36" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I36" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="37" spans="5:9">
-      <c r="E37" t="s">
-        <v>475</v>
-      </c>
-      <c r="F37" t="s">
-        <v>451</v>
-      </c>
-      <c r="G37" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H37" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
-      </c>
-      <c r="I37" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="38" spans="5:9">
-      <c r="E38" t="s">
-        <v>475</v>
-      </c>
-      <c r="F38" t="s">
-        <v>451</v>
-      </c>
-      <c r="G38" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H38" t="str">
-        <f>菜单标签数据!$E$9</f>
-        <v>iam_label-11</v>
-      </c>
-      <c r="I38" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="39" spans="5:9">
-      <c r="E39" t="s">
-        <v>475</v>
-      </c>
-      <c r="F39" t="s">
-        <v>451</v>
-      </c>
-      <c r="G39" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H39" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
-      </c>
-      <c r="I39" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="40" spans="5:9">
-      <c r="E40" t="s">
-        <v>475</v>
-      </c>
-      <c r="F40" t="s">
-        <v>451</v>
-      </c>
-      <c r="G40" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H40" t="str">
-        <f>E13</f>
-        <v>iam_label-22</v>
-      </c>
-      <c r="I40" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="5:9">
-      <c r="E41" t="s">
-        <v>475</v>
-      </c>
-      <c r="F41" t="s">
-        <v>451</v>
-      </c>
-      <c r="G41" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H41" t="str">
-        <f>E13</f>
-        <v>iam_label-22</v>
-      </c>
-      <c r="I41" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="5:9">
-      <c r="E42" t="s">
-        <v>475</v>
-      </c>
-      <c r="F42" t="s">
-        <v>451</v>
-      </c>
-      <c r="G42" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H42" t="str">
-        <f>E13</f>
-        <v>iam_label-22</v>
-      </c>
-      <c r="I42" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="5:9">
-      <c r="E43" t="s">
-        <v>475</v>
-      </c>
-      <c r="F43" t="s">
-        <v>451</v>
-      </c>
-      <c r="G43" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="H43" t="str">
-        <f>E13</f>
-        <v>iam_label-22</v>
-      </c>
-      <c r="I43" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="5:9">
-      <c r="E44" t="s">
-        <v>475</v>
-      </c>
-      <c r="F44" t="s">
-        <v>451</v>
-      </c>
-      <c r="G44" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H44" t="str">
-        <f>E13</f>
-        <v>iam_label-22</v>
-      </c>
-      <c r="I44" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="5:9">
-      <c r="E45" t="s">
-        <v>475</v>
-      </c>
-      <c r="F45" t="s">
-        <v>451</v>
-      </c>
-      <c r="G45" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
-      </c>
-      <c r="H45" t="str">
-        <f>E13</f>
-        <v>iam_label-22</v>
-      </c>
-      <c r="I45" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="5:9">
-      <c r="E46" t="s">
-        <v>475</v>
-      </c>
-      <c r="F46" t="s">
-        <v>451</v>
-      </c>
-      <c r="G46" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H46" t="str">
-        <f>E13</f>
-        <v>iam_label-22</v>
-      </c>
-      <c r="I46" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="5:9">
-      <c r="E47" t="s">
-        <v>475</v>
-      </c>
-      <c r="F47" t="s">
-        <v>451</v>
-      </c>
-      <c r="G47" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H47" t="str">
-        <f>E13</f>
-        <v>iam_label-22</v>
-      </c>
-      <c r="I47" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="5:9">
-      <c r="E48" t="s">
-        <v>475</v>
-      </c>
-      <c r="F48" t="s">
-        <v>451</v>
-      </c>
-      <c r="G48" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H48" t="str">
-        <f>E13</f>
-        <v>iam_label-22</v>
-      </c>
-      <c r="I48" t="s">
-        <v>477</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="617">
   <si>
     <r>
       <rPr>
@@ -2119,12 +2119,6 @@
     <t>choerodon.code.person.setting|choerodon.code.person.setting.personal-setting|choerodon.code.person.setting.personal-setting.ps.default</t>
   </si>
   <si>
-    <t>iam_menu-17</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.infra</t>
-  </si>
-  <si>
     <t>iam_menu-18</t>
   </si>
   <si>
@@ -2258,6 +2252,18 @@
   </si>
   <si>
     <t>choerodon.code.site.infra|choerodon.code.site.infra.product-lib|choerodon.code.site.infra.product-lib.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-29</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.develop</t>
+  </si>
+  <si>
+    <t>开发</t>
+  </si>
+  <si>
+    <t>KF</t>
   </si>
   <si>
     <t>菜单权限</t>
@@ -3589,11 +3595,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3632,6 +3638,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
@@ -3662,8 +3674,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3676,45 +3726,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3730,7 +3758,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3745,45 +3796,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3797,17 +3811,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3889,7 +3901,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3901,7 +3997,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3913,85 +4015,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4009,13 +4045,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4027,49 +4075,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4176,6 +4188,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4210,21 +4263,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -4239,21 +4277,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4262,167 +4285,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4431,6 +4443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4438,10 +4451,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4452,30 +4465,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4488,7 +4501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4891,8 +4904,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.2847222222222" style="9" customWidth="1"/>
+    <col min="1" max="1" width="15.5694444444444" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.2847222222222" style="10" customWidth="1"/>
     <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
     <col min="4" max="4" width="35.2847222222222" style="7" customWidth="1"/>
     <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
@@ -4908,79 +4921,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="13"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4988,56 +5001,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="34" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5047,30 +5060,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -5078,7 +5091,7 @@
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -5086,25 +5099,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5129,15 +5142,18 @@
   <sheetPr/>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B17" sqref="$A17:$XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="17.4"/>
   <cols>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="62.25" customWidth="1"/>
-    <col min="7" max="7" width="32.9166666666667" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="16.0833333333333" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
     <col min="16" max="16" width="29.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5732,26 +5748,36 @@
         <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>86</v>
+      </c>
+      <c r="I17" t="s">
+        <v>87</v>
       </c>
       <c r="J17" t="s">
         <v>78</v>
       </c>
-      <c r="K17" t="s">
-        <v>79</v>
+      <c r="K17" t="str">
+        <f>E28</f>
+        <v>iam_menu-29</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M17">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N17" t="s">
         <v>82</v>
       </c>
+      <c r="O17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" t="s">
+        <v>129</v>
+      </c>
       <c r="Q17" t="s">
         <v>79</v>
       </c>
@@ -5759,7 +5785,7 @@
         <v>79</v>
       </c>
       <c r="S17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="T17" t="s">
         <v>79</v>
@@ -5773,16 +5799,16 @@
     </row>
     <row r="18" spans="5:24">
       <c r="E18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I18" t="s">
         <v>87</v>
@@ -5792,23 +5818,17 @@
       </c>
       <c r="K18" t="str">
         <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+        <v>iam_menu-18</v>
       </c>
       <c r="L18" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M18" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="N18" t="s">
         <v>82</v>
       </c>
-      <c r="O18" t="s">
-        <v>90</v>
-      </c>
-      <c r="P18" t="s">
-        <v>131</v>
-      </c>
       <c r="Q18" t="s">
         <v>79</v>
       </c>
@@ -5816,10 +5836,13 @@
         <v>79</v>
       </c>
       <c r="S18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="T18" t="s">
         <v>79</v>
+      </c>
+      <c r="U18" t="s">
+        <v>99</v>
       </c>
       <c r="V18" t="s">
         <v>83</v>
@@ -5830,16 +5853,16 @@
     </row>
     <row r="19" spans="5:24">
       <c r="E19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="I19" t="s">
         <v>87</v>
@@ -5848,18 +5871,21 @@
         <v>78</v>
       </c>
       <c r="K19" t="str">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L19" t="s">
         <v>96</v>
       </c>
       <c r="M19" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="N19" t="s">
         <v>82</v>
       </c>
+      <c r="O19" t="s">
+        <v>104</v>
+      </c>
       <c r="Q19" t="s">
         <v>79</v>
       </c>
@@ -5867,7 +5893,7 @@
         <v>79</v>
       </c>
       <c r="S19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="T19" t="s">
         <v>79</v>
@@ -5884,16 +5910,16 @@
     </row>
     <row r="20" spans="5:24">
       <c r="E20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I20" t="s">
         <v>87</v>
@@ -5902,14 +5928,14 @@
         <v>78</v>
       </c>
       <c r="K20" t="str">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L20" t="s">
         <v>96</v>
       </c>
       <c r="M20" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="N20" t="s">
         <v>82</v>
@@ -5924,13 +5950,10 @@
         <v>79</v>
       </c>
       <c r="S20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="T20" t="s">
         <v>79</v>
-      </c>
-      <c r="U20" t="s">
-        <v>99</v>
       </c>
       <c r="V20" t="s">
         <v>83</v>
@@ -5941,16 +5964,16 @@
     </row>
     <row r="21" spans="5:24">
       <c r="E21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I21" t="s">
         <v>87</v>
@@ -5959,14 +5982,14 @@
         <v>78</v>
       </c>
       <c r="K21" t="str">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L21" t="s">
         <v>96</v>
       </c>
       <c r="M21" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="N21" t="s">
         <v>82</v>
@@ -5981,7 +6004,7 @@
         <v>79</v>
       </c>
       <c r="S21" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="T21" t="s">
         <v>79</v>
@@ -5995,16 +6018,16 @@
     </row>
     <row r="22" spans="5:24">
       <c r="E22" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F22" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H22" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I22" t="s">
         <v>87</v>
@@ -6013,14 +6036,14 @@
         <v>78</v>
       </c>
       <c r="K22" t="str">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L22" t="s">
         <v>96</v>
       </c>
       <c r="M22" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="N22" t="s">
         <v>82</v>
@@ -6035,10 +6058,13 @@
         <v>79</v>
       </c>
       <c r="S22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="T22" t="s">
         <v>79</v>
+      </c>
+      <c r="U22" t="s">
+        <v>99</v>
       </c>
       <c r="V22" t="s">
         <v>83</v>
@@ -6049,16 +6075,16 @@
     </row>
     <row r="23" spans="5:24">
       <c r="E23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I23" t="s">
         <v>87</v>
@@ -6067,14 +6093,14 @@
         <v>78</v>
       </c>
       <c r="K23" t="str">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L23" t="s">
         <v>96</v>
       </c>
       <c r="M23" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="N23" t="s">
         <v>82</v>
@@ -6089,13 +6115,10 @@
         <v>79</v>
       </c>
       <c r="S23" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="T23" t="s">
         <v>79</v>
-      </c>
-      <c r="U23" t="s">
-        <v>99</v>
       </c>
       <c r="V23" t="s">
         <v>83</v>
@@ -6106,16 +6129,16 @@
     </row>
     <row r="24" spans="5:24">
       <c r="E24" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I24" t="s">
         <v>87</v>
@@ -6124,14 +6147,14 @@
         <v>78</v>
       </c>
       <c r="K24" t="str">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L24" t="s">
         <v>96</v>
       </c>
       <c r="M24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N24" t="s">
         <v>82</v>
@@ -6146,7 +6169,7 @@
         <v>79</v>
       </c>
       <c r="S24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="T24" t="s">
         <v>79</v>
@@ -6160,39 +6183,35 @@
     </row>
     <row r="25" spans="5:24">
       <c r="E25" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G25" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s">
         <v>87</v>
       </c>
       <c r="J25" t="s">
-        <v>78</v>
-      </c>
-      <c r="K25" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
+        <v>163</v>
+      </c>
+      <c r="K25" t="s">
+        <v>79</v>
       </c>
       <c r="L25" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="M25" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N25" t="s">
         <v>82</v>
       </c>
-      <c r="O25" t="s">
-        <v>104</v>
-      </c>
       <c r="Q25" t="s">
         <v>79</v>
       </c>
@@ -6214,35 +6233,42 @@
     </row>
     <row r="26" spans="5:24">
       <c r="E26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G26" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s">
         <v>87</v>
       </c>
       <c r="J26" t="s">
-        <v>165</v>
-      </c>
-      <c r="K26" t="s">
-        <v>79</v>
+        <v>163</v>
+      </c>
+      <c r="K26" t="str">
+        <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="L26" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M26" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="N26" t="s">
         <v>82</v>
       </c>
+      <c r="O26" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26" t="s">
+        <v>167</v>
+      </c>
       <c r="Q26" t="s">
         <v>79</v>
       </c>
@@ -6250,7 +6276,7 @@
         <v>79</v>
       </c>
       <c r="S26" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="T26" t="s">
         <v>79</v>
@@ -6264,29 +6290,29 @@
     </row>
     <row r="27" spans="5:24">
       <c r="E27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F27" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G27" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I27" t="s">
         <v>87</v>
       </c>
       <c r="J27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K27" t="str">
         <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <v>iam_menu-27</v>
       </c>
       <c r="L27" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M27" t="s">
         <v>97</v>
@@ -6294,12 +6320,6 @@
       <c r="N27" t="s">
         <v>82</v>
       </c>
-      <c r="O27" t="s">
-        <v>90</v>
-      </c>
-      <c r="P27" t="s">
-        <v>169</v>
-      </c>
       <c r="Q27" t="s">
         <v>79</v>
       </c>
@@ -6307,10 +6327,13 @@
         <v>79</v>
       </c>
       <c r="S27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T27" t="s">
         <v>79</v>
+      </c>
+      <c r="U27" t="s">
+        <v>99</v>
       </c>
       <c r="V27" t="s">
         <v>83</v>
@@ -6321,32 +6344,31 @@
     </row>
     <row r="28" spans="5:24">
       <c r="E28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="H28" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="J28" t="s">
-        <v>165</v>
-      </c>
-      <c r="K28" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
+        <v>78</v>
+      </c>
+      <c r="K28" t="s">
+        <v>79</v>
       </c>
       <c r="L28" t="s">
-        <v>96</v>
-      </c>
-      <c r="M28" t="s">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="M28" s="8">
+        <v>30</v>
       </c>
       <c r="N28" t="s">
         <v>82</v>
@@ -6362,9 +6384,6 @@
       </c>
       <c r="T28" t="s">
         <v>79</v>
-      </c>
-      <c r="U28" t="s">
-        <v>99</v>
       </c>
       <c r="V28" t="s">
         <v>83</v>
@@ -6428,1987 +6447,1987 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F8" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F9" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F10" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G21" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G22" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G24" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G28" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G29" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G31" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G33" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G34" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G35" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G36" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G37" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G38" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F39" t="str">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G39" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F40" t="str">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G40" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F41" t="str">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G41" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F42" t="str">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G42" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F43" t="str">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G43" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F44" t="str">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G44" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F45" t="str">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G45" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F46" t="str">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G46" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F47" t="str">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G47" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F48" t="str">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G48" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F49" t="str">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G49" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F50" t="str">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G50" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F51" t="str">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G51" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F52" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F53" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G53" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F54" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G54" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F55" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G55" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F56" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G56" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F57" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G57" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F58" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G58" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F59" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G59" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F60" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G60" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F61" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G61" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F62" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G62" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F63" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G63" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F64" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G64" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F65" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G65" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F66" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G66" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F67" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G67" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F68" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G68" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F69" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G69" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F70" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G70" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F71" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G71" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F72" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G72" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F73" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G73" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F74" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G74" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F75" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G75" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F76" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G76" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F77" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G77" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F78" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F79" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G79" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F80" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G80" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F81" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G81" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F82" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G82" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F83" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G83" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F84" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G84" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F85" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G85" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F86" t="str">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G86" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F87" t="str">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G87" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F88" t="str">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G88" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F89" t="str">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G89" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F90" t="str">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G90" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F91" t="str">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G91" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F92" t="str">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G92" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F93" t="str">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G93" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F94" t="str">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G94" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F95" t="str">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G95" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F96" t="str">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G96" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F97" t="str">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G97" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F98" t="str">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G98" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F99" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G99" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F100" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G100" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F101" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G101" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F102" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G102" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F103" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G103" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F104" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G104" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F105" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G105" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F106" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G106" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F107" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G107" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F108" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G108" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F109" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G109" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F110" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G110" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F111" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G111" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F112" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G112" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F113" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G113" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F114" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G114" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="115" spans="5:7">
       <c r="E115" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F115" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G115" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F116" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G116" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F117" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G117" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="118" spans="5:7">
       <c r="E118" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F118" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G118" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="119" spans="5:7">
       <c r="E119" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F119" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G119" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="120" spans="5:7">
       <c r="E120" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F120" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G120" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="121" spans="5:7">
       <c r="E121" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F121" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G121" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="122" spans="5:7">
       <c r="E122" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F122" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G122" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="123" spans="5:7">
       <c r="E123" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F123" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G123" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="124" spans="5:7">
       <c r="E124" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F124" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G124" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="125" spans="5:7">
       <c r="E125" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F125" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G125" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="5:7">
       <c r="E126" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F126" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G126" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="127" spans="5:7">
       <c r="E127" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F127" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G127" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="128" spans="5:7">
       <c r="E128" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F128" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G128" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="129" spans="5:7">
       <c r="E129" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F129" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G129" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="130" spans="5:7">
       <c r="E130" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F130" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G130" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="131" spans="5:7">
       <c r="E131" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F131" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G131" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="5:7">
       <c r="E132" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F132" t="str">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G132" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="133" spans="5:7">
       <c r="E133" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F133" t="str">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G133" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="134" spans="5:7">
       <c r="E134" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F134" t="str">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G134" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="135" spans="5:7">
       <c r="E135" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F135" t="str">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G135" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="136" spans="5:7">
       <c r="E136" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F136" t="str">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G136" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="137" spans="5:7">
       <c r="E137" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F137" t="str">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G137" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="138" spans="5:7">
       <c r="E138" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F138" t="str">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G138" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="139" spans="5:7">
       <c r="E139" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F139" t="str">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G139" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="140" spans="5:7">
       <c r="E140" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F140" t="str">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G140" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="141" spans="5:7">
       <c r="E141" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F141" t="str">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G141" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="142" spans="5:7">
       <c r="E142" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F142" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G142" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="143" spans="5:7">
       <c r="E143" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F143" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G143" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="144" spans="5:7">
       <c r="E144" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F144" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G144" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F145" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G145" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F146" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G146" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="147" spans="5:7">
       <c r="E147" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F147" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G147" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="5:7">
       <c r="E148" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F148" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G148" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="149" spans="5:7">
       <c r="E149" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F149" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G149" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F150" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G150" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F151" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G151" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F152" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G152" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F153" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G153" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F154" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G154" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F155" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G155" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F156" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G156" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F157" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G157" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F158" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G158" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F159" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G159" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F160" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G160" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="161" spans="5:7">
       <c r="E161" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F161" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G161" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="162" spans="5:7">
       <c r="E162" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F162" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G162" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="163" spans="5:7">
       <c r="E163" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F163" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G163" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="164" spans="5:7">
       <c r="E164" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F164" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G164" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="165" spans="5:7">
       <c r="E165" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F165" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G165" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="166" spans="5:7">
       <c r="E166" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F166" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G166" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="167" spans="5:7">
       <c r="E167" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F167" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G167" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="168" spans="5:7">
       <c r="E168" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F168" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G168" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="169" spans="5:7">
       <c r="E169" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F169" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G169" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="170" spans="5:7">
       <c r="E170" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F170" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G170" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="171" spans="5:7">
       <c r="E171" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F171" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G171" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -8422,7 +8441,7 @@
   <sheetPr/>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -8473,66 +8492,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="O7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
+        <v>454</v>
+      </c>
+      <c r="J8" t="s">
+        <v>455</v>
+      </c>
+      <c r="K8" t="s">
         <v>452</v>
-      </c>
-      <c r="J8" t="s">
-        <v>453</v>
-      </c>
-      <c r="K8" t="s">
-        <v>450</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -8546,19 +8565,19 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -8572,25 +8591,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F10" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G10" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="J10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -8604,19 +8623,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F11" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G11" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M11" t="s">
         <v>82</v>
@@ -8630,25 +8649,25 @@
     </row>
     <row r="12" s="5" customFormat="1" spans="5:15">
       <c r="E12" s="5" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -8662,25 +8681,25 @@
     </row>
     <row r="13" s="5" customFormat="1" spans="5:15">
       <c r="E13" s="5" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H13" s="5">
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -8700,33 +8719,33 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F16" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -8737,15 +8756,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I16" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F17" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -8756,15 +8775,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F18" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -8775,15 +8794,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F19" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -8794,18 +8813,18 @@
         <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F20" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G20" t="str">
-        <f>菜单SAAS版!$E$26</f>
+        <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-26</v>
       </c>
       <c r="H20" t="str">
@@ -8813,18 +8832,18 @@
         <v>iam_label-12</v>
       </c>
       <c r="I20" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F21" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G21" t="str">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
       <c r="H21" t="str">
@@ -8832,18 +8851,18 @@
         <v>iam_label-12</v>
       </c>
       <c r="I21" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F22" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G22" t="str">
-        <f>菜单SAAS版!$E$28</f>
+        <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-28</v>
       </c>
       <c r="H22" t="str">
@@ -8851,15 +8870,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I22" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F23" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G23" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -8870,15 +8889,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I23" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F24" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G24" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -8889,15 +8908,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I24" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F25" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G25" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -8908,15 +8927,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I25" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G26" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -8927,56 +8946,56 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="5:9">
       <c r="E27" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F27" t="s">
-        <v>451</v>
-      </c>
-      <c r="G27" t="str">
-        <f>菜单SAAS版!E17</f>
-        <v>iam_menu-17</v>
+        <v>453</v>
+      </c>
+      <c r="G27" t="e">
+        <f>菜单SAAS版!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" ref="H27:H29" si="0">E12</f>
         <v>iam_label-21</v>
       </c>
       <c r="I27" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="5:9">
       <c r="E28" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F28" t="s">
-        <v>451</v>
-      </c>
-      <c r="G28" t="str">
-        <f>菜单SAAS版!E17</f>
-        <v>iam_menu-17</v>
+        <v>453</v>
+      </c>
+      <c r="G28" t="e">
+        <f>菜单SAAS版!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
         <v>iam_label-22</v>
       </c>
       <c r="I28" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="5:9">
       <c r="E29" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F29" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G29" t="str">
-        <f>菜单SAAS版!E18</f>
+        <f>菜单SAAS版!E17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="H29" t="str">
@@ -8984,18 +9003,18 @@
         <v>iam_label-21</v>
       </c>
       <c r="I29" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="5:9">
       <c r="E30" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F30" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G30" t="str">
-        <f>菜单SAAS版!E18</f>
+        <f>菜单SAAS版!E17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="H30" t="str">
@@ -9003,7 +9022,7 @@
         <v>iam_label-22</v>
       </c>
       <c r="I30" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -9018,7 +9037,7 @@
   <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="$A15:$XFD15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="17.4"/>
@@ -9056,10 +9075,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -9074,75 +9093,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="P7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Q7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="R7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="S7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="T7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="X7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Y7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F8" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G8" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H8" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="J8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K8" t="s">
         <v>79</v>
@@ -9175,10 +9194,10 @@
         <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="V8" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="W8" t="s">
         <v>79</v>
@@ -9186,19 +9205,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F9" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H9" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="I9" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -9234,10 +9253,10 @@
         <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="V9" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="W9" t="s">
         <v>79</v>
@@ -9245,16 +9264,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F10" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G10" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H10" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -9291,33 +9310,33 @@
         <v>79</v>
       </c>
       <c r="U10" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="V10" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="W10" t="s">
         <v>79</v>
       </c>
       <c r="X10" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="Y10" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F11" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G11" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H11" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
@@ -9354,33 +9373,33 @@
         <v>79</v>
       </c>
       <c r="U11" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="V11" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="W11" t="s">
         <v>79</v>
       </c>
       <c r="X11" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="Y11" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F12" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G12" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H12" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -9417,33 +9436,33 @@
         <v>79</v>
       </c>
       <c r="U12" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="V12" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="W12" t="s">
         <v>79</v>
       </c>
       <c r="X12" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="Y12" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F13" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G13" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H13" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -9480,36 +9499,36 @@
         <v>79</v>
       </c>
       <c r="U13" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="V13" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="W13" t="s">
         <v>79</v>
       </c>
       <c r="X13" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="Y13" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F14" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G14" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="J14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s">
         <v>79</v>
@@ -9543,10 +9562,10 @@
         <v>79</v>
       </c>
       <c r="U14" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="V14" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="W14" t="s">
         <v>79</v>
@@ -9560,55 +9579,55 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H16" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="I16" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G17" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="H17" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I17" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J17" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -9619,18 +9638,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I18" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J18" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -9641,106 +9660,106 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I19" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J19" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G20" t="str">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="H20" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I20" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J20" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G21" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="H21" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I21" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J21" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G22" t="str">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="H22" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I22" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J22" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G23" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="H23" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I23" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J23" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -9751,62 +9770,62 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H24" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I24" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J24" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G25" t="str">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="H25" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I25" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J25" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G26" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="H26" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I26" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J26" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -9817,18 +9836,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H27" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I27" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J27" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -9839,18 +9858,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H28" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I28" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J28" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -9861,106 +9880,106 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H29" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I29" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J29" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G30" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="H30" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I30" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J30" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G31" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="H31" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I31" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J31" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G32" t="str">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="H32" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I32" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J32" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G33" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="H33" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I33" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J33" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$12</f>
@@ -9971,128 +9990,128 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H34" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I34" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J34" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G35" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="H35" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I35" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J35" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G36" t="str">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I36" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J36" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G37" t="str">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="H37" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="I37" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J37" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G38" t="str">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="H38" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I38" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J38" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G39" t="str">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="H39" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I39" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J39" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$13</f>
@@ -10103,13 +10122,13 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H40" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I40" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J40" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -10162,66 +10181,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="O7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F8" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G8" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J8" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="K8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -10235,22 +10254,22 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F9" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G9" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="J9" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -10264,25 +10283,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F10" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G10" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J10" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="K10" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M10" t="s">
         <v>79</v>
@@ -10296,25 +10315,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F11" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="G11" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J11" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K11" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M11" t="s">
         <v>79</v>
@@ -10328,25 +10347,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F12" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G12" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J12" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="K12" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -10360,25 +10379,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F13" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G13" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J13" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K13" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M13" t="s">
         <v>79</v>
@@ -10392,25 +10411,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F14" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G14" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J14" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="K14" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M14" t="s">
         <v>79</v>
@@ -10424,25 +10443,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F15" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G15" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J15" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K15" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M15" t="s">
         <v>79</v>
@@ -10456,25 +10475,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F16" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G16" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J16" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="K16" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M16" t="s">
         <v>79</v>
@@ -10488,25 +10507,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F17" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G17" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J17" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="K17" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M17" t="s">
         <v>79</v>
@@ -10520,25 +10539,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F18" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G18" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J18" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="K18" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M18" t="s">
         <v>79</v>
@@ -10552,25 +10571,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="F19" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G19" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J19" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="K19" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="M19" t="s">
         <v>79</v>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="614">
   <si>
     <r>
       <rPr>
@@ -3137,15 +3137,6 @@
   </si>
   <si>
     <t>devops模块菜单</t>
-  </si>
-  <si>
-    <t>iam_label-22</t>
-  </si>
-  <si>
-    <t>N_OPERATIONS_MENU</t>
-  </si>
-  <si>
-    <t>运维模块菜单</t>
   </si>
   <si>
     <t>标签关系表</t>
@@ -3595,9 +3586,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -3674,14 +3665,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -3689,15 +3672,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3712,8 +3686,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3726,11 +3701,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3738,14 +3728,6 @@
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3757,26 +3739,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3795,6 +3762,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -3803,14 +3786,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3819,7 +3810,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3901,7 +3892,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3913,13 +3988,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3931,31 +4048,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3967,49 +4060,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4021,67 +4072,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4188,17 +4179,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4220,29 +4216,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4262,6 +4253,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4276,160 +4276,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5142,7 +5133,7 @@
   <sheetPr/>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -6403,7 +6394,7 @@
   <sheetPr/>
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
+    <sheetView topLeftCell="A163" workbookViewId="0">
       <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
@@ -8439,10 +8430,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="17.4"/>
@@ -8679,350 +8670,280 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" spans="5:15">
-      <c r="E13" s="5" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
         <v>467</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="D14" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="E14" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="I14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
+      <c r="E15" t="s">
+        <v>474</v>
+      </c>
+      <c r="F15" t="s">
         <v>453</v>
       </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>470</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="G15" t="str">
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
+      </c>
+      <c r="H15" t="str">
+        <f>菜单标签数据!$E$9</f>
+        <v>iam_label-11</v>
+      </c>
+      <c r="I15" t="s">
         <v>475</v>
-      </c>
-      <c r="I15" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F16" t="s">
         <v>453</v>
       </c>
       <c r="G16" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
+        <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="H16" t="str">
-        <f>菜单标签数据!$E$9</f>
-        <v>iam_label-11</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F17" t="s">
         <v>453</v>
       </c>
       <c r="G17" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
+        <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="H17" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F18" t="s">
         <v>453</v>
       </c>
       <c r="G18" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="H18" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F19" t="s">
         <v>453</v>
       </c>
       <c r="G19" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
+        <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="H19" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F20" t="s">
         <v>453</v>
       </c>
       <c r="G20" t="str">
-        <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-26</v>
+        <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="H20" t="str">
         <f>菜单标签数据!$E$10</f>
         <v>iam_label-12</v>
       </c>
       <c r="I20" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F21" t="s">
         <v>453</v>
       </c>
       <c r="G21" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-27</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-28</v>
       </c>
       <c r="H21" t="str">
         <f>菜单标签数据!$E$10</f>
         <v>iam_label-12</v>
       </c>
       <c r="I21" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F22" t="s">
         <v>453</v>
       </c>
       <c r="G22" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-28</v>
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H22" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F23" t="s">
         <v>453</v>
       </c>
       <c r="G23" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="H23" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-8</v>
       </c>
       <c r="I23" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F24" t="s">
         <v>453</v>
       </c>
       <c r="G24" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H24" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-8</v>
       </c>
       <c r="I24" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F25" t="s">
         <v>453</v>
       </c>
       <c r="G25" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="H25" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
+        <f>菜单标签数据!$E$9</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I25" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="5:9">
       <c r="E26" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F26" t="s">
         <v>453</v>
       </c>
       <c r="G26" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
+        <f>菜单SAAS版!E28</f>
+        <v>iam_menu-29</v>
       </c>
       <c r="H26" t="str">
-        <f>菜单标签数据!$E$9</f>
-        <v>iam_label-11</v>
+        <f>E12</f>
+        <v>iam_label-21</v>
       </c>
       <c r="I26" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="5:9">
       <c r="E27" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F27" t="s">
         <v>453</v>
       </c>
-      <c r="G27" t="e">
-        <f>菜单SAAS版!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" ref="H27:H29" si="0">E12</f>
-        <v>iam_label-21</v>
-      </c>
-      <c r="I27" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="5:9">
-      <c r="E28" t="s">
-        <v>477</v>
-      </c>
-      <c r="F28" t="s">
-        <v>453</v>
-      </c>
-      <c r="G28" t="e">
-        <f>菜单SAAS版!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-22</v>
-      </c>
-      <c r="I28" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="5:9">
-      <c r="E29" t="s">
-        <v>477</v>
-      </c>
-      <c r="F29" t="s">
-        <v>453</v>
-      </c>
-      <c r="G29" t="str">
+      <c r="G27" t="str">
         <f>菜单SAAS版!E17</f>
         <v>iam_menu-18</v>
       </c>
-      <c r="H29" t="str">
+      <c r="H27" t="str">
         <f>E12</f>
         <v>iam_label-21</v>
       </c>
-      <c r="I29" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="5:9">
-      <c r="E30" t="s">
-        <v>477</v>
-      </c>
-      <c r="F30" t="s">
-        <v>453</v>
-      </c>
-      <c r="G30" t="str">
-        <f>菜单SAAS版!E17</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="H30" t="str">
-        <f>E13</f>
-        <v>iam_label-22</v>
-      </c>
-      <c r="I30" t="s">
-        <v>478</v>
+      <c r="I27" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -9075,10 +8996,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -9093,7 +9014,7 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J7" t="s">
         <v>444</v>
@@ -9102,63 +9023,63 @@
         <v>67</v>
       </c>
       <c r="L7" t="s">
+        <v>480</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="O7" t="s">
         <v>483</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="P7" t="s">
         <v>484</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="Q7" t="s">
         <v>485</v>
       </c>
-      <c r="O7" t="s">
+      <c r="R7" t="s">
         <v>486</v>
       </c>
-      <c r="P7" t="s">
+      <c r="S7" t="s">
         <v>487</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="T7" t="s">
         <v>488</v>
-      </c>
-      <c r="R7" t="s">
-        <v>489</v>
-      </c>
-      <c r="S7" t="s">
-        <v>490</v>
-      </c>
-      <c r="T7" t="s">
-        <v>491</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
+        <v>489</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="X7" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y7" t="s">
         <v>492</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="X7" t="s">
-        <v>494</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
+        <v>493</v>
+      </c>
+      <c r="F8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G8" t="s">
+        <v>495</v>
+      </c>
+      <c r="H8" t="s">
         <v>496</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>497</v>
-      </c>
-      <c r="G8" t="s">
-        <v>498</v>
-      </c>
-      <c r="H8" t="s">
-        <v>499</v>
-      </c>
-      <c r="I8" t="s">
-        <v>500</v>
       </c>
       <c r="J8" t="s">
         <v>163</v>
@@ -9194,10 +9115,10 @@
         <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="V8" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="W8" t="s">
         <v>79</v>
@@ -9205,19 +9126,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
+        <v>498</v>
+      </c>
+      <c r="F9" t="s">
+        <v>499</v>
+      </c>
+      <c r="G9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H9" t="s">
         <v>501</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>502</v>
-      </c>
-      <c r="G9" t="s">
-        <v>503</v>
-      </c>
-      <c r="H9" t="s">
-        <v>504</v>
-      </c>
-      <c r="I9" t="s">
-        <v>505</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -9253,10 +9174,10 @@
         <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="V9" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="W9" t="s">
         <v>79</v>
@@ -9264,16 +9185,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
+        <v>503</v>
+      </c>
+      <c r="F10" t="s">
+        <v>504</v>
+      </c>
+      <c r="G10" t="s">
+        <v>505</v>
+      </c>
+      <c r="H10" t="s">
         <v>506</v>
-      </c>
-      <c r="F10" t="s">
-        <v>507</v>
-      </c>
-      <c r="G10" t="s">
-        <v>508</v>
-      </c>
-      <c r="H10" t="s">
-        <v>509</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -9310,33 +9231,33 @@
         <v>79</v>
       </c>
       <c r="U10" t="s">
+        <v>507</v>
+      </c>
+      <c r="V10" t="s">
+        <v>508</v>
+      </c>
+      <c r="W10" t="s">
+        <v>79</v>
+      </c>
+      <c r="X10" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y10" t="s">
         <v>510</v>
-      </c>
-      <c r="V10" t="s">
-        <v>511</v>
-      </c>
-      <c r="W10" t="s">
-        <v>79</v>
-      </c>
-      <c r="X10" t="s">
-        <v>512</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F11" t="s">
+        <v>512</v>
+      </c>
+      <c r="G11" t="s">
+        <v>513</v>
+      </c>
+      <c r="H11" t="s">
         <v>514</v>
-      </c>
-      <c r="F11" t="s">
-        <v>515</v>
-      </c>
-      <c r="G11" t="s">
-        <v>516</v>
-      </c>
-      <c r="H11" t="s">
-        <v>517</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
@@ -9373,33 +9294,33 @@
         <v>79</v>
       </c>
       <c r="U11" t="s">
+        <v>515</v>
+      </c>
+      <c r="V11" t="s">
+        <v>516</v>
+      </c>
+      <c r="W11" t="s">
+        <v>79</v>
+      </c>
+      <c r="X11" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y11" t="s">
         <v>518</v>
-      </c>
-      <c r="V11" t="s">
-        <v>519</v>
-      </c>
-      <c r="W11" t="s">
-        <v>79</v>
-      </c>
-      <c r="X11" t="s">
-        <v>520</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F12" t="s">
+        <v>520</v>
+      </c>
+      <c r="G12" t="s">
+        <v>521</v>
+      </c>
+      <c r="H12" t="s">
         <v>522</v>
-      </c>
-      <c r="F12" t="s">
-        <v>523</v>
-      </c>
-      <c r="G12" t="s">
-        <v>524</v>
-      </c>
-      <c r="H12" t="s">
-        <v>525</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -9436,33 +9357,33 @@
         <v>79</v>
       </c>
       <c r="U12" t="s">
+        <v>523</v>
+      </c>
+      <c r="V12" t="s">
+        <v>524</v>
+      </c>
+      <c r="W12" t="s">
+        <v>79</v>
+      </c>
+      <c r="X12" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y12" t="s">
         <v>526</v>
-      </c>
-      <c r="V12" t="s">
-        <v>527</v>
-      </c>
-      <c r="W12" t="s">
-        <v>79</v>
-      </c>
-      <c r="X12" t="s">
-        <v>528</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
+        <v>527</v>
+      </c>
+      <c r="F13" t="s">
+        <v>528</v>
+      </c>
+      <c r="G13" t="s">
+        <v>529</v>
+      </c>
+      <c r="H13" t="s">
         <v>530</v>
-      </c>
-      <c r="F13" t="s">
-        <v>531</v>
-      </c>
-      <c r="G13" t="s">
-        <v>532</v>
-      </c>
-      <c r="H13" t="s">
-        <v>533</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -9499,33 +9420,33 @@
         <v>79</v>
       </c>
       <c r="U13" t="s">
+        <v>531</v>
+      </c>
+      <c r="V13" t="s">
+        <v>532</v>
+      </c>
+      <c r="W13" t="s">
+        <v>79</v>
+      </c>
+      <c r="X13" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y13" t="s">
         <v>534</v>
-      </c>
-      <c r="V13" t="s">
-        <v>535</v>
-      </c>
-      <c r="W13" t="s">
-        <v>79</v>
-      </c>
-      <c r="X13" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F14" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G14" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H14" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J14" t="s">
         <v>163</v>
@@ -9562,10 +9483,10 @@
         <v>79</v>
       </c>
       <c r="U14" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="V14" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="W14" t="s">
         <v>79</v>
@@ -9579,25 +9500,25 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="H16" t="s">
+        <v>544</v>
+      </c>
+      <c r="I16" t="s">
         <v>545</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="H16" t="s">
-        <v>547</v>
-      </c>
-      <c r="I16" t="s">
-        <v>548</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>442</v>
@@ -9605,7 +9526,7 @@
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -9616,18 +9537,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H17" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I17" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J17" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -9638,18 +9559,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I18" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J18" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -9660,18 +9581,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I19" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J19" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -9682,18 +9603,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H20" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I20" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J20" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -9704,18 +9625,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H21" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I21" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J21" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -9726,18 +9647,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H22" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I22" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J22" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -9748,18 +9669,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H23" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I23" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J23" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -9770,18 +9691,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H24" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I24" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J24" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -9792,18 +9713,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H25" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I25" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J25" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -9814,18 +9735,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H26" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I26" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J26" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -9836,18 +9757,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H27" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I27" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J27" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -9858,18 +9779,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H28" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I28" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J28" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -9880,18 +9801,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H29" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I29" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J29" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$12</f>
@@ -9902,18 +9823,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H30" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I30" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J30" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$12</f>
@@ -9924,18 +9845,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H31" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I31" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J31" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$12</f>
@@ -9946,18 +9867,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H32" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I32" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J32" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$12</f>
@@ -9968,18 +9889,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H33" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I33" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J33" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$12</f>
@@ -9990,18 +9911,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H34" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I34" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J34" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$13</f>
@@ -10012,18 +9933,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H35" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I35" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J35" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$13</f>
@@ -10034,18 +9955,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I36" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J36" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$13</f>
@@ -10056,18 +9977,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H37" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I37" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J37" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$13</f>
@@ -10078,18 +9999,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H38" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I38" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J38" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$13</f>
@@ -10100,18 +10021,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H39" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I39" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J39" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$13</f>
@@ -10122,13 +10043,13 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H40" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I40" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J40" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -10225,10 +10146,10 @@
         <v>451</v>
       </c>
       <c r="F8" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G8" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -10237,10 +10158,10 @@
         <v>454</v>
       </c>
       <c r="J8" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="K8" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -10254,13 +10175,13 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F9" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
@@ -10269,7 +10190,7 @@
         <v>460</v>
       </c>
       <c r="J9" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -10283,13 +10204,13 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F10" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G10" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
@@ -10298,10 +10219,10 @@
         <v>454</v>
       </c>
       <c r="J10" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="K10" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M10" t="s">
         <v>79</v>
@@ -10318,10 +10239,10 @@
         <v>456</v>
       </c>
       <c r="F11" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G11" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
@@ -10330,10 +10251,10 @@
         <v>454</v>
       </c>
       <c r="J11" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="K11" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M11" t="s">
         <v>79</v>
@@ -10350,10 +10271,10 @@
         <v>458</v>
       </c>
       <c r="F12" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G12" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
@@ -10362,10 +10283,10 @@
         <v>454</v>
       </c>
       <c r="J12" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="K12" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -10379,13 +10300,13 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F13" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
@@ -10394,10 +10315,10 @@
         <v>454</v>
       </c>
       <c r="J13" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="K13" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M13" t="s">
         <v>79</v>
@@ -10411,13 +10332,13 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F14" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G14" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
@@ -10426,10 +10347,10 @@
         <v>454</v>
       </c>
       <c r="J14" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="K14" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M14" t="s">
         <v>79</v>
@@ -10443,13 +10364,13 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F15" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G15" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
@@ -10458,10 +10379,10 @@
         <v>454</v>
       </c>
       <c r="J15" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="K15" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M15" t="s">
         <v>79</v>
@@ -10475,13 +10396,13 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F16" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G16" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
@@ -10490,10 +10411,10 @@
         <v>454</v>
       </c>
       <c r="J16" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="K16" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="M16" t="s">
         <v>79</v>
@@ -10507,13 +10428,13 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F17" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G17" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
@@ -10522,10 +10443,10 @@
         <v>454</v>
       </c>
       <c r="J17" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="K17" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="M17" t="s">
         <v>79</v>
@@ -10539,13 +10460,13 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F18" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G18" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
@@ -10554,10 +10475,10 @@
         <v>454</v>
       </c>
       <c r="J18" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="K18" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M18" t="s">
         <v>79</v>
@@ -10571,13 +10492,13 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F19" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G19" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
@@ -10586,10 +10507,10 @@
         <v>454</v>
       </c>
       <c r="J19" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="K19" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="M19" t="s">
         <v>79</v>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="19485" windowHeight="8460" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2008,7 +2008,7 @@
     <t>30</t>
   </si>
   <si>
-    <t>chrome_reader_mode</t>
+    <t>settings_input_component-o</t>
   </si>
   <si>
     <t>/rdupm/product-lib-org</t>
@@ -3585,9 +3585,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
@@ -3666,6 +3666,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3673,29 +3680,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3708,11 +3716,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3724,16 +3739,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3748,7 +3764,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3756,38 +3772,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3803,14 +3787,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3892,7 +3892,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3904,13 +3928,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3922,7 +3964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3934,13 +3976,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3952,7 +4000,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3970,7 +4024,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3982,13 +4054,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4000,79 +4072,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4182,19 +4182,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4214,6 +4218,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4223,17 +4242,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4255,172 +4268,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4893,22 +4893,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.2847222222222" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="35.2847222222222" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
-    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
-    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.2814814814815" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
+    <col min="4" max="4" width="35.2814814814815" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
+    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
+    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
+    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
-    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
-    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
-    <col min="14" max="1025" width="10.2847222222222" customWidth="1"/>
+    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
+    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
+    <col min="14" max="1025" width="10.2814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -4922,7 +4922,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
     </row>
-    <row r="2" spans="5:5">
+    <row r="2" ht="18" spans="5:5">
       <c r="E2" s="14"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -4936,7 +4936,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" ht="18" spans="3:7">
       <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" ht="18" spans="3:5">
       <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" ht="52.2" spans="3:6">
+    <row r="9" ht="51.75" spans="3:6">
       <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
+    <row r="10" ht="51.75" spans="3:5">
       <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
+    <row r="11" ht="69" spans="3:5">
       <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
@@ -5034,7 +5034,7 @@
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
     </row>
-    <row r="15" ht="34.8" spans="3:5">
+    <row r="15" ht="34.5" spans="3:5">
       <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
@@ -5057,7 +5057,7 @@
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" ht="18" spans="3:4">
       <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" ht="18" spans="3:4">
       <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" ht="18" spans="3:4">
       <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" ht="18" spans="3:4">
       <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" ht="52.2" spans="3:3">
+    <row r="27" ht="51.75" spans="3:3">
       <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
@@ -5133,19 +5133,20 @@
   <sheetPr/>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="8.71111111111111" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="62.25" customWidth="1"/>
+    <col min="5" max="5" width="17.5037037037037" customWidth="1"/>
+    <col min="6" max="6" width="62.2518518518519" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="16.0833333333333" customWidth="1"/>
-    <col min="10" max="10" width="15.25" customWidth="1"/>
-    <col min="11" max="11" width="19.5" customWidth="1"/>
-    <col min="16" max="16" width="29.1388888888889" customWidth="1"/>
+    <col min="8" max="8" width="16.0814814814815" customWidth="1"/>
+    <col min="10" max="10" width="15.2518518518519" customWidth="1"/>
+    <col min="11" max="11" width="19.5037037037037" customWidth="1"/>
+    <col min="15" max="15" width="38.1111111111111" customWidth="1"/>
+    <col min="16" max="16" width="29.1407407407407" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6398,9 +6399,9 @@
       <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.71111111111111" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="31.1388888888889" customWidth="1"/>
+    <col min="5" max="5" width="31.1407407407407" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
@@ -8432,22 +8433,22 @@
   <sheetPr/>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="8.71111111111111" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="13.7083333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.25" customWidth="1"/>
-    <col min="7" max="7" width="27.75" customWidth="1"/>
-    <col min="8" max="8" width="14.7083333333333" customWidth="1"/>
-    <col min="9" max="9" width="15.9166666666667" customWidth="1"/>
-    <col min="10" max="10" width="24.8333333333333" customWidth="1"/>
-    <col min="11" max="11" width="16.9166666666667" customWidth="1"/>
-    <col min="12" max="12" width="18.9166666666667" customWidth="1"/>
-    <col min="13" max="13" width="15.0833333333333" customWidth="1"/>
-    <col min="14" max="14" width="19.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.7111111111111" customWidth="1"/>
+    <col min="6" max="6" width="23.2518518518519" customWidth="1"/>
+    <col min="7" max="7" width="27.7481481481481" customWidth="1"/>
+    <col min="8" max="8" width="14.7111111111111" customWidth="1"/>
+    <col min="9" max="9" width="15.9185185185185" customWidth="1"/>
+    <col min="10" max="10" width="24.837037037037" customWidth="1"/>
+    <col min="11" max="11" width="16.9185185185185" customWidth="1"/>
+    <col min="12" max="12" width="18.9185185185185" customWidth="1"/>
+    <col min="13" max="13" width="15.0814814814815" customWidth="1"/>
+    <col min="14" max="14" width="19.5851851851852" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8638,7 +8639,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" spans="5:15">
+    <row r="12" s="5" customFormat="1" ht="18" spans="5:15">
       <c r="E12" s="5" t="s">
         <v>464</v>
       </c>
@@ -8961,7 +8962,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="8.71111111111111" defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -10067,7 +10068,7 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="8.71111111111111" defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -4045,11 +4045,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4059,9 +4062,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4431,11 +4431,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
@@ -4448,17 +4448,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="35"/>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
@@ -4569,11 +4569,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="31" t="s">
@@ -4650,8 +4650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="D25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
@@ -4769,7 +4769,7 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="34" t="s">
         <v>612</v>
       </c>
       <c r="F8" t="s">
@@ -5914,7 +5914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A151" workbookViewId="0">
       <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
@@ -7951,8 +7951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
@@ -8244,9 +8244,9 @@
       <c r="F16" t="s">
         <v>447</v>
       </c>
-      <c r="G16" t="e">
-        <f>菜单SAAS版!#REF!</f>
-        <v>#REF!</v>
+      <c r="G16" t="str">
+        <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="H16" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -8301,9 +8301,9 @@
       <c r="F19" t="s">
         <v>447</v>
       </c>
-      <c r="G19" t="e">
-        <f>菜单SAAS版!#REF!</f>
-        <v>#REF!</v>
+      <c r="G19" t="str">
+        <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="H19" t="str">
         <f>菜单标签数据!$E$10</f>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -4650,8 +4650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="D25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
@@ -5880,7 +5880,7 @@
         <v>77</v>
       </c>
       <c r="M28" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N28" t="s">
         <v>78</v>
@@ -7951,7 +7951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\company\companyRD\project\prod-repo-service\src\main\resources\script\db\init-data\hrds_prod_repo\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\prod-repo-service\src\main\resources\script\db\init-data\hrds_prod_repo\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D6408B-71D0-48AE-A0A4-E8E6BEA7382D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="0" windowWidth="21070" windowHeight="13330" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-204" yWindow="0" windowWidth="21072" windowHeight="13332" tabRatio="597" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,12 +25,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="645">
   <si>
     <r>
       <rPr>
@@ -3504,22 +3503,7 @@
     <t>iam_role_permission-41</t>
   </si>
   <si>
-    <t>TENANT_MGR</t>
-  </si>
-  <si>
     <t>ROLE</t>
-  </si>
-  <si>
-    <t>租户管理员标签</t>
-  </si>
-  <si>
-    <t>Tenant Manager Label</t>
-  </si>
-  <si>
-    <t>SITE_MGR</t>
-  </si>
-  <si>
-    <t>平台管理员标签</t>
   </si>
   <si>
     <t>TENANT_ROLE_TPL</t>
@@ -3886,7 +3870,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="86">
     <font>
       <sz val="12"/>
@@ -4679,6 +4663,7 @@
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4694,11 +4679,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -5038,36 +5022,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -5076,21 +5060,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="99" t="s">
+      <c r="D3" s="98"/>
+      <c r="E3" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="100"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -5127,7 +5111,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="49.5">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -5141,7 +5125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="49.5">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -5152,7 +5136,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="66">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -5184,7 +5168,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="33">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -5201,11 +5185,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
@@ -5243,21 +5227,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="97"/>
+      <c r="E25" s="98"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="97" t="s">
+      <c r="D26" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="97"/>
-    </row>
-    <row r="27" spans="3:5" ht="49.5">
+      <c r="E26" s="98"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -5279,19 +5263,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="24.58203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="16" max="16" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -6533,16 +6517,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+    <sheetView topLeftCell="A151" workbookViewId="0">
       <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
@@ -6603,8 +6587,8 @@
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
-      <c r="G8" s="102" t="s">
-        <v>555</v>
+      <c r="G8" s="97" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6615,8 +6599,8 @@
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
-      <c r="G9" s="102" t="s">
-        <v>556</v>
+      <c r="G9" s="97" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6628,7 +6612,7 @@
         <v>iam_menu-19</v>
       </c>
       <c r="G10" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6640,7 +6624,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G11" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6652,7 +6636,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G12" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6664,7 +6648,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G13" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6676,7 +6660,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G14" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6688,7 +6672,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G15" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6700,7 +6684,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G16" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" spans="5:7">
@@ -6712,7 +6696,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G17" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" spans="5:7">
@@ -6724,7 +6708,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G18" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" spans="5:7">
@@ -6736,7 +6720,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G19" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="5:7">
@@ -6748,7 +6732,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G20" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="5:7">
@@ -6760,7 +6744,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G21" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="5:7">
@@ -6772,7 +6756,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G22" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="5:7">
@@ -6784,7 +6768,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G23" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="5:7">
@@ -6796,7 +6780,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G24" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" spans="5:7">
@@ -6808,7 +6792,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G25" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="5:7">
@@ -6820,7 +6804,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G26" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="5:7">
@@ -6832,7 +6816,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G27" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="5:7">
@@ -6844,7 +6828,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G28" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="5:7">
@@ -6856,7 +6840,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G29" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="5:7">
@@ -6868,7 +6852,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G30" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="5:7">
@@ -6880,7 +6864,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G31" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="5:7">
@@ -6892,7 +6876,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G32" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="33" spans="5:7">
@@ -6904,7 +6888,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G33" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="5:7">
@@ -6916,7 +6900,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G34" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="5:7">
@@ -6928,7 +6912,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G35" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="36" spans="5:7">
@@ -6940,7 +6924,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G36" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37" spans="5:7">
@@ -6952,7 +6936,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G37" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="5:7">
@@ -6964,7 +6948,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G38" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="39" spans="5:7">
@@ -6976,7 +6960,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G39" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="40" spans="5:7">
@@ -6988,7 +6972,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G40" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="41" spans="5:7">
@@ -7000,7 +6984,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G41" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="42" spans="5:7">
@@ -7012,7 +6996,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G42" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="43" spans="5:7">
@@ -7024,7 +7008,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G43" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="44" spans="5:7">
@@ -7036,7 +7020,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G44" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="45" spans="5:7">
@@ -7048,7 +7032,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G45" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="5:7">
@@ -7060,7 +7044,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G46" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="47" spans="5:7">
@@ -7072,7 +7056,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G47" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="48" spans="5:7">
@@ -7084,7 +7068,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G48" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="49" spans="5:7">
@@ -7096,7 +7080,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G49" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="50" spans="5:7">
@@ -7108,7 +7092,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G50" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="51" spans="5:7">
@@ -7120,7 +7104,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G51" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="52" spans="5:7">
@@ -7132,7 +7116,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G52" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="53" spans="5:7">
@@ -7144,7 +7128,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G53" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="54" spans="5:7">
@@ -7156,7 +7140,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G54" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="55" spans="5:7">
@@ -7168,7 +7152,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G55" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="56" spans="5:7">
@@ -7180,7 +7164,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G56" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="57" spans="5:7">
@@ -7192,7 +7176,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G57" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="58" spans="5:7">
@@ -7204,7 +7188,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G58" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="59" spans="5:7">
@@ -7216,7 +7200,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G59" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="60" spans="5:7">
@@ -7228,7 +7212,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G60" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="61" spans="5:7">
@@ -7240,7 +7224,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G61" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="62" spans="5:7">
@@ -7252,7 +7236,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G62" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="63" spans="5:7">
@@ -7264,7 +7248,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G63" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="64" spans="5:7">
@@ -7276,7 +7260,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G64" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="65" spans="5:7">
@@ -7288,7 +7272,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G65" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="66" spans="5:7">
@@ -7300,7 +7284,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G66" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="67" spans="5:7">
@@ -7312,7 +7296,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G67" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="68" spans="5:7">
@@ -7324,7 +7308,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G68" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="69" spans="5:7">
@@ -7336,7 +7320,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G69" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="70" spans="5:7">
@@ -7348,7 +7332,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G70" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="71" spans="5:7">
@@ -7360,7 +7344,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G71" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="72" spans="5:7">
@@ -7372,7 +7356,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G72" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="73" spans="5:7">
@@ -7384,7 +7368,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G73" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="74" spans="5:7">
@@ -7396,7 +7380,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G74" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="75" spans="5:7">
@@ -7408,7 +7392,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G75" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="76" spans="5:7">
@@ -7420,7 +7404,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G76" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="77" spans="5:7">
@@ -7432,7 +7416,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G77" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="78" spans="5:7">
@@ -7444,7 +7428,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G78" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="5:7">
@@ -7456,7 +7440,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G79" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="80" spans="5:7">
@@ -7468,7 +7452,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G80" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="81" spans="5:7">
@@ -7480,7 +7464,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G81" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="82" spans="5:7">
@@ -7492,7 +7476,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G82" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="83" spans="5:7">
@@ -7504,7 +7488,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G83" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="84" spans="5:7">
@@ -7516,7 +7500,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G84" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="85" spans="5:7">
@@ -7528,7 +7512,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G85" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="86" spans="5:7">
@@ -7540,7 +7524,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G86" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="87" spans="5:7">
@@ -7552,7 +7536,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G87" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="88" spans="5:7">
@@ -7564,7 +7548,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G88" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="89" spans="5:7">
@@ -7576,7 +7560,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G89" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="90" spans="5:7">
@@ -7588,7 +7572,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G90" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="91" spans="5:7">
@@ -7600,7 +7584,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G91" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="92" spans="5:7">
@@ -7612,7 +7596,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G92" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="93" spans="5:7">
@@ -7624,7 +7608,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G93" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="94" spans="5:7">
@@ -7636,7 +7620,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G94" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="95" spans="5:7">
@@ -7648,7 +7632,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G95" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="96" spans="5:7">
@@ -7660,7 +7644,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G96" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="97" spans="5:7">
@@ -7672,7 +7656,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G97" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="5:7">
@@ -7684,7 +7668,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G98" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="99" spans="5:7">
@@ -7696,7 +7680,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G99" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="100" spans="5:7">
@@ -7708,7 +7692,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G100" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="101" spans="5:7">
@@ -7720,7 +7704,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G101" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="102" spans="5:7">
@@ -7732,7 +7716,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G102" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="103" spans="5:7">
@@ -7744,7 +7728,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G103" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="104" spans="5:7">
@@ -7756,7 +7740,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G104" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="105" spans="5:7">
@@ -7768,7 +7752,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G105" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="106" spans="5:7">
@@ -7780,7 +7764,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G106" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="107" spans="5:7">
@@ -7792,7 +7776,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G107" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="108" spans="5:7">
@@ -7804,7 +7788,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G108" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="109" spans="5:7">
@@ -7816,7 +7800,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G109" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="110" spans="5:7">
@@ -7828,7 +7812,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G110" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="111" spans="5:7">
@@ -7840,7 +7824,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G111" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="112" spans="5:7">
@@ -7852,7 +7836,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G112" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="113" spans="5:7">
@@ -7864,7 +7848,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G113" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114" spans="5:7">
@@ -7876,7 +7860,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G114" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="115" spans="5:7">
@@ -7888,7 +7872,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G115" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="116" spans="5:7">
@@ -7900,7 +7884,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G116" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="117" spans="5:7">
@@ -7912,7 +7896,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G117" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="118" spans="5:7">
@@ -7924,7 +7908,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G118" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="119" spans="5:7">
@@ -7936,7 +7920,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G119" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="120" spans="5:7">
@@ -7948,7 +7932,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G120" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="121" spans="5:7">
@@ -7960,7 +7944,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G121" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="122" spans="5:7">
@@ -7972,7 +7956,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G122" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="123" spans="5:7">
@@ -7984,7 +7968,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G123" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="124" spans="5:7">
@@ -7996,7 +7980,7 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G124" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="125" spans="5:7">
@@ -8008,7 +7992,7 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G125" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="126" spans="5:7">
@@ -8020,7 +8004,7 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G126" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127" spans="5:7">
@@ -8032,7 +8016,7 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G127" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="128" spans="5:7">
@@ -8044,7 +8028,7 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G128" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="129" spans="5:7">
@@ -8056,7 +8040,7 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G129" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="130" spans="5:7">
@@ -8068,7 +8052,7 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G130" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="131" spans="5:7">
@@ -8080,7 +8064,7 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G131" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="132" spans="5:7">
@@ -8092,7 +8076,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G132" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="133" spans="5:7">
@@ -8104,7 +8088,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G133" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="134" spans="5:7">
@@ -8116,7 +8100,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G134" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="135" spans="5:7">
@@ -8128,7 +8112,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G135" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="136" spans="5:7">
@@ -8140,7 +8124,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G136" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="137" spans="5:7">
@@ -8152,7 +8136,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G137" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="138" spans="5:7">
@@ -8164,7 +8148,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G138" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="139" spans="5:7">
@@ -8176,7 +8160,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G139" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="140" spans="5:7">
@@ -8188,7 +8172,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G140" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="141" spans="5:7">
@@ -8200,7 +8184,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G141" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="142" spans="5:7">
@@ -8212,7 +8196,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G142" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="143" spans="5:7">
@@ -8224,7 +8208,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G143" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="144" spans="5:7">
@@ -8236,7 +8220,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G144" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="145" spans="5:7">
@@ -8248,7 +8232,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G145" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="146" spans="5:7">
@@ -8260,7 +8244,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G146" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="147" spans="5:7">
@@ -8272,7 +8256,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G147" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="148" spans="5:7">
@@ -8284,7 +8268,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G148" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="149" spans="5:7">
@@ -8296,7 +8280,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G149" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="150" spans="5:7">
@@ -8308,7 +8292,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G150" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="151" spans="5:7">
@@ -8320,7 +8304,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G151" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="152" spans="5:7">
@@ -8332,7 +8316,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G152" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="153" spans="5:7">
@@ -8344,7 +8328,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G153" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="154" spans="5:7">
@@ -8356,7 +8340,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G154" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="155" spans="5:7">
@@ -8368,7 +8352,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G155" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="156" spans="5:7">
@@ -8380,7 +8364,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G156" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="157" spans="5:7">
@@ -8392,7 +8376,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G157" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="158" spans="5:7">
@@ -8404,7 +8388,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G158" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="159" spans="5:7">
@@ -8416,7 +8400,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G159" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="160" spans="5:7">
@@ -8428,7 +8412,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G160" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="161" spans="5:7">
@@ -8440,7 +8424,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G161" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="162" spans="5:7">
@@ -8452,7 +8436,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G162" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="163" spans="5:7">
@@ -8464,7 +8448,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G163" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="164" spans="5:7">
@@ -8476,7 +8460,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G164" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="165" spans="5:7">
@@ -8488,7 +8472,7 @@
         <v>iam_menu-13</v>
       </c>
       <c r="G165" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="166" spans="5:7">
@@ -8500,7 +8484,7 @@
         <v>iam_menu-13</v>
       </c>
       <c r="G166" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="167" spans="5:7">
@@ -8512,7 +8496,7 @@
         <v>iam_menu-13</v>
       </c>
       <c r="G167" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="168" spans="5:7">
@@ -8524,7 +8508,7 @@
         <v>iam_menu-13</v>
       </c>
       <c r="G168" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="169" spans="5:7">
@@ -8536,7 +8520,7 @@
         <v>iam_menu-13</v>
       </c>
       <c r="G169" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="170" spans="5:7">
@@ -8548,7 +8532,7 @@
         <v>iam_menu-13</v>
       </c>
       <c r="G170" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="171" spans="5:7">
@@ -8560,7 +8544,7 @@
         <v>iam_menu-13</v>
       </c>
       <c r="G171" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -8570,18 +8554,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -9968,14 +9952,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="48" t="s">
@@ -11073,14 +11057,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="55" t="s">
@@ -11156,13 +11143,13 @@
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F8" t="s">
+        <v>525</v>
+      </c>
+      <c r="G8" t="s">
         <v>524</v>
-      </c>
-      <c r="G8" t="s">
-        <v>525</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -11174,7 +11161,7 @@
         <v>526</v>
       </c>
       <c r="K8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -11183,26 +11170,29 @@
         <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="E9" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F9" t="s">
+        <v>527</v>
+      </c>
+      <c r="G9" t="s">
+        <v>524</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>358</v>
+      </c>
+      <c r="J9" t="s">
         <v>528</v>
       </c>
-      <c r="G9" t="s">
-        <v>525</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>365</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>529</v>
       </c>
       <c r="M9" t="s">
@@ -11211,19 +11201,19 @@
       <c r="N9" t="s">
         <v>82</v>
       </c>
-      <c r="O9" t="s">
-        <v>82</v>
+      <c r="O9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="E10" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F10" t="s">
         <v>530</v>
       </c>
       <c r="G10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
@@ -11249,13 +11239,13 @@
     </row>
     <row r="11" spans="1:15">
       <c r="E11" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="F11" t="s">
         <v>532</v>
       </c>
       <c r="G11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
@@ -11275,19 +11265,19 @@
       <c r="N11" t="s">
         <v>82</v>
       </c>
-      <c r="O11" t="s">
-        <v>79</v>
+      <c r="O11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F12" t="s">
         <v>535</v>
       </c>
       <c r="G12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
@@ -11299,7 +11289,7 @@
         <v>536</v>
       </c>
       <c r="K12" t="s">
-        <v>536</v>
+        <v>476</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -11313,13 +11303,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F13" t="s">
         <v>537</v>
       </c>
       <c r="G13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
@@ -11345,13 +11335,13 @@
     </row>
     <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F14" t="s">
         <v>540</v>
       </c>
       <c r="G14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
@@ -11363,7 +11353,7 @@
         <v>541</v>
       </c>
       <c r="K14" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="M14" t="s">
         <v>79</v>
@@ -11377,13 +11367,13 @@
     </row>
     <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F15" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
@@ -11392,10 +11382,10 @@
         <v>358</v>
       </c>
       <c r="J15" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K15" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M15" t="s">
         <v>79</v>
@@ -11403,19 +11393,19 @@
       <c r="N15" t="s">
         <v>82</v>
       </c>
-      <c r="O15" t="s">
-        <v>79</v>
+      <c r="O15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F16" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
@@ -11424,11 +11414,11 @@
         <v>358</v>
       </c>
       <c r="J16" t="s">
+        <v>547</v>
+      </c>
+      <c r="K16" t="s">
         <v>546</v>
       </c>
-      <c r="K16" t="s">
-        <v>547</v>
-      </c>
       <c r="M16" t="s">
         <v>79</v>
       </c>
@@ -11436,18 +11426,18 @@
         <v>82</v>
       </c>
       <c r="O16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="F17" t="s">
         <v>548</v>
       </c>
       <c r="G17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
@@ -11459,7 +11449,7 @@
         <v>549</v>
       </c>
       <c r="K17" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M17" t="s">
         <v>79</v>
@@ -11468,70 +11458,6 @@
         <v>82</v>
       </c>
       <c r="O17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="5:15">
-      <c r="E18" t="s">
-        <v>386</v>
-      </c>
-      <c r="F18" t="s">
-        <v>551</v>
-      </c>
-      <c r="G18" t="s">
-        <v>525</v>
-      </c>
-      <c r="H18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" t="s">
-        <v>358</v>
-      </c>
-      <c r="J18" t="s">
-        <v>552</v>
-      </c>
-      <c r="K18" t="s">
-        <v>551</v>
-      </c>
-      <c r="M18" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" t="s">
-        <v>82</v>
-      </c>
-      <c r="O18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="5:15">
-      <c r="E19" t="s">
-        <v>389</v>
-      </c>
-      <c r="F19" t="s">
-        <v>553</v>
-      </c>
-      <c r="G19" t="s">
-        <v>525</v>
-      </c>
-      <c r="H19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" t="s">
-        <v>358</v>
-      </c>
-      <c r="J19" t="s">
-        <v>554</v>
-      </c>
-      <c r="K19" t="s">
-        <v>553</v>
-      </c>
-      <c r="M19" t="s">
-        <v>79</v>
-      </c>
-      <c r="N19" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19" t="s">
         <v>82</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\prod-repo-service\src\main\resources\script\db\init-data\hrds_prod_repo\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\company\companyRD\project\prod-repo-service\src\main\resources\script\db\init-data\hrds_prod_repo\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D6408B-71D0-48AE-A0A4-E8E6BEA7382D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-204" yWindow="0" windowWidth="21072" windowHeight="13332" tabRatio="597" activeTab="5"/>
+    <workbookView xWindow="-200" yWindow="0" windowWidth="21070" windowHeight="13330" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,12 +26,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="650">
   <si>
     <r>
       <rPr>
@@ -3503,7 +3504,22 @@
     <t>iam_role_permission-41</t>
   </si>
   <si>
+    <t>TENANT_MGR</t>
+  </si>
+  <si>
     <t>ROLE</t>
+  </si>
+  <si>
+    <t>租户管理员标签</t>
+  </si>
+  <si>
+    <t>Tenant Manager Label</t>
+  </si>
+  <si>
+    <t>SITE_MGR</t>
+  </si>
+  <si>
+    <t>平台管理员标签</t>
   </si>
   <si>
     <t>TENANT_ROLE_TPL</t>
@@ -3870,7 +3886,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="86">
     <font>
       <sz val="12"/>
@@ -4663,7 +4679,6 @@
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4679,10 +4694,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -5022,36 +5038,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="1025" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -5060,21 +5076,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="100" t="s">
+      <c r="D3" s="97"/>
+      <c r="E3" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="101"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -5111,7 +5127,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="49.5">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -5125,7 +5141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="49.5">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -5136,7 +5152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="66">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -5168,7 +5184,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="33">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -5185,11 +5201,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
@@ -5227,21 +5243,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="98" t="s">
+      <c r="D25" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="98"/>
+      <c r="E25" s="97"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="98" t="s">
+      <c r="D26" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="98"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.2">
+      <c r="E26" s="97"/>
+    </row>
+    <row r="27" spans="3:5" ht="49.5">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -5263,19 +5279,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="24.58203125" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="16" max="16" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -6517,16 +6533,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
       <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
@@ -6587,8 +6603,8 @@
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
-      <c r="G8" s="97" t="s">
-        <v>550</v>
+      <c r="G8" s="102" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6599,8 +6615,8 @@
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
-      <c r="G9" s="97" t="s">
-        <v>551</v>
+      <c r="G9" s="102" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6612,7 +6628,7 @@
         <v>iam_menu-19</v>
       </c>
       <c r="G10" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6624,7 +6640,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G11" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6636,7 +6652,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G12" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6648,7 +6664,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G13" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6660,7 +6676,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G14" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6672,7 +6688,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G15" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6684,7 +6700,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G16" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="5:7">
@@ -6696,7 +6712,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G17" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="5:7">
@@ -6708,7 +6724,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G18" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="5:7">
@@ -6720,7 +6736,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G19" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="5:7">
@@ -6732,7 +6748,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G20" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="5:7">
@@ -6744,7 +6760,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G21" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="5:7">
@@ -6756,7 +6772,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G22" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="5:7">
@@ -6768,7 +6784,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G23" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="5:7">
@@ -6780,7 +6796,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G24" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="5:7">
@@ -6792,7 +6808,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G25" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="5:7">
@@ -6804,7 +6820,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G26" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="5:7">
@@ -6816,7 +6832,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G27" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="5:7">
@@ -6828,7 +6844,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G28" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="5:7">
@@ -6840,7 +6856,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G29" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="5:7">
@@ -6852,7 +6868,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G30" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="31" spans="5:7">
@@ -6864,7 +6880,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G31" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32" spans="5:7">
@@ -6876,7 +6892,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G32" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="5:7">
@@ -6888,7 +6904,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G33" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="34" spans="5:7">
@@ -6900,7 +6916,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G34" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="5:7">
@@ -6912,7 +6928,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G35" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="5:7">
@@ -6924,7 +6940,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G36" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="37" spans="5:7">
@@ -6936,7 +6952,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G37" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" spans="5:7">
@@ -6948,7 +6964,7 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G38" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39" spans="5:7">
@@ -6960,7 +6976,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G39" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="40" spans="5:7">
@@ -6972,7 +6988,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G40" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="41" spans="5:7">
@@ -6984,7 +7000,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G41" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="42" spans="5:7">
@@ -6996,7 +7012,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G42" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="43" spans="5:7">
@@ -7008,7 +7024,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G43" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="44" spans="5:7">
@@ -7020,7 +7036,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G44" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="45" spans="5:7">
@@ -7032,7 +7048,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G45" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="46" spans="5:7">
@@ -7044,7 +7060,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G46" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="47" spans="5:7">
@@ -7056,7 +7072,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G47" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="48" spans="5:7">
@@ -7068,7 +7084,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G48" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="49" spans="5:7">
@@ -7080,7 +7096,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G49" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="50" spans="5:7">
@@ -7092,7 +7108,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G50" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" spans="5:7">
@@ -7104,7 +7120,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G51" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="52" spans="5:7">
@@ -7116,7 +7132,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G52" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="53" spans="5:7">
@@ -7128,7 +7144,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G53" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="54" spans="5:7">
@@ -7140,7 +7156,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G54" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="55" spans="5:7">
@@ -7152,7 +7168,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G55" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="56" spans="5:7">
@@ -7164,7 +7180,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G56" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="57" spans="5:7">
@@ -7176,7 +7192,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G57" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="58" spans="5:7">
@@ -7188,7 +7204,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G58" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="59" spans="5:7">
@@ -7200,7 +7216,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G59" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="60" spans="5:7">
@@ -7212,7 +7228,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G60" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="61" spans="5:7">
@@ -7224,7 +7240,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G61" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="62" spans="5:7">
@@ -7236,7 +7252,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G62" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
     <row r="63" spans="5:7">
@@ -7248,7 +7264,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G63" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="64" spans="5:7">
@@ -7260,7 +7276,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G64" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="65" spans="5:7">
@@ -7272,7 +7288,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G65" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="66" spans="5:7">
@@ -7284,7 +7300,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G66" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="67" spans="5:7">
@@ -7296,7 +7312,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G67" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="68" spans="5:7">
@@ -7308,7 +7324,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G68" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="69" spans="5:7">
@@ -7320,7 +7336,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G69" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="70" spans="5:7">
@@ -7332,7 +7348,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G70" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="71" spans="5:7">
@@ -7344,7 +7360,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G71" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="72" spans="5:7">
@@ -7356,7 +7372,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G72" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="73" spans="5:7">
@@ -7368,7 +7384,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G73" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="74" spans="5:7">
@@ -7380,7 +7396,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G74" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="75" spans="5:7">
@@ -7392,7 +7408,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G75" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="5:7">
@@ -7404,7 +7420,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G76" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="77" spans="5:7">
@@ -7416,7 +7432,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G77" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="78" spans="5:7">
@@ -7428,7 +7444,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G78" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="79" spans="5:7">
@@ -7440,7 +7456,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G79" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="80" spans="5:7">
@@ -7452,7 +7468,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G80" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="81" spans="5:7">
@@ -7464,7 +7480,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G81" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="82" spans="5:7">
@@ -7476,7 +7492,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G82" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="83" spans="5:7">
@@ -7488,7 +7504,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G83" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="84" spans="5:7">
@@ -7500,7 +7516,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G84" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="85" spans="5:7">
@@ -7512,7 +7528,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G85" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="86" spans="5:7">
@@ -7524,7 +7540,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G86" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="87" spans="5:7">
@@ -7536,7 +7552,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G87" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="88" spans="5:7">
@@ -7548,7 +7564,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G88" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="89" spans="5:7">
@@ -7560,7 +7576,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G89" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="90" spans="5:7">
@@ -7572,7 +7588,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G90" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="91" spans="5:7">
@@ -7584,7 +7600,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G91" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="92" spans="5:7">
@@ -7596,7 +7612,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G92" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="93" spans="5:7">
@@ -7608,7 +7624,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G93" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="94" spans="5:7">
@@ -7620,7 +7636,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G94" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="95" spans="5:7">
@@ -7632,7 +7648,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G95" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="96" spans="5:7">
@@ -7644,7 +7660,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G96" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="97" spans="5:7">
@@ -7656,7 +7672,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G97" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="98" spans="5:7">
@@ -7668,7 +7684,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G98" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="99" spans="5:7">
@@ -7680,7 +7696,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G99" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="100" spans="5:7">
@@ -7692,7 +7708,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G100" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="101" spans="5:7">
@@ -7704,7 +7720,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G101" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="102" spans="5:7">
@@ -7716,7 +7732,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G102" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="103" spans="5:7">
@@ -7728,7 +7744,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G103" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="104" spans="5:7">
@@ -7740,7 +7756,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G104" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="105" spans="5:7">
@@ -7752,7 +7768,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G105" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="106" spans="5:7">
@@ -7764,7 +7780,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G106" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="107" spans="5:7">
@@ -7776,7 +7792,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G107" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="108" spans="5:7">
@@ -7788,7 +7804,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G108" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="109" spans="5:7">
@@ -7800,7 +7816,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G109" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="110" spans="5:7">
@@ -7812,7 +7828,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G110" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="111" spans="5:7">
@@ -7824,7 +7840,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G111" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="112" spans="5:7">
@@ -7836,7 +7852,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G112" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="113" spans="5:7">
@@ -7848,7 +7864,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G113" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="114" spans="5:7">
@@ -7860,7 +7876,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G114" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="115" spans="5:7">
@@ -7872,7 +7888,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G115" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="116" spans="5:7">
@@ -7884,7 +7900,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G116" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="117" spans="5:7">
@@ -7896,7 +7912,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G117" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="118" spans="5:7">
@@ -7908,7 +7924,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G118" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="119" spans="5:7">
@@ -7920,7 +7936,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G119" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="120" spans="5:7">
@@ -7932,7 +7948,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G120" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="121" spans="5:7">
@@ -7944,7 +7960,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G121" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="122" spans="5:7">
@@ -7956,7 +7972,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G122" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="123" spans="5:7">
@@ -7968,7 +7984,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G123" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="124" spans="5:7">
@@ -7980,7 +7996,7 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G124" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="125" spans="5:7">
@@ -7992,7 +8008,7 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G125" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="126" spans="5:7">
@@ -8004,7 +8020,7 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G126" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="127" spans="5:7">
@@ -8016,7 +8032,7 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G127" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="128" spans="5:7">
@@ -8028,7 +8044,7 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G128" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="129" spans="5:7">
@@ -8040,7 +8056,7 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G129" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="130" spans="5:7">
@@ -8052,7 +8068,7 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G130" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="131" spans="5:7">
@@ -8064,7 +8080,7 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G131" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="132" spans="5:7">
@@ -8076,7 +8092,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G132" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="133" spans="5:7">
@@ -8088,7 +8104,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G133" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="134" spans="5:7">
@@ -8100,7 +8116,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G134" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="135" spans="5:7">
@@ -8112,7 +8128,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G135" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="136" spans="5:7">
@@ -8124,7 +8140,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G136" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="137" spans="5:7">
@@ -8136,7 +8152,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G137" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
     </row>
     <row r="138" spans="5:7">
@@ -8148,7 +8164,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G138" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="139" spans="5:7">
@@ -8160,7 +8176,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G139" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="140" spans="5:7">
@@ -8172,7 +8188,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G140" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="141" spans="5:7">
@@ -8184,7 +8200,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G141" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="142" spans="5:7">
@@ -8196,7 +8212,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G142" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="143" spans="5:7">
@@ -8208,7 +8224,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G143" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="144" spans="5:7">
@@ -8220,7 +8236,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G144" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="145" spans="5:7">
@@ -8232,7 +8248,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G145" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="146" spans="5:7">
@@ -8244,7 +8260,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G146" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="147" spans="5:7">
@@ -8256,7 +8272,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G147" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="148" spans="5:7">
@@ -8268,7 +8284,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G148" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="149" spans="5:7">
@@ -8280,7 +8296,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G149" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="150" spans="5:7">
@@ -8292,7 +8308,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G150" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="151" spans="5:7">
@@ -8304,7 +8320,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G151" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
     </row>
     <row r="152" spans="5:7">
@@ -8316,7 +8332,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G152" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="153" spans="5:7">
@@ -8328,7 +8344,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G153" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="154" spans="5:7">
@@ -8340,7 +8356,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G154" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
     </row>
     <row r="155" spans="5:7">
@@ -8352,7 +8368,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G155" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
     </row>
     <row r="156" spans="5:7">
@@ -8364,7 +8380,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G156" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="157" spans="5:7">
@@ -8376,7 +8392,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G157" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="158" spans="5:7">
@@ -8388,7 +8404,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G158" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="159" spans="5:7">
@@ -8400,7 +8416,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G159" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="160" spans="5:7">
@@ -8412,7 +8428,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G160" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="161" spans="5:7">
@@ -8424,7 +8440,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G161" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
     </row>
     <row r="162" spans="5:7">
@@ -8436,7 +8452,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G162" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="163" spans="5:7">
@@ -8448,7 +8464,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G163" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="164" spans="5:7">
@@ -8460,7 +8476,7 @@
         <v>iam_menu-25</v>
       </c>
       <c r="G164" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="165" spans="5:7">
@@ -8472,7 +8488,7 @@
         <v>iam_menu-13</v>
       </c>
       <c r="G165" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="166" spans="5:7">
@@ -8484,7 +8500,7 @@
         <v>iam_menu-13</v>
       </c>
       <c r="G166" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="167" spans="5:7">
@@ -8496,7 +8512,7 @@
         <v>iam_menu-13</v>
       </c>
       <c r="G167" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="168" spans="5:7">
@@ -8508,7 +8524,7 @@
         <v>iam_menu-13</v>
       </c>
       <c r="G168" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="169" spans="5:7">
@@ -8520,7 +8536,7 @@
         <v>iam_menu-13</v>
       </c>
       <c r="G169" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="170" spans="5:7">
@@ -8532,7 +8548,7 @@
         <v>iam_menu-13</v>
       </c>
       <c r="G170" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="171" spans="5:7">
@@ -8544,7 +8560,7 @@
         <v>iam_menu-13</v>
       </c>
       <c r="G171" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -8554,18 +8570,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -9952,14 +9968,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="48" t="s">
@@ -11057,17 +11073,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="6" max="6" width="18.25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="55" t="s">
@@ -11143,13 +11156,13 @@
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F8" t="s">
+        <v>524</v>
+      </c>
+      <c r="G8" t="s">
         <v>525</v>
-      </c>
-      <c r="G8" t="s">
-        <v>524</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -11161,7 +11174,7 @@
         <v>526</v>
       </c>
       <c r="K8" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -11170,29 +11183,26 @@
         <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="E9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="J9" t="s">
-        <v>528</v>
-      </c>
-      <c r="K9" t="s">
         <v>529</v>
       </c>
       <c r="M9" t="s">
@@ -11201,19 +11211,19 @@
       <c r="N9" t="s">
         <v>82</v>
       </c>
-      <c r="O9">
-        <v>1</v>
+      <c r="O9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="E10" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F10" t="s">
         <v>530</v>
       </c>
       <c r="G10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
@@ -11239,13 +11249,13 @@
     </row>
     <row r="11" spans="1:15">
       <c r="E11" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F11" t="s">
         <v>532</v>
       </c>
       <c r="G11" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
@@ -11265,19 +11275,19 @@
       <c r="N11" t="s">
         <v>82</v>
       </c>
-      <c r="O11">
-        <v>1</v>
+      <c r="O11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F12" t="s">
         <v>535</v>
       </c>
       <c r="G12" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
@@ -11289,7 +11299,7 @@
         <v>536</v>
       </c>
       <c r="K12" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -11303,13 +11313,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F13" t="s">
         <v>537</v>
       </c>
       <c r="G13" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
@@ -11335,13 +11345,13 @@
     </row>
     <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F14" t="s">
         <v>540</v>
       </c>
       <c r="G14" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
@@ -11353,7 +11363,7 @@
         <v>541</v>
       </c>
       <c r="K14" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="M14" t="s">
         <v>79</v>
@@ -11367,13 +11377,13 @@
     </row>
     <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G15" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
@@ -11382,30 +11392,30 @@
         <v>358</v>
       </c>
       <c r="J15" t="s">
+        <v>543</v>
+      </c>
+      <c r="K15" t="s">
         <v>544</v>
       </c>
-      <c r="K15" t="s">
-        <v>545</v>
-      </c>
       <c r="M15" t="s">
         <v>79</v>
       </c>
       <c r="N15" t="s">
         <v>82</v>
       </c>
-      <c r="O15">
-        <v>0</v>
+      <c r="O15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G16" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
@@ -11414,11 +11424,11 @@
         <v>358</v>
       </c>
       <c r="J16" t="s">
+        <v>546</v>
+      </c>
+      <c r="K16" t="s">
         <v>547</v>
       </c>
-      <c r="K16" t="s">
-        <v>546</v>
-      </c>
       <c r="M16" t="s">
         <v>79</v>
       </c>
@@ -11426,18 +11436,18 @@
         <v>82</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F17" t="s">
         <v>548</v>
       </c>
       <c r="G17" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
@@ -11449,7 +11459,7 @@
         <v>549</v>
       </c>
       <c r="K17" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M17" t="s">
         <v>79</v>
@@ -11458,6 +11468,70 @@
         <v>82</v>
       </c>
       <c r="O17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15">
+      <c r="E18" t="s">
+        <v>386</v>
+      </c>
+      <c r="F18" t="s">
+        <v>551</v>
+      </c>
+      <c r="G18" t="s">
+        <v>525</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s">
+        <v>358</v>
+      </c>
+      <c r="J18" t="s">
+        <v>552</v>
+      </c>
+      <c r="K18" t="s">
+        <v>551</v>
+      </c>
+      <c r="M18" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15">
+      <c r="E19" t="s">
+        <v>389</v>
+      </c>
+      <c r="F19" t="s">
+        <v>553</v>
+      </c>
+      <c r="G19" t="s">
+        <v>525</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J19" t="s">
+        <v>554</v>
+      </c>
+      <c r="K19" t="s">
+        <v>553</v>
+      </c>
+      <c r="M19" t="s">
+        <v>79</v>
+      </c>
+      <c r="N19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" t="s">
         <v>82</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="607">
   <si>
     <r>
       <rPr>
@@ -3553,25 +3553,7 @@
     <t>iam_role_permission-41</t>
   </si>
   <si>
-    <t>TENANT_MGR</t>
-  </si>
-  <si>
     <t>ROLE</t>
-  </si>
-  <si>
-    <t>租户管理员标签</t>
-  </si>
-  <si>
-    <t>Tenant Manager Label</t>
-  </si>
-  <si>
-    <t>iam_label-9</t>
-  </si>
-  <si>
-    <t>SITE_MGR</t>
-  </si>
-  <si>
-    <t>平台管理员标签</t>
   </si>
   <si>
     <t>iam_label-10</t>
@@ -4650,7 +4632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
+    <sheetView topLeftCell="H16" workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
@@ -4770,19 +4752,19 @@
     </row>
     <row r="8" spans="1:25">
       <c r="E8" s="34" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="F8" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="G8" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H8" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="I8" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="J8" t="s">
         <v>75</v>
@@ -4806,7 +4788,7 @@
         <v>76</v>
       </c>
       <c r="S8" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="T8" t="s">
         <v>76</v>
@@ -5698,16 +5680,16 @@
         <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G25" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H25" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="I25" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="J25" t="s">
         <v>158</v>
@@ -5731,7 +5713,7 @@
         <v>76</v>
       </c>
       <c r="S25" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="T25" t="s">
         <v>76</v>
@@ -9578,13 +9560,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -9660,13 +9645,13 @@
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>445</v>
+        <v>569</v>
       </c>
       <c r="F8" t="s">
+        <v>570</v>
+      </c>
+      <c r="G8" t="s">
         <v>568</v>
-      </c>
-      <c r="G8" t="s">
-        <v>569</v>
       </c>
       <c r="H8" t="s">
         <v>78</v>
@@ -9675,7 +9660,7 @@
         <v>448</v>
       </c>
       <c r="J8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K8" t="s">
         <v>571</v>
@@ -9687,26 +9672,29 @@
         <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="E9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F9" t="s">
         <v>572</v>
       </c>
-      <c r="F9" t="s">
-        <v>573</v>
-      </c>
       <c r="G9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H9" t="s">
         <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="J9" t="s">
+        <v>573</v>
+      </c>
+      <c r="K9" t="s">
         <v>574</v>
       </c>
       <c r="M9" t="s">
@@ -9715,19 +9703,19 @@
       <c r="N9" t="s">
         <v>78</v>
       </c>
-      <c r="O9" t="s">
-        <v>78</v>
+      <c r="O9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="E10" t="s">
+        <v>452</v>
+      </c>
+      <c r="F10" t="s">
         <v>575</v>
       </c>
-      <c r="F10" t="s">
-        <v>576</v>
-      </c>
       <c r="G10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H10" t="s">
         <v>78</v>
@@ -9736,10 +9724,10 @@
         <v>448</v>
       </c>
       <c r="J10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M10" t="s">
         <v>76</v>
@@ -9753,13 +9741,13 @@
     </row>
     <row r="11" spans="1:15">
       <c r="E11" t="s">
-        <v>450</v>
+        <v>577</v>
       </c>
       <c r="F11" t="s">
         <v>578</v>
       </c>
       <c r="G11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H11" t="s">
         <v>78</v>
@@ -9779,19 +9767,19 @@
       <c r="N11" t="s">
         <v>78</v>
       </c>
-      <c r="O11" t="s">
-        <v>76</v>
+      <c r="O11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>452</v>
+        <v>581</v>
       </c>
       <c r="F12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H12" t="s">
         <v>78</v>
@@ -9800,10 +9788,10 @@
         <v>448</v>
       </c>
       <c r="J12" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K12" t="s">
-        <v>582</v>
+        <v>520</v>
       </c>
       <c r="M12" t="s">
         <v>76</v>
@@ -9817,13 +9805,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F13" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H13" t="s">
         <v>78</v>
@@ -9832,10 +9820,10 @@
         <v>448</v>
       </c>
       <c r="J13" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="K13" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M13" t="s">
         <v>76</v>
@@ -9849,13 +9837,13 @@
     </row>
     <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F14" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H14" t="s">
         <v>78</v>
@@ -9864,10 +9852,10 @@
         <v>448</v>
       </c>
       <c r="J14" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="K14" t="s">
-        <v>520</v>
+        <v>591</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -9881,13 +9869,13 @@
     </row>
     <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F15" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H15" t="s">
         <v>78</v>
@@ -9896,10 +9884,10 @@
         <v>448</v>
       </c>
       <c r="J15" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K15" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M15" t="s">
         <v>76</v>
@@ -9907,19 +9895,19 @@
       <c r="N15" t="s">
         <v>78</v>
       </c>
-      <c r="O15" t="s">
-        <v>76</v>
+      <c r="O15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F16" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H16" t="s">
         <v>78</v>
@@ -9928,7 +9916,7 @@
         <v>448</v>
       </c>
       <c r="J16" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="K16" t="s">
         <v>597</v>
@@ -9940,18 +9928,18 @@
         <v>78</v>
       </c>
       <c r="O16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F17" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H17" t="s">
         <v>78</v>
@@ -9960,10 +9948,10 @@
         <v>448</v>
       </c>
       <c r="J17" t="s">
+        <v>601</v>
+      </c>
+      <c r="K17" t="s">
         <v>600</v>
-      </c>
-      <c r="K17" t="s">
-        <v>601</v>
       </c>
       <c r="M17" t="s">
         <v>76</v>
@@ -9972,70 +9960,6 @@
         <v>78</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="5:15">
-      <c r="E18" t="s">
-        <v>602</v>
-      </c>
-      <c r="F18" t="s">
-        <v>603</v>
-      </c>
-      <c r="G18" t="s">
-        <v>569</v>
-      </c>
-      <c r="H18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s">
-        <v>448</v>
-      </c>
-      <c r="J18" t="s">
-        <v>604</v>
-      </c>
-      <c r="K18" t="s">
-        <v>603</v>
-      </c>
-      <c r="M18" t="s">
-        <v>76</v>
-      </c>
-      <c r="N18" t="s">
-        <v>78</v>
-      </c>
-      <c r="O18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="5:15">
-      <c r="E19" t="s">
-        <v>605</v>
-      </c>
-      <c r="F19" t="s">
-        <v>606</v>
-      </c>
-      <c r="G19" t="s">
-        <v>569</v>
-      </c>
-      <c r="H19" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s">
-        <v>448</v>
-      </c>
-      <c r="J19" t="s">
-        <v>607</v>
-      </c>
-      <c r="K19" t="s">
-        <v>606</v>
-      </c>
-      <c r="M19" t="s">
-        <v>76</v>
-      </c>
-      <c r="N19" t="s">
-        <v>78</v>
-      </c>
-      <c r="O19" t="s">
         <v>78</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="612">
   <si>
     <r>
       <rPr>
@@ -3669,6 +3669,24 @@
   <si>
     <t>iam_menu-8</t>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>制品库管理</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon-iam.choerodon-prod.listProjectsByOrgId</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon-iam.choerodon-prod.listProjectOwnerById</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_menu_permission-172</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-173</t>
   </si>
 </sst>
 </file>
@@ -3968,7 +3986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4045,6 +4063,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4632,8 +4651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="C26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
@@ -5241,8 +5260,8 @@
       <c r="F17" t="s">
         <v>124</v>
       </c>
-      <c r="G17" t="s">
-        <v>82</v>
+      <c r="G17" s="40" t="s">
+        <v>607</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
@@ -5894,10 +5913,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="F158" sqref="F158"/>
+    <sheetView tabSelected="1" topLeftCell="C163" workbookViewId="0">
+      <selection activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
@@ -7921,6 +7940,30 @@
       </c>
       <c r="G171" t="s">
         <v>432</v>
+      </c>
+    </row>
+    <row r="172" spans="5:7">
+      <c r="E172" t="s">
+        <v>610</v>
+      </c>
+      <c r="F172" t="str">
+        <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G172" s="40" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="173" spans="5:7">
+      <c r="E173" t="s">
+        <v>611</v>
+      </c>
+      <c r="F173" t="str">
+        <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G173" s="40" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -9562,7 +9605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">菜单SAAS版!$L$1:$L$28</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="612">
   <si>
     <r>
       <rPr>
@@ -4048,6 +4049,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4063,7 +4065,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4432,11 +4433,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
@@ -4445,21 +4446,21 @@
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
@@ -4570,11 +4571,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="31" t="s">
@@ -4612,19 +4613,19 @@
       <c r="C25" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="35"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="35"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="33" t="s">
@@ -4651,8 +4652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="C26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="F25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
@@ -5260,7 +5261,7 @@
       <c r="F17" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="35" t="s">
         <v>607</v>
       </c>
       <c r="H17" t="s">
@@ -5713,14 +5714,14 @@
       <c r="J25" t="s">
         <v>158</v>
       </c>
-      <c r="K25" t="s">
-        <v>76</v>
+      <c r="K25">
+        <v>0</v>
       </c>
       <c r="L25" t="s">
         <v>77</v>
       </c>
-      <c r="M25" t="s">
-        <v>76</v>
+      <c r="M25">
+        <v>10</v>
       </c>
       <c r="N25" t="s">
         <v>78</v>
@@ -5906,6 +5907,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="L1:L28"/>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5915,7 +5917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C163" workbookViewId="0">
+    <sheetView topLeftCell="C97" workbookViewId="0">
       <selection activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
@@ -7950,7 +7952,7 @@
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
-      <c r="G172" s="40" t="s">
+      <c r="G172" s="35" t="s">
         <v>608</v>
       </c>
     </row>
@@ -7962,7 +7964,7 @@
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
-      <c r="G173" s="40" t="s">
+      <c r="G173" s="35" t="s">
         <v>609</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="614">
   <si>
     <r>
       <rPr>
@@ -2189,9 +2189,6 @@
     <t>choerodon.code.person.setting</t>
   </si>
   <si>
-    <t>个人信息</t>
-  </si>
-  <si>
     <t>iam_menu-15</t>
   </si>
   <si>
@@ -3688,6 +3685,18 @@
   </si>
   <si>
     <t>iam_menu_permission-173</t>
+  </si>
+  <si>
+    <t>choerodon.code.person.setting</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4652,8 +4661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
@@ -4772,19 +4781,19 @@
     </row>
     <row r="8" spans="1:25">
       <c r="E8" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G8" t="s">
+        <v>602</v>
+      </c>
+      <c r="H8" t="s">
+        <v>602</v>
+      </c>
+      <c r="I8" t="s">
         <v>603</v>
-      </c>
-      <c r="H8" t="s">
-        <v>603</v>
-      </c>
-      <c r="I8" t="s">
-        <v>604</v>
       </c>
       <c r="J8" t="s">
         <v>75</v>
@@ -4808,7 +4817,7 @@
         <v>76</v>
       </c>
       <c r="S8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="T8" t="s">
         <v>76</v>
@@ -5100,14 +5109,14 @@
       <c r="E14" t="s">
         <v>111</v>
       </c>
-      <c r="F14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" t="s">
-        <v>113</v>
+      <c r="F14" s="35" t="s">
+        <v>611</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>612</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>613</v>
       </c>
       <c r="J14" t="s">
         <v>75</v>
@@ -5145,16 +5154,16 @@
     </row>
     <row r="15" spans="1:25">
       <c r="E15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" t="s">
         <v>114</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>115</v>
       </c>
-      <c r="G15" t="s">
-        <v>116</v>
-      </c>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I15" t="s">
         <v>83</v>
@@ -5176,19 +5185,19 @@
         <v>78</v>
       </c>
       <c r="O15" t="s">
+        <v>116</v>
+      </c>
+      <c r="P15" t="s">
         <v>117</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" t="s">
         <v>118</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>76</v>
-      </c>
-      <c r="R15" t="s">
-        <v>76</v>
-      </c>
-      <c r="S15" t="s">
-        <v>119</v>
       </c>
       <c r="T15" t="s">
         <v>76</v>
@@ -5202,10 +5211,10 @@
     </row>
     <row r="16" spans="1:25">
       <c r="E16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" t="s">
         <v>120</v>
-      </c>
-      <c r="F16" t="s">
-        <v>121</v>
       </c>
       <c r="G16" t="s">
         <v>91</v>
@@ -5239,7 +5248,7 @@
         <v>76</v>
       </c>
       <c r="S16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T16" t="s">
         <v>76</v>
@@ -5256,13 +5265,13 @@
     </row>
     <row r="17" spans="5:24">
       <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" t="s">
         <v>123</v>
       </c>
-      <c r="F17" t="s">
-        <v>124</v>
-      </c>
       <c r="G17" s="35" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
@@ -5290,16 +5299,16 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" t="s">
+        <v>76</v>
+      </c>
+      <c r="S17" t="s">
         <v>125</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>76</v>
-      </c>
-      <c r="R17" t="s">
-        <v>76</v>
-      </c>
-      <c r="S17" t="s">
-        <v>126</v>
       </c>
       <c r="T17" t="s">
         <v>76</v>
@@ -5313,10 +5322,10 @@
     </row>
     <row r="18" spans="5:24">
       <c r="E18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" t="s">
         <v>127</v>
-      </c>
-      <c r="F18" t="s">
-        <v>128</v>
       </c>
       <c r="G18" t="s">
         <v>91</v>
@@ -5350,7 +5359,7 @@
         <v>76</v>
       </c>
       <c r="S18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T18" t="s">
         <v>76</v>
@@ -5367,16 +5376,16 @@
     </row>
     <row r="19" spans="5:24">
       <c r="E19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" t="s">
         <v>130</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>131</v>
       </c>
-      <c r="G19" t="s">
-        <v>132</v>
-      </c>
       <c r="H19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
         <v>83</v>
@@ -5407,7 +5416,7 @@
         <v>76</v>
       </c>
       <c r="S19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T19" t="s">
         <v>76</v>
@@ -5424,16 +5433,16 @@
     </row>
     <row r="20" spans="5:24">
       <c r="E20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" t="s">
         <v>134</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>135</v>
       </c>
-      <c r="G20" t="s">
-        <v>136</v>
-      </c>
       <c r="H20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I20" t="s">
         <v>83</v>
@@ -5464,7 +5473,7 @@
         <v>76</v>
       </c>
       <c r="S20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T20" t="s">
         <v>76</v>
@@ -5478,16 +5487,16 @@
     </row>
     <row r="21" spans="5:24">
       <c r="E21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" t="s">
         <v>138</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>139</v>
       </c>
-      <c r="G21" t="s">
-        <v>140</v>
-      </c>
       <c r="H21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I21" t="s">
         <v>83</v>
@@ -5503,7 +5512,7 @@
         <v>92</v>
       </c>
       <c r="M21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N21" t="s">
         <v>78</v>
@@ -5518,7 +5527,7 @@
         <v>76</v>
       </c>
       <c r="S21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T21" t="s">
         <v>76</v>
@@ -5532,16 +5541,16 @@
     </row>
     <row r="22" spans="5:24">
       <c r="E22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" t="s">
         <v>143</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>144</v>
       </c>
-      <c r="G22" t="s">
-        <v>145</v>
-      </c>
       <c r="H22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I22" t="s">
         <v>83</v>
@@ -5572,7 +5581,7 @@
         <v>76</v>
       </c>
       <c r="S22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T22" t="s">
         <v>76</v>
@@ -5589,16 +5598,16 @@
     </row>
     <row r="23" spans="5:24">
       <c r="E23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" t="s">
         <v>147</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>148</v>
       </c>
-      <c r="G23" t="s">
-        <v>149</v>
-      </c>
       <c r="H23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I23" t="s">
         <v>83</v>
@@ -5614,7 +5623,7 @@
         <v>92</v>
       </c>
       <c r="M23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N23" t="s">
         <v>78</v>
@@ -5629,7 +5638,7 @@
         <v>76</v>
       </c>
       <c r="S23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T23" t="s">
         <v>76</v>
@@ -5643,16 +5652,16 @@
     </row>
     <row r="24" spans="5:24" ht="16.8" customHeight="1">
       <c r="E24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" t="s">
         <v>152</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>153</v>
       </c>
-      <c r="G24" t="s">
-        <v>154</v>
-      </c>
       <c r="H24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I24" t="s">
         <v>83</v>
@@ -5668,7 +5677,7 @@
         <v>92</v>
       </c>
       <c r="M24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N24" t="s">
         <v>78</v>
@@ -5683,7 +5692,7 @@
         <v>76</v>
       </c>
       <c r="S24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T24" t="s">
         <v>76</v>
@@ -5697,22 +5706,22 @@
     </row>
     <row r="25" spans="5:24">
       <c r="E25" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" t="s">
+        <v>601</v>
+      </c>
+      <c r="G25" t="s">
+        <v>602</v>
+      </c>
+      <c r="H25" t="s">
+        <v>602</v>
+      </c>
+      <c r="I25" t="s">
+        <v>603</v>
+      </c>
+      <c r="J25" t="s">
         <v>157</v>
-      </c>
-      <c r="F25" t="s">
-        <v>602</v>
-      </c>
-      <c r="G25" t="s">
-        <v>603</v>
-      </c>
-      <c r="H25" t="s">
-        <v>603</v>
-      </c>
-      <c r="I25" t="s">
-        <v>604</v>
-      </c>
-      <c r="J25" t="s">
-        <v>158</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -5733,7 +5742,7 @@
         <v>76</v>
       </c>
       <c r="S25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T25" t="s">
         <v>76</v>
@@ -5747,10 +5756,10 @@
     </row>
     <row r="26" spans="5:24">
       <c r="E26" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" t="s">
         <v>159</v>
-      </c>
-      <c r="F26" t="s">
-        <v>160</v>
       </c>
       <c r="G26" t="s">
         <v>82</v>
@@ -5762,7 +5771,7 @@
         <v>83</v>
       </c>
       <c r="J26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K26" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -5781,16 +5790,16 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>76</v>
+      </c>
+      <c r="R26" t="s">
+        <v>76</v>
+      </c>
+      <c r="S26" t="s">
         <v>161</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>76</v>
-      </c>
-      <c r="R26" t="s">
-        <v>76</v>
-      </c>
-      <c r="S26" t="s">
-        <v>162</v>
       </c>
       <c r="T26" t="s">
         <v>76</v>
@@ -5804,10 +5813,10 @@
     </row>
     <row r="27" spans="5:24">
       <c r="E27" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" t="s">
         <v>163</v>
-      </c>
-      <c r="F27" t="s">
-        <v>164</v>
       </c>
       <c r="G27" t="s">
         <v>91</v>
@@ -5819,7 +5828,7 @@
         <v>83</v>
       </c>
       <c r="J27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K27" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -5841,7 +5850,7 @@
         <v>76</v>
       </c>
       <c r="S27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T27" t="s">
         <v>76</v>
@@ -5858,19 +5867,19 @@
     </row>
     <row r="28" spans="5:24">
       <c r="E28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" t="s">
         <v>166</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>167</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" t="s">
         <v>168</v>
-      </c>
-      <c r="H28" t="s">
-        <v>168</v>
-      </c>
-      <c r="I28" t="s">
-        <v>169</v>
       </c>
       <c r="J28" t="s">
         <v>75</v>
@@ -5894,7 +5903,7 @@
         <v>76</v>
       </c>
       <c r="S28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T28" t="s">
         <v>76</v>
@@ -5961,2011 +5970,2011 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="E8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="E9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="E10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="E11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="E12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="E13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="E15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F52" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F55" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G58" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F61" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G61" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G64" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G68" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G78" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G79" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G81" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G82" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G84" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G86" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G87" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G89" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G90" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G91" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G92" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G93" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G94" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G95" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G96" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G97" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G99" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G100" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G101" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G102" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G103" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G104" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G107" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G108" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G109" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G110" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F111" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G111" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F112" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G112" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F113" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F114" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G114" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="115" spans="5:7">
       <c r="E115" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F115" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G115" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F116" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G116" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F117" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G117" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="118" spans="5:7">
       <c r="E118" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F118" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G118" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="119" spans="5:7">
       <c r="E119" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F119" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G119" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="5:7">
       <c r="E120" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F120" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G120" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="121" spans="5:7">
       <c r="E121" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F121" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G121" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="122" spans="5:7">
       <c r="E122" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F122" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G122" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="123" spans="5:7">
       <c r="E123" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F123" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G123" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="124" spans="5:7">
       <c r="E124" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F124" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G124" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="125" spans="5:7">
       <c r="E125" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F125" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G125" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126" spans="5:7">
       <c r="E126" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F126" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G126" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="5:7">
       <c r="E127" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F127" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G127" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="5:7">
       <c r="E128" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F128" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G128" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="129" spans="5:7">
       <c r="E129" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F129" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G129" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="130" spans="5:7">
       <c r="E130" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F130" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="5:7">
       <c r="E131" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F131" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G131" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="132" spans="5:7">
       <c r="E132" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F132" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G132" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="133" spans="5:7">
       <c r="E133" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F133" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G133" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="134" spans="5:7">
       <c r="E134" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F134" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G134" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="135" spans="5:7">
       <c r="E135" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F135" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G135" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="136" spans="5:7">
       <c r="E136" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F136" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G136" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="137" spans="5:7">
       <c r="E137" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F137" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G137" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="138" spans="5:7">
       <c r="E138" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F138" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G138" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="139" spans="5:7">
       <c r="E139" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F139" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G139" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="140" spans="5:7">
       <c r="E140" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F140" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G140" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="141" spans="5:7">
       <c r="E141" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F141" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G141" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="142" spans="5:7">
       <c r="E142" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F142" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G142" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="143" spans="5:7">
       <c r="E143" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F143" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G143" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="144" spans="5:7">
       <c r="E144" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F144" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G144" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F145" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G145" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F146" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G146" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="147" spans="5:7">
       <c r="E147" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F147" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G147" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="148" spans="5:7">
       <c r="E148" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F148" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G148" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="149" spans="5:7">
       <c r="E149" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F149" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G149" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F150" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G150" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F151" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G151" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F152" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G152" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F153" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G153" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F154" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G154" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F155" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G155" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F156" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G156" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F157" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G157" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F158" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G158" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F159" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G159" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F160" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G160" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="161" spans="5:7">
       <c r="E161" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F161" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G161" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="162" spans="5:7">
       <c r="E162" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F162" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G162" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="163" spans="5:7">
       <c r="E163" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F163" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G163" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="164" spans="5:7">
       <c r="E164" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F164" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G164" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="165" spans="5:7">
       <c r="E165" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F165" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G165" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="166" spans="5:7">
       <c r="E166" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F166" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G166" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="167" spans="5:7">
       <c r="E167" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F167" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G167" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="168" spans="5:7">
       <c r="E168" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F168" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G168" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="169" spans="5:7">
       <c r="E169" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F169" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G169" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="170" spans="5:7">
       <c r="E170" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F170" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G170" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="171" spans="5:7">
       <c r="E171" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F171" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G171" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="172" spans="5:7">
       <c r="E172" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F172" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G172" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="173" spans="5:7">
       <c r="E173" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F173" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G173" s="35" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -8029,66 +8038,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" t="s">
         <v>436</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>437</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>438</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>439</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>440</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>441</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>442</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>443</v>
-      </c>
-      <c r="O7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F8" t="s">
         <v>445</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>446</v>
-      </c>
-      <c r="G8" t="s">
-        <v>447</v>
       </c>
       <c r="H8" t="s">
         <v>78</v>
       </c>
       <c r="I8" t="s">
+        <v>447</v>
+      </c>
+      <c r="J8" t="s">
         <v>448</v>
       </c>
-      <c r="J8" t="s">
-        <v>449</v>
-      </c>
       <c r="K8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M8" t="s">
         <v>78</v>
@@ -8102,19 +8111,19 @@
     </row>
     <row r="9" spans="1:15">
       <c r="E9" t="s">
+        <v>449</v>
+      </c>
+      <c r="F9" t="s">
         <v>450</v>
       </c>
-      <c r="F9" t="s">
-        <v>451</v>
-      </c>
       <c r="G9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H9" t="s">
         <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M9" t="s">
         <v>76</v>
@@ -8128,25 +8137,25 @@
     </row>
     <row r="10" spans="1:15">
       <c r="E10" t="s">
+        <v>451</v>
+      </c>
+      <c r="F10" t="s">
         <v>452</v>
       </c>
-      <c r="F10" t="s">
-        <v>453</v>
-      </c>
       <c r="G10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H10" t="s">
         <v>78</v>
       </c>
       <c r="I10" t="s">
+        <v>453</v>
+      </c>
+      <c r="J10" t="s">
         <v>454</v>
       </c>
-      <c r="J10" t="s">
-        <v>455</v>
-      </c>
       <c r="K10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M10" t="s">
         <v>78</v>
@@ -8160,19 +8169,19 @@
     </row>
     <row r="11" spans="1:15">
       <c r="E11" t="s">
+        <v>455</v>
+      </c>
+      <c r="F11" t="s">
         <v>456</v>
       </c>
-      <c r="F11" t="s">
-        <v>457</v>
-      </c>
       <c r="G11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H11" t="s">
         <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M11" t="s">
         <v>78</v>
@@ -8186,25 +8195,25 @@
     </row>
     <row r="12" spans="1:15" s="5" customFormat="1">
       <c r="E12" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>459</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -8224,33 +8233,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
+        <v>460</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" t="s">
         <v>466</v>
-      </c>
-      <c r="I14" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -8261,15 +8270,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -8280,15 +8289,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -8299,15 +8308,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -8318,15 +8327,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -8337,15 +8346,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -8356,15 +8365,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -8375,15 +8384,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G22" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -8394,15 +8403,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G23" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -8413,15 +8422,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G24" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -8432,15 +8441,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G25" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -8451,15 +8460,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G26" t="str">
         <f>菜单SAAS版!E28</f>
@@ -8470,15 +8479,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G27" t="str">
         <f>菜单SAAS版!E17</f>
@@ -8489,7 +8498,7 @@
         <v>iam_label-21</v>
       </c>
       <c r="I27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -8541,10 +8550,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -8559,75 +8568,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
+        <v>473</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" t="s">
         <v>476</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>477</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>478</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>479</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>480</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>481</v>
-      </c>
-      <c r="T7" t="s">
-        <v>482</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
+        <v>482</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" t="s">
         <v>484</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>485</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="E8" t="s">
+        <v>486</v>
+      </c>
+      <c r="F8" t="s">
         <v>487</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>488</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>489</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>490</v>
       </c>
-      <c r="I8" t="s">
-        <v>491</v>
-      </c>
       <c r="J8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K8" t="s">
         <v>76</v>
@@ -8660,10 +8669,10 @@
         <v>76</v>
       </c>
       <c r="U8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="V8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="W8" t="s">
         <v>76</v>
@@ -8671,19 +8680,19 @@
     </row>
     <row r="9" spans="1:25">
       <c r="E9" t="s">
+        <v>491</v>
+      </c>
+      <c r="F9" t="s">
         <v>492</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>493</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>494</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>495</v>
-      </c>
-      <c r="I9" t="s">
-        <v>496</v>
       </c>
       <c r="J9" t="s">
         <v>75</v>
@@ -8719,10 +8728,10 @@
         <v>76</v>
       </c>
       <c r="U9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="V9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W9" t="s">
         <v>76</v>
@@ -8730,16 +8739,16 @@
     </row>
     <row r="10" spans="1:25">
       <c r="E10" t="s">
+        <v>496</v>
+      </c>
+      <c r="F10" t="s">
         <v>497</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>498</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>499</v>
-      </c>
-      <c r="H10" t="s">
-        <v>500</v>
       </c>
       <c r="J10" t="s">
         <v>75</v>
@@ -8776,33 +8785,33 @@
         <v>76</v>
       </c>
       <c r="U10" t="s">
+        <v>500</v>
+      </c>
+      <c r="V10" t="s">
         <v>501</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
+        <v>76</v>
+      </c>
+      <c r="X10" t="s">
         <v>502</v>
       </c>
-      <c r="W10" t="s">
-        <v>76</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>503</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="E11" t="s">
+        <v>504</v>
+      </c>
+      <c r="F11" t="s">
         <v>505</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>506</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>507</v>
-      </c>
-      <c r="H11" t="s">
-        <v>508</v>
       </c>
       <c r="J11" t="s">
         <v>75</v>
@@ -8839,33 +8848,33 @@
         <v>76</v>
       </c>
       <c r="U11" t="s">
+        <v>508</v>
+      </c>
+      <c r="V11" t="s">
         <v>509</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X11" t="s">
         <v>510</v>
       </c>
-      <c r="W11" t="s">
-        <v>76</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>511</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="E12" t="s">
+        <v>512</v>
+      </c>
+      <c r="F12" t="s">
         <v>513</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>514</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>515</v>
-      </c>
-      <c r="H12" t="s">
-        <v>516</v>
       </c>
       <c r="J12" t="s">
         <v>75</v>
@@ -8902,33 +8911,33 @@
         <v>76</v>
       </c>
       <c r="U12" t="s">
+        <v>516</v>
+      </c>
+      <c r="V12" t="s">
         <v>517</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
+        <v>76</v>
+      </c>
+      <c r="X12" t="s">
         <v>518</v>
       </c>
-      <c r="W12" t="s">
-        <v>76</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>519</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="E13" t="s">
+        <v>520</v>
+      </c>
+      <c r="F13" t="s">
         <v>521</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>522</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>523</v>
-      </c>
-      <c r="H13" t="s">
-        <v>524</v>
       </c>
       <c r="J13" t="s">
         <v>75</v>
@@ -8965,36 +8974,36 @@
         <v>76</v>
       </c>
       <c r="U13" t="s">
+        <v>524</v>
+      </c>
+      <c r="V13" t="s">
         <v>525</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
+        <v>76</v>
+      </c>
+      <c r="X13" t="s">
         <v>526</v>
       </c>
-      <c r="W13" t="s">
-        <v>76</v>
-      </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>527</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="E14" t="s">
+        <v>528</v>
+      </c>
+      <c r="F14" t="s">
         <v>529</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>529</v>
+      </c>
+      <c r="H14" t="s">
         <v>530</v>
       </c>
-      <c r="G14" t="s">
-        <v>530</v>
-      </c>
-      <c r="H14" t="s">
-        <v>531</v>
-      </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
         <v>76</v>
@@ -9028,10 +9037,10 @@
         <v>76</v>
       </c>
       <c r="U14" t="s">
+        <v>531</v>
+      </c>
+      <c r="V14" t="s">
         <v>532</v>
-      </c>
-      <c r="V14" t="s">
-        <v>533</v>
       </c>
       <c r="W14" t="s">
         <v>76</v>
@@ -9045,33 +9054,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
+        <v>533</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" t="s">
         <v>537</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>538</v>
       </c>
-      <c r="I16" t="s">
-        <v>539</v>
-      </c>
       <c r="J16" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -9082,18 +9091,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H17" t="s">
+        <v>540</v>
+      </c>
+      <c r="I17" t="s">
         <v>541</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>542</v>
-      </c>
-      <c r="J17" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -9104,18 +9113,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
+        <v>540</v>
+      </c>
+      <c r="I18" t="s">
         <v>541</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>542</v>
-      </c>
-      <c r="J18" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -9126,18 +9135,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
+        <v>540</v>
+      </c>
+      <c r="I19" t="s">
         <v>541</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>542</v>
-      </c>
-      <c r="J19" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -9148,18 +9157,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H20" t="s">
+        <v>540</v>
+      </c>
+      <c r="I20" t="s">
         <v>541</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>542</v>
-      </c>
-      <c r="J20" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -9170,18 +9179,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H21" t="s">
+        <v>540</v>
+      </c>
+      <c r="I21" t="s">
         <v>541</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>542</v>
-      </c>
-      <c r="J21" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -9192,18 +9201,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H22" t="s">
+        <v>540</v>
+      </c>
+      <c r="I22" t="s">
         <v>541</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>542</v>
-      </c>
-      <c r="J22" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -9214,18 +9223,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H23" t="s">
+        <v>540</v>
+      </c>
+      <c r="I23" t="s">
         <v>541</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>542</v>
-      </c>
-      <c r="J23" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -9236,18 +9245,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H24" t="s">
+        <v>540</v>
+      </c>
+      <c r="I24" t="s">
         <v>541</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>542</v>
-      </c>
-      <c r="J24" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -9258,18 +9267,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H25" t="s">
+        <v>540</v>
+      </c>
+      <c r="I25" t="s">
         <v>541</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>542</v>
-      </c>
-      <c r="J25" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -9280,18 +9289,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H26" t="s">
+        <v>540</v>
+      </c>
+      <c r="I26" t="s">
         <v>541</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>542</v>
-      </c>
-      <c r="J26" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -9302,18 +9311,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H27" t="s">
+        <v>540</v>
+      </c>
+      <c r="I27" t="s">
         <v>541</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>542</v>
-      </c>
-      <c r="J27" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -9324,18 +9333,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H28" t="s">
+        <v>540</v>
+      </c>
+      <c r="I28" t="s">
         <v>541</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>542</v>
-      </c>
-      <c r="J28" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -9346,18 +9355,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H29" t="s">
+        <v>540</v>
+      </c>
+      <c r="I29" t="s">
         <v>541</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>542</v>
-      </c>
-      <c r="J29" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$12</f>
@@ -9368,18 +9377,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H30" t="s">
+        <v>540</v>
+      </c>
+      <c r="I30" t="s">
         <v>541</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>542</v>
-      </c>
-      <c r="J30" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$12</f>
@@ -9390,18 +9399,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H31" t="s">
+        <v>540</v>
+      </c>
+      <c r="I31" t="s">
         <v>541</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>542</v>
-      </c>
-      <c r="J31" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$12</f>
@@ -9412,18 +9421,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H32" t="s">
+        <v>540</v>
+      </c>
+      <c r="I32" t="s">
         <v>541</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>542</v>
-      </c>
-      <c r="J32" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$12</f>
@@ -9434,18 +9443,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H33" t="s">
+        <v>540</v>
+      </c>
+      <c r="I33" t="s">
         <v>541</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>542</v>
-      </c>
-      <c r="J33" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$12</f>
@@ -9456,18 +9465,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H34" t="s">
+        <v>540</v>
+      </c>
+      <c r="I34" t="s">
         <v>541</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>542</v>
-      </c>
-      <c r="J34" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$13</f>
@@ -9478,18 +9487,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H35" t="s">
+        <v>540</v>
+      </c>
+      <c r="I35" t="s">
         <v>541</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>542</v>
-      </c>
-      <c r="J35" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$13</f>
@@ -9500,18 +9509,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
+        <v>540</v>
+      </c>
+      <c r="I36" t="s">
         <v>541</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>542</v>
-      </c>
-      <c r="J36" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$13</f>
@@ -9522,18 +9531,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H37" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I37" t="s">
+        <v>541</v>
+      </c>
+      <c r="J37" t="s">
         <v>542</v>
-      </c>
-      <c r="J37" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$13</f>
@@ -9544,18 +9553,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H38" t="s">
+        <v>540</v>
+      </c>
+      <c r="I38" t="s">
         <v>541</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>542</v>
-      </c>
-      <c r="J38" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$13</f>
@@ -9566,18 +9575,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H39" t="s">
+        <v>540</v>
+      </c>
+      <c r="I39" t="s">
         <v>541</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>542</v>
-      </c>
-      <c r="J39" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$13</f>
@@ -9588,13 +9597,13 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H40" t="s">
+        <v>540</v>
+      </c>
+      <c r="I40" t="s">
         <v>541</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>542</v>
-      </c>
-      <c r="J40" t="s">
-        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -9649,66 +9658,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" t="s">
         <v>436</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>437</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>438</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>439</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>440</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>441</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>442</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>443</v>
-      </c>
-      <c r="O7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
+        <v>568</v>
+      </c>
+      <c r="F8" t="s">
         <v>569</v>
       </c>
-      <c r="F8" t="s">
-        <v>570</v>
-      </c>
       <c r="G8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H8" t="s">
         <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M8" t="s">
         <v>76</v>
@@ -9722,25 +9731,25 @@
     </row>
     <row r="9" spans="1:15">
       <c r="E9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H9" t="s">
         <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J9" t="s">
+        <v>572</v>
+      </c>
+      <c r="K9" t="s">
         <v>573</v>
-      </c>
-      <c r="K9" t="s">
-        <v>574</v>
       </c>
       <c r="M9" t="s">
         <v>76</v>
@@ -9754,25 +9763,25 @@
     </row>
     <row r="10" spans="1:15">
       <c r="E10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H10" t="s">
         <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M10" t="s">
         <v>76</v>
@@ -9786,25 +9795,25 @@
     </row>
     <row r="11" spans="1:15">
       <c r="E11" t="s">
+        <v>576</v>
+      </c>
+      <c r="F11" t="s">
         <v>577</v>
       </c>
-      <c r="F11" t="s">
-        <v>578</v>
-      </c>
       <c r="G11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H11" t="s">
         <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J11" t="s">
+        <v>578</v>
+      </c>
+      <c r="K11" t="s">
         <v>579</v>
-      </c>
-      <c r="K11" t="s">
-        <v>580</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -9818,25 +9827,25 @@
     </row>
     <row r="12" spans="1:15">
       <c r="E12" t="s">
+        <v>580</v>
+      </c>
+      <c r="F12" t="s">
         <v>581</v>
       </c>
-      <c r="F12" t="s">
-        <v>582</v>
-      </c>
       <c r="G12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H12" t="s">
         <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M12" t="s">
         <v>76</v>
@@ -9850,25 +9859,25 @@
     </row>
     <row r="13" spans="1:15">
       <c r="E13" t="s">
+        <v>583</v>
+      </c>
+      <c r="F13" t="s">
         <v>584</v>
       </c>
-      <c r="F13" t="s">
-        <v>585</v>
-      </c>
       <c r="G13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H13" t="s">
         <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J13" t="s">
+        <v>585</v>
+      </c>
+      <c r="K13" t="s">
         <v>586</v>
-      </c>
-      <c r="K13" t="s">
-        <v>587</v>
       </c>
       <c r="M13" t="s">
         <v>76</v>
@@ -9882,25 +9891,25 @@
     </row>
     <row r="14" spans="1:15">
       <c r="E14" t="s">
+        <v>587</v>
+      </c>
+      <c r="F14" t="s">
         <v>588</v>
       </c>
-      <c r="F14" t="s">
-        <v>589</v>
-      </c>
       <c r="G14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H14" t="s">
         <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J14" t="s">
+        <v>589</v>
+      </c>
+      <c r="K14" t="s">
         <v>590</v>
-      </c>
-      <c r="K14" t="s">
-        <v>591</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -9914,25 +9923,25 @@
     </row>
     <row r="15" spans="1:15">
       <c r="E15" t="s">
+        <v>591</v>
+      </c>
+      <c r="F15" t="s">
         <v>592</v>
       </c>
-      <c r="F15" t="s">
-        <v>593</v>
-      </c>
       <c r="G15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H15" t="s">
         <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J15" t="s">
+        <v>593</v>
+      </c>
+      <c r="K15" t="s">
         <v>594</v>
-      </c>
-      <c r="K15" t="s">
-        <v>595</v>
       </c>
       <c r="M15" t="s">
         <v>76</v>
@@ -9946,25 +9955,25 @@
     </row>
     <row r="16" spans="1:15">
       <c r="E16" t="s">
+        <v>595</v>
+      </c>
+      <c r="F16" t="s">
         <v>596</v>
       </c>
-      <c r="F16" t="s">
-        <v>597</v>
-      </c>
       <c r="G16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H16" t="s">
         <v>78</v>
       </c>
       <c r="I16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J16" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M16" t="s">
         <v>76</v>
@@ -9978,25 +9987,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
+        <v>598</v>
+      </c>
+      <c r="F17" t="s">
         <v>599</v>
       </c>
-      <c r="F17" t="s">
-        <v>600</v>
-      </c>
       <c r="G17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H17" t="s">
         <v>78</v>
       </c>
       <c r="I17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M17" t="s">
         <v>76</v>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\prod-repo-service\src\main\resources\script\db\init-data\hrds_prod_repo\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="19485" windowHeight="8460" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,25 +15,24 @@
     <sheet name="角色标签数据" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">菜单SAAS版!$L$1:$L$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">菜单SAAS版!$L$1:$L$28</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="622">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -57,7 +51,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -70,7 +63,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -89,7 +81,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -108,7 +99,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -127,7 +117,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -159,7 +148,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -178,7 +166,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -197,7 +184,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -219,7 +205,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -240,7 +225,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -261,7 +245,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -282,7 +265,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -303,7 +285,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -315,7 +296,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -334,7 +314,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -346,7 +325,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -365,7 +343,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -384,7 +361,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -403,7 +379,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -422,7 +397,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -470,7 +444,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -489,7 +462,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -508,7 +480,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -527,7 +498,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -539,7 +509,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -558,7 +527,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -577,7 +545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -597,7 +564,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -616,7 +582,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -636,7 +601,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -655,7 +619,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -667,7 +630,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -686,7 +648,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -705,7 +666,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -729,7 +689,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -748,7 +707,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -767,7 +725,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -786,7 +743,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -805,7 +761,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -817,7 +772,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -836,7 +790,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -847,7 +800,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -868,7 +820,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -879,7 +830,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -898,7 +848,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -917,7 +866,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -941,7 +889,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -960,7 +907,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -980,7 +926,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -1000,7 +945,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1020,7 +964,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1041,7 +984,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1061,7 +1003,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1096,7 +1037,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1117,7 +1057,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1129,7 +1068,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1148,7 +1086,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1169,7 +1106,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1188,7 +1124,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1201,7 +1136,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1220,7 +1154,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1239,7 +1172,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1258,7 +1190,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1273,7 +1204,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1292,7 +1222,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1311,7 +1240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1330,7 +1258,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1349,7 +1276,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1365,7 +1291,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1375,7 +1300,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1394,7 +1318,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1410,7 +1333,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1420,7 +1342,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1439,7 +1360,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1454,7 +1374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1473,7 +1392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1492,7 +1410,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1512,7 +1429,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1536,7 +1452,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1555,7 +1470,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1574,7 +1488,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1594,7 +1507,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1615,7 +1527,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1626,7 +1537,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1636,7 +1546,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1648,7 +1557,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1667,7 +1575,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1686,7 +1593,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1705,7 +1611,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1725,7 +1630,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1744,7 +1648,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1763,7 +1666,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1783,7 +1685,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1802,7 +1703,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1821,7 +1721,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1840,7 +1739,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1860,7 +1758,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1872,7 +1769,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1883,7 +1779,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1893,7 +1788,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1905,7 +1799,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1924,7 +1817,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1936,7 +1828,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1955,7 +1846,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1975,7 +1865,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2075,6 +1964,18 @@
     <t>category</t>
   </si>
   <si>
+    <t>iam_menu-8</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager</t>
+  </si>
+  <si>
+    <t>管理</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
     <t>organization</t>
   </si>
   <si>
@@ -2105,66 +2006,66 @@
     <t>menu</t>
   </si>
   <si>
+    <t>settings_input_component-o</t>
+  </si>
+  <si>
+    <t>/rdupm/product-lib-org</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.product-lib</t>
+  </si>
+  <si>
+    <t>iam_menu-10</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.infra.product-lib.ps.default</t>
+  </si>
+  <si>
+    <t>默认权限集</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.product-lib|choerodon.code.organization.infra.product-lib.ps.default</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>iam_menu-11</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.infra.product-lib.ps.organization-admin-harbor</t>
+  </si>
+  <si>
+    <t>harbor-租户管理员权限集</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.product-lib|choerodon.code.organization.infra.product-lib.ps.organization-admin-harbor</t>
+  </si>
+  <si>
+    <t>iam_menu-12</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.infra.product-lib.ps.organization-admin-maven</t>
+  </si>
+  <si>
+    <t>maven-租户管理员权限集</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
-    <t>settings_input_component-o</t>
-  </si>
-  <si>
-    <t>/rdupm/product-lib-org</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.product-lib</t>
-  </si>
-  <si>
-    <t>iam_menu-10</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra.product-lib.ps.default</t>
-  </si>
-  <si>
-    <t>默认权限集</t>
-  </si>
-  <si>
-    <t>ps</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.product-lib|choerodon.code.organization.infra.product-lib.ps.default</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>iam_menu-11</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra.product-lib.ps.organization-admin-harbor</t>
-  </si>
-  <si>
-    <t>harbor-租户管理员权限集</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.product-lib|choerodon.code.organization.infra.product-lib.ps.organization-admin-harbor</t>
-  </si>
-  <si>
-    <t>iam_menu-12</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra.product-lib.ps.organization-admin-maven</t>
-  </si>
-  <si>
-    <t>maven-租户管理员权限集</t>
-  </si>
-  <si>
     <t>choerodon.code.organization.infra|choerodon.code.organization.infra.product-lib|choerodon.code.organization.infra.product-lib.ps.organization-admin-maven</t>
   </si>
   <si>
@@ -2189,6 +2090,9 @@
     <t>choerodon.code.person.setting</t>
   </si>
   <si>
+    <t>个人</t>
+  </si>
+  <si>
     <t>iam_menu-15</t>
   </si>
   <si>
@@ -2321,6 +2225,9 @@
     <t>iam_menu-26</t>
   </si>
   <si>
+    <t>choerodon.code.site.manager</t>
+  </si>
+  <si>
     <t>site</t>
   </si>
   <si>
@@ -3146,6 +3053,51 @@
     <t>prod-repo-service.nexus-repository-org.npmRepoName</t>
   </si>
   <si>
+    <t>iam_menu_permission-172</t>
+  </si>
+  <si>
+    <t>choerodon-iam.choerodon-prod.listProjectsByOrgId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-173</t>
+  </si>
+  <si>
+    <t>choerodon-iam.choerodon-prod.listProjectOwnerById</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-174</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-175</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-image.scannerAvailable</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-176</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-image.queryImageScanResultProject</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-177</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-image.scanImagesProject</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-178</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-image.queryImageScanResultTenant</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-179</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-image.scanImagesTenant</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -3551,15 +3503,15 @@
     <t>iam_role_permission-41</t>
   </si>
   <si>
+    <t>iam_label-10</t>
+  </si>
+  <si>
+    <t>TENANT_ROLE_TPL</t>
+  </si>
+  <si>
     <t>ROLE</t>
   </si>
   <si>
-    <t>iam_label-10</t>
-  </si>
-  <si>
-    <t>TENANT_ROLE_TPL</t>
-  </si>
-  <si>
     <t>标识内置模板角色</t>
   </si>
   <si>
@@ -3651,59 +3603,19 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager</t>
-  </si>
-  <si>
-    <t>管理</t>
-  </si>
-  <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.manager</t>
-  </si>
-  <si>
-    <t>iam_menu-8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>制品库管理</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon-iam.choerodon-prod.listProjectsByOrgId</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon-iam.choerodon-prod.listProjectOwnerById</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>iam_menu_permission-172</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-173</t>
-  </si>
-  <si>
-    <t>choerodon.code.person.setting</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3714,28 +3626,34 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -3778,6 +3696,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -3799,6 +3874,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -3806,14 +3888,18 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3822,43 +3908,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3889,8 +3940,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3991,10 +4228,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4006,6 +4485,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4013,32 +4496,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4048,38 +4543,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4152,9 +4678,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4412,272 +4935,275 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.2518518518519" style="12" customWidth="1"/>
+    <col min="3" max="3" width="28.162962962963" customWidth="1"/>
+    <col min="4" max="4" width="35.2518518518519" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
+    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="1025" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="19.162962962963" customWidth="1"/>
+    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
+    <col min="13" max="13" width="13.162962962963" customWidth="1"/>
+    <col min="14" max="1025" width="10.2518518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="11"/>
-      <c r="C1" s="37" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="36" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="39" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="13"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="17" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="20" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="52.2">
-      <c r="C9" s="23" t="s">
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
-      <c r="C10" s="26" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
-      <c r="C11" s="20" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="20" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
-      <c r="C15" s="28" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="31" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="31" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="31" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="31" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="32" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="36"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="21" t="s">
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="36"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.2">
-      <c r="C27" s="33" t="s">
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="40" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.74814814814815" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="62.25" customWidth="1"/>
+    <col min="5" max="5" width="17.5037037037037" customWidth="1"/>
+    <col min="6" max="6" width="62.2518518518519" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="16.08203125" customWidth="1"/>
-    <col min="10" max="10" width="15.25" customWidth="1"/>
-    <col min="11" max="11" width="19.5" customWidth="1"/>
-    <col min="15" max="15" width="38.08203125" customWidth="1"/>
-    <col min="16" max="16" width="29.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.0814814814815" customWidth="1"/>
+    <col min="10" max="10" width="15.2518518518519" customWidth="1"/>
+    <col min="11" max="11" width="19.5037037037037" customWidth="1"/>
+    <col min="15" max="15" width="38.0814814814815" customWidth="1"/>
+    <col min="16" max="16" width="29.162962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4691,7 +5217,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4779,1165 +5305,1168 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
-      <c r="E8" s="34" t="s">
-        <v>605</v>
+    <row r="8" spans="5:24">
+      <c r="E8" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>604</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>602</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>602</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>603</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" t="s">
         <v>76</v>
       </c>
-      <c r="L8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>76</v>
-      </c>
-      <c r="R8" t="s">
-        <v>76</v>
-      </c>
-      <c r="S8" t="s">
-        <v>604</v>
-      </c>
       <c r="T8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="5:24">
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" t="s">
         <v>79</v>
-      </c>
-      <c r="X8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="E9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" t="s">
-        <v>75</v>
       </c>
       <c r="K9" t="str">
         <f>菜单SAAS版!$E$8</f>
         <v>iam_menu-8</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M9">
         <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T9" t="s">
+        <v>80</v>
+      </c>
+      <c r="V9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="5:24">
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" t="s">
         <v>87</v>
       </c>
-      <c r="Q9" t="s">
-        <v>76</v>
-      </c>
-      <c r="R9" t="s">
-        <v>76</v>
-      </c>
-      <c r="S9" t="s">
-        <v>88</v>
-      </c>
-      <c r="T9" t="s">
-        <v>76</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="J10" t="s">
         <v>79</v>
-      </c>
-      <c r="X9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="E10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" t="s">
-        <v>75</v>
       </c>
       <c r="K10" t="str">
         <f>菜单SAAS版!$E$9</f>
         <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="T10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V10" t="s">
+        <v>83</v>
+      </c>
+      <c r="X10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="5:24">
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" t="s">
         <v>79</v>
-      </c>
-      <c r="X10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="E11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" t="s">
-        <v>75</v>
       </c>
       <c r="K11" t="str">
         <f>菜单SAAS版!$E$9</f>
         <v>iam_menu-9</v>
       </c>
       <c r="L11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="T11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V11" t="s">
+        <v>83</v>
+      </c>
+      <c r="X11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="5:24">
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" t="s">
         <v>79</v>
-      </c>
-      <c r="X11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="E12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" t="s">
-        <v>75</v>
       </c>
       <c r="K12" t="str">
         <f>菜单SAAS版!$E$9</f>
         <v>iam_menu-9</v>
       </c>
       <c r="L12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M12" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="T12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s">
+        <v>83</v>
+      </c>
+      <c r="X12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="5:24">
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" t="s">
         <v>79</v>
-      </c>
-      <c r="X12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="E13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I13" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" t="s">
-        <v>75</v>
       </c>
       <c r="K13" t="str">
         <f>菜单SAAS版!$E$9</f>
         <v>iam_menu-9</v>
       </c>
       <c r="L13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="T13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s">
+        <v>83</v>
+      </c>
+      <c r="X13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="5:24">
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" t="s">
         <v>79</v>
       </c>
-      <c r="X13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="E14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>611</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>612</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>613</v>
-      </c>
-      <c r="J14" t="s">
-        <v>75</v>
-      </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="T14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s">
+        <v>83</v>
+      </c>
+      <c r="X14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="5:24">
+      <c r="E15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" t="s">
         <v>79</v>
-      </c>
-      <c r="X14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="E15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" t="s">
-        <v>75</v>
       </c>
       <c r="K15" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="L15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O15" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="T15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s">
+        <v>83</v>
+      </c>
+      <c r="X15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="5:24">
+      <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" t="s">
         <v>79</v>
-      </c>
-      <c r="X15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="E16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" t="s">
-        <v>75</v>
       </c>
       <c r="K16" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="L16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="T16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="5:24">
       <c r="E17" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>606</v>
+        <v>128</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K17" t="str">
         <f>E28</f>
         <v>iam_menu-29</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M17">
         <v>70</v>
       </c>
       <c r="N17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="T17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="5:24">
       <c r="E18" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K18" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="T18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="5:24">
       <c r="E19" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H19" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K19" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="T19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="5:24">
       <c r="E20" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G20" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H20" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K20" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="T20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="5:24">
       <c r="E21" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H21" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K21" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M21" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="N21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O21" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q21" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R21" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="T21" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="5:24">
       <c r="E22" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G22" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H22" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K22" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L22" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M22" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q22" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R22" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T22" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="5:24">
       <c r="E23" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F23" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H23" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I23" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K23" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M23" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="N23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O23" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="T23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s">
+        <v>83</v>
+      </c>
+      <c r="X23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" ht="16.8" customHeight="1" spans="5:24">
+      <c r="E24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" t="s">
+        <v>158</v>
+      </c>
+      <c r="I24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" t="s">
         <v>79</v>
-      </c>
-      <c r="X23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="5:24" ht="16.8" customHeight="1">
-      <c r="E24" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" t="s">
-        <v>153</v>
-      </c>
-      <c r="I24" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" t="s">
-        <v>75</v>
       </c>
       <c r="K24" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L24" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M24" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="N24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O24" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="T24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="5:24">
       <c r="E25" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F25" t="s">
-        <v>601</v>
+        <v>162</v>
       </c>
       <c r="G25" t="s">
-        <v>602</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>602</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s">
-        <v>603</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M25">
         <v>10</v>
       </c>
       <c r="N25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s">
-        <v>601</v>
+        <v>162</v>
       </c>
       <c r="T25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="5:24">
       <c r="E26" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F26" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K26" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-26</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M26">
         <v>100</v>
       </c>
       <c r="N26" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O26" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="T26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X26" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="5:24">
       <c r="E27" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" t="s">
         <v>163</v>
-      </c>
-      <c r="G27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" t="s">
-        <v>83</v>
-      </c>
-      <c r="J27" t="s">
-        <v>157</v>
       </c>
       <c r="K27" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
       <c r="L27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M27" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q27" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R27" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="T27" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V27" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="5:24">
       <c r="E28" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F28" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G28" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H28" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="I28" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L28" t="s">
-        <v>77</v>
-      </c>
-      <c r="M28" s="8">
+        <v>81</v>
+      </c>
+      <c r="M28" s="10">
         <v>20</v>
       </c>
       <c r="N28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q28" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R28" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S28" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="T28" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L28"/>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <autoFilter ref="L1:L28">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
-    <sheetView topLeftCell="C97" workbookViewId="0">
-      <selection activeCell="F178" sqref="F178"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.74814814814815" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="31.162962962963" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5951,7 +6480,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5970,2042 +6499,2115 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G16" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G17" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G18" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G19" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G20" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G22" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G23" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G24" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G25" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G26" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G27" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G28" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G29" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G30" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G31" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G32" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G33" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G34" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G35" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G36" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G37" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G38" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G39" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G40" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G41" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G42" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G43" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G44" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G45" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G46" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G47" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G48" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G49" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G50" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G51" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F52" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G52" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G53" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G54" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F55" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G55" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G56" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G57" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G58" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G59" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G60" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F61" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G61" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G62" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G63" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G64" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G65" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G66" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G67" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G68" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G69" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G70" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G71" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G72" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G73" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G74" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G75" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G76" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G77" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G78" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G79" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G80" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G81" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G82" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G83" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G84" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G85" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G86" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G87" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G88" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G89" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G90" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G91" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G92" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G93" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G94" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G95" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G96" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G97" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G98" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G99" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G100" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G101" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G102" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G103" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G104" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G105" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G106" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G107" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G108" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G109" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G110" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F111" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G111" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F112" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G112" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F113" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G113" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F114" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G114" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="115" spans="5:7">
       <c r="E115" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F115" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G115" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F116" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G116" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F117" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G117" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118" spans="5:7">
       <c r="E118" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F118" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G118" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="119" spans="5:7">
       <c r="E119" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F119" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G119" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="120" spans="5:7">
       <c r="E120" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F120" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G120" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="121" spans="5:7">
       <c r="E121" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F121" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G121" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="122" spans="5:7">
       <c r="E122" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F122" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G122" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="123" spans="5:7">
       <c r="E123" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F123" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G123" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="124" spans="5:7">
       <c r="E124" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F124" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G124" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125" spans="5:7">
       <c r="E125" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F125" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G125" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="5:7">
       <c r="E126" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F126" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G126" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="5:7">
       <c r="E127" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F127" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G127" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="5:7">
       <c r="E128" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F128" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G128" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" spans="5:7">
       <c r="E129" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F129" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G129" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="130" spans="5:7">
       <c r="E130" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F130" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G130" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="131" spans="5:7">
       <c r="E131" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F131" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G131" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="132" spans="5:7">
       <c r="E132" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F132" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G132" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="133" spans="5:7">
       <c r="E133" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="F133" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G133" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="134" spans="5:7">
       <c r="E134" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F134" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G134" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="135" spans="5:7">
       <c r="E135" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F135" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G135" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="5:7">
       <c r="E136" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="F136" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G136" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="137" spans="5:7">
       <c r="E137" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F137" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G137" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="138" spans="5:7">
       <c r="E138" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F138" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G138" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="139" spans="5:7">
       <c r="E139" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F139" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G139" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="140" spans="5:7">
       <c r="E140" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="F140" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G140" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="141" spans="5:7">
       <c r="E141" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F141" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G141" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="142" spans="5:7">
       <c r="E142" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F142" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G142" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="143" spans="5:7">
       <c r="E143" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F143" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G143" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="144" spans="5:7">
       <c r="E144" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F144" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G144" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="F145" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G145" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F146" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G146" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="147" spans="5:7">
       <c r="E147" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="F147" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G147" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="148" spans="5:7">
       <c r="E148" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F148" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G148" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="149" spans="5:7">
       <c r="E149" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F149" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G149" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F150" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G150" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F151" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G151" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F152" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G152" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="F153" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G153" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F154" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G154" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F155" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G155" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F156" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G156" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F157" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G157" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="F158" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G158" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F159" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G159" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="F160" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G160" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="161" spans="5:7">
       <c r="E161" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F161" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G161" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="162" spans="5:7">
       <c r="E162" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F162" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G162" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="163" spans="5:7">
       <c r="E163" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F163" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G163" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="164" spans="5:7">
       <c r="E164" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F164" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G164" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="165" spans="5:7">
       <c r="E165" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F165" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G165" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="166" spans="5:7">
       <c r="E166" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F166" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G166" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="167" spans="5:7">
       <c r="E167" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F167" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G167" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="168" spans="5:7">
       <c r="E168" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F168" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G168" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="169" spans="5:7">
       <c r="E169" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F169" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G169" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="170" spans="5:7">
       <c r="E170" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F170" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G170" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="171" spans="5:7">
       <c r="E171" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="F171" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G171" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="172" spans="5:7">
       <c r="E172" t="s">
-        <v>609</v>
+        <v>438</v>
       </c>
       <c r="F172" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
-      <c r="G172" s="35" t="s">
-        <v>607</v>
+      <c r="G172" s="8" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="173" spans="5:7">
       <c r="E173" t="s">
-        <v>610</v>
+        <v>440</v>
       </c>
       <c r="F173" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
-      <c r="G173" s="35" t="s">
-        <v>608</v>
+      <c r="G173" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="174" spans="5:7">
+      <c r="E174" t="s">
+        <v>442</v>
+      </c>
+      <c r="F174" t="str">
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-23</v>
+      </c>
+      <c r="G174" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="175" spans="5:7">
+      <c r="E175" t="s">
+        <v>443</v>
+      </c>
+      <c r="F175" t="str">
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-23</v>
+      </c>
+      <c r="G175" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="176" spans="5:7">
+      <c r="E176" t="s">
+        <v>445</v>
+      </c>
+      <c r="F176" t="str">
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-23</v>
+      </c>
+      <c r="G176" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="177" spans="5:7">
+      <c r="E177" t="s">
+        <v>447</v>
+      </c>
+      <c r="F177" t="str">
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-23</v>
+      </c>
+      <c r="G177" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="178" spans="5:7">
+      <c r="E178" t="s">
+        <v>449</v>
+      </c>
+      <c r="F178" t="str">
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-23</v>
+      </c>
+      <c r="G178" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="179" spans="5:7">
+      <c r="E179" t="s">
+        <v>451</v>
+      </c>
+      <c r="F179" t="str">
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-23</v>
+      </c>
+      <c r="G179" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.74814814814815" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="23.25" customWidth="1"/>
-    <col min="7" max="7" width="27.75" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="15.9140625" customWidth="1"/>
-    <col min="10" max="10" width="24.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.9140625" customWidth="1"/>
-    <col min="12" max="12" width="18.9140625" customWidth="1"/>
-    <col min="13" max="13" width="15.08203125" customWidth="1"/>
-    <col min="14" max="14" width="19.58203125" customWidth="1"/>
+    <col min="5" max="5" width="13.7481481481481" customWidth="1"/>
+    <col min="6" max="6" width="23.2518518518519" customWidth="1"/>
+    <col min="7" max="7" width="27.7481481481481" customWidth="1"/>
+    <col min="8" max="8" width="14.7481481481481" customWidth="1"/>
+    <col min="9" max="9" width="15.9111111111111" customWidth="1"/>
+    <col min="10" max="10" width="24.8296296296296" customWidth="1"/>
+    <col min="11" max="11" width="16.9111111111111" customWidth="1"/>
+    <col min="12" max="12" width="18.9111111111111" customWidth="1"/>
+    <col min="13" max="13" width="15.0814814814815" customWidth="1"/>
+    <col min="14" max="14" width="19.5851851851852" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -8019,7 +8621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -8038,182 +8640,182 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="H7" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="I7" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="J7" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="K7" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="L7" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="M7" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="N7" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="O7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="F8" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="G8" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="J8" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="K8" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="F9" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="G9" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="F10" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="G10" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="J10" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="K10" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="F11" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="G11" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="M11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="5" customFormat="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="18" spans="5:15">
       <c r="E12" s="5" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -8225,7 +8827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -8233,33 +8835,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="I14" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
       <c r="E15" t="s">
+        <v>488</v>
+      </c>
+      <c r="F15" t="s">
         <v>467</v>
-      </c>
-      <c r="F15" t="s">
-        <v>446</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -8270,15 +8872,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I15" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
       <c r="E16" t="s">
+        <v>488</v>
+      </c>
+      <c r="F16" t="s">
         <v>467</v>
-      </c>
-      <c r="F16" t="s">
-        <v>446</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -8289,15 +8891,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
+        <v>488</v>
+      </c>
+      <c r="F17" t="s">
         <v>467</v>
-      </c>
-      <c r="F17" t="s">
-        <v>446</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -8308,15 +8910,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
+        <v>488</v>
+      </c>
+      <c r="F18" t="s">
         <v>467</v>
-      </c>
-      <c r="F18" t="s">
-        <v>446</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -8327,15 +8929,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
+        <v>488</v>
+      </c>
+      <c r="F19" t="s">
         <v>467</v>
-      </c>
-      <c r="F19" t="s">
-        <v>446</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -8346,15 +8948,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I19" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
+        <v>488</v>
+      </c>
+      <c r="F20" t="s">
         <v>467</v>
-      </c>
-      <c r="F20" t="s">
-        <v>446</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -8365,15 +8967,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I20" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
+        <v>488</v>
+      </c>
+      <c r="F21" t="s">
         <v>467</v>
-      </c>
-      <c r="F21" t="s">
-        <v>446</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -8384,15 +8986,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I21" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
+        <v>488</v>
+      </c>
+      <c r="F22" t="s">
         <v>467</v>
-      </c>
-      <c r="F22" t="s">
-        <v>446</v>
       </c>
       <c r="G22" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -8403,15 +9005,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
+        <v>488</v>
+      </c>
+      <c r="F23" t="s">
         <v>467</v>
-      </c>
-      <c r="F23" t="s">
-        <v>446</v>
       </c>
       <c r="G23" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -8422,15 +9024,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I23" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
+        <v>488</v>
+      </c>
+      <c r="F24" t="s">
         <v>467</v>
-      </c>
-      <c r="F24" t="s">
-        <v>446</v>
       </c>
       <c r="G24" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -8441,15 +9043,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I24" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
+        <v>488</v>
+      </c>
+      <c r="F25" t="s">
         <v>467</v>
-      </c>
-      <c r="F25" t="s">
-        <v>446</v>
       </c>
       <c r="G25" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -8460,15 +9062,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I25" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
+        <v>488</v>
+      </c>
+      <c r="F26" t="s">
         <v>467</v>
-      </c>
-      <c r="F26" t="s">
-        <v>446</v>
       </c>
       <c r="G26" t="str">
         <f>菜单SAAS版!E28</f>
@@ -8479,15 +9081,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I26" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
+        <v>488</v>
+      </c>
+      <c r="F27" t="s">
         <v>467</v>
-      </c>
-      <c r="F27" t="s">
-        <v>446</v>
       </c>
       <c r="G27" t="str">
         <f>菜单SAAS版!E17</f>
@@ -8498,26 +9100,27 @@
         <v>iam_label-21</v>
       </c>
       <c r="I27" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.74814814814815" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -8531,7 +9134,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -8550,10 +9153,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -8568,485 +9171,485 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="J7" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="O7" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="P7" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="Q7" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="R7" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="S7" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="T7" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="X7" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="Y7" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="F8" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="G8" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="H8" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="I8" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="J8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="V8" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="W8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="F9" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="G9" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="H9" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="I9" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="V9" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="W9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="F10" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="G10" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="H10" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M10" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="V10" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="W10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="Y10" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="F11" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="G11" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="H11" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M11" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="V11" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="W11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="Y11" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="F12" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="G12" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="H12" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M12" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="V12" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="W12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="Y12" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="F13" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="G13" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="H13" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M13" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="V13" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="W13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="Y13" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="F14" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="G14" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="H14" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="J14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M14" t="str">
         <f>角色!$E$8</f>
         <v>iam_role-8</v>
       </c>
       <c r="N14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="R14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="V14" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="W14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -9054,33 +9657,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="H16" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="I16" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -9091,18 +9694,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H17" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I17" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J17" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -9113,18 +9716,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I18" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J18" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -9135,18 +9738,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I19" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J19" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -9157,18 +9760,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H20" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I20" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J20" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -9179,18 +9782,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H21" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I21" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J21" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -9201,18 +9804,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H22" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I22" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J22" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -9223,18 +9826,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H23" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I23" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J23" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -9245,18 +9848,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H24" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I24" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J24" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -9267,18 +9870,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H25" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I25" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J25" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -9289,18 +9892,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H26" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I26" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J26" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -9311,18 +9914,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H27" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I27" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J27" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -9333,18 +9936,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H28" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I28" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J28" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -9355,18 +9958,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H29" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I29" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J29" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$12</f>
@@ -9377,18 +9980,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H30" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I30" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J30" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$12</f>
@@ -9399,18 +10002,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H31" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I31" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J31" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$12</f>
@@ -9421,18 +10024,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H32" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I32" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J32" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$12</f>
@@ -9443,18 +10046,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H33" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I33" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J33" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$12</f>
@@ -9465,18 +10068,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H34" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I34" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J34" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$13</f>
@@ -9487,18 +10090,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H35" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I35" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J35" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$13</f>
@@ -9509,18 +10112,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I36" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J36" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$13</f>
@@ -9531,18 +10134,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H37" t="s">
+        <v>584</v>
+      </c>
+      <c r="I37" t="s">
+        <v>562</v>
+      </c>
+      <c r="J37" t="s">
         <v>563</v>
-      </c>
-      <c r="I37" t="s">
-        <v>541</v>
-      </c>
-      <c r="J37" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$13</f>
@@ -9553,18 +10156,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H38" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I38" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J38" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$13</f>
@@ -9575,18 +10178,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H39" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I39" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J39" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$13</f>
@@ -9597,35 +10200,36 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H40" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="I40" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="J40" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.74814814814815" defaultRowHeight="17.25"/>
   <cols>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9639,7 +10243,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -9658,368 +10262,368 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="H7" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="I7" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="J7" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="K7" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="L7" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="M7" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="N7" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="O7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="F8" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="G8" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="J8" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="K8" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="F9" t="s">
-        <v>571</v>
+        <v>592</v>
       </c>
       <c r="G9" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="J9" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
       <c r="K9" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="F10" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="G10" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="J10" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="K10" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
       <c r="F11" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="G11" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="J11" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="K11" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="F12" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="G12" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="J12" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="K12" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="F13" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="G13" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="J13" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
       <c r="K13" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="F14" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="G14" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="J14" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="K14" t="s">
+        <v>611</v>
+      </c>
+      <c r="M14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15">
+      <c r="E15" t="s">
+        <v>612</v>
+      </c>
+      <c r="F15" t="s">
+        <v>613</v>
+      </c>
+      <c r="G15" t="s">
         <v>590</v>
       </c>
-      <c r="M14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N14" t="s">
-        <v>78</v>
-      </c>
-      <c r="O14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="E15" t="s">
-        <v>591</v>
-      </c>
-      <c r="F15" t="s">
-        <v>592</v>
-      </c>
-      <c r="G15" t="s">
-        <v>567</v>
-      </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="J15" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="K15" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="F16" t="s">
-        <v>596</v>
+        <v>617</v>
       </c>
       <c r="G16" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="J16" t="s">
-        <v>597</v>
+        <v>618</v>
       </c>
       <c r="K16" t="s">
-        <v>596</v>
+        <v>617</v>
       </c>
       <c r="M16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="F17" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="G17" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="J17" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="K17" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="M17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="626">
   <si>
     <r>
       <rPr>
@@ -3096,6 +3096,18 @@
   </si>
   <si>
     <t>prod-repo-service.harbor-image.scanImagesTenant</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-180</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-image.queryImageScanDetailTenant</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-181</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-image.queryImageScanDetailProject</t>
   </si>
   <si>
     <t>标签表</t>
@@ -3610,12 +3622,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3648,12 +3660,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -3697,14 +3703,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3718,15 +3724,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3739,31 +3759,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3793,14 +3799,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -3825,13 +3823,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3847,10 +3839,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3874,13 +3874,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -3893,12 +3886,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3942,49 +3929,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4002,25 +3971,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4032,25 +4025,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4062,13 +4037,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4086,19 +4067,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4110,19 +4091,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4244,6 +4231,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4309,15 +4305,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -4329,153 +4316,153 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4484,11 +4471,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4496,10 +4482,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4510,30 +4496,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4546,7 +4532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4949,8 +4935,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.2518518518519" style="12" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.2518518518519" style="11" customWidth="1"/>
     <col min="3" max="3" width="28.162962962963" customWidth="1"/>
     <col min="4" max="4" width="35.2518518518519" style="7" customWidth="1"/>
     <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
@@ -4966,79 +4952,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="16"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -5046,56 +5032,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5105,30 +5091,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -5136,7 +5122,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -5144,25 +5130,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5187,8 +5173,8 @@
   <sheetPr/>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.74814814814815" defaultRowHeight="17.25"/>
@@ -5306,7 +5292,7 @@
       </c>
     </row>
     <row r="8" spans="5:24">
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>75</v>
       </c>
       <c r="F8" t="s">
@@ -5635,13 +5621,13 @@
       <c r="E14" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>117</v>
       </c>
       <c r="J14" t="s">
@@ -5796,7 +5782,7 @@
       <c r="F17" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H17" t="s">
@@ -6416,7 +6402,7 @@
       <c r="L28" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="9">
         <v>20</v>
       </c>
       <c r="N28" t="s">
@@ -6453,10 +6439,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G179"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="E182" sqref="E182"/>
+    <sheetView tabSelected="1" topLeftCell="D133" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.74814814814815" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -8490,7 +8476,7 @@
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
-      <c r="G172" s="8" t="s">
+      <c r="G172" s="7" t="s">
         <v>439</v>
       </c>
     </row>
@@ -8502,7 +8488,7 @@
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
-      <c r="G173" s="8" t="s">
+      <c r="G173" s="7" t="s">
         <v>441</v>
       </c>
     </row>
@@ -8576,6 +8562,30 @@
       </c>
       <c r="G179" t="s">
         <v>452</v>
+      </c>
+    </row>
+    <row r="180" spans="5:7">
+      <c r="E180" t="s">
+        <v>453</v>
+      </c>
+      <c r="F180" t="str">
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-23</v>
+      </c>
+      <c r="G180" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="181" spans="5:7">
+      <c r="E181" t="s">
+        <v>455</v>
+      </c>
+      <c r="F181" t="str">
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-23</v>
+      </c>
+      <c r="G181" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -8640,66 +8650,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="I7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="J7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="N7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="O7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F8" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G8" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J8" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="K8" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -8713,19 +8723,19 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F9" t="s">
+        <v>475</v>
+      </c>
+      <c r="G9" t="s">
         <v>471</v>
-      </c>
-      <c r="G9" t="s">
-        <v>467</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -8739,25 +8749,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F10" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G10" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="J10" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K10" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -8771,19 +8781,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="F11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="G11" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="M11" t="s">
         <v>82</v>
@@ -8797,25 +8807,25 @@
     </row>
     <row r="12" s="5" customFormat="1" ht="18" spans="5:15">
       <c r="E12" s="5" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -8835,33 +8845,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="I14" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F15" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -8872,15 +8882,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I15" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F16" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -8891,15 +8901,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F17" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -8910,15 +8920,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F18" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -8929,15 +8939,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F19" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -8948,15 +8958,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I19" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F20" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -8967,15 +8977,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I20" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F21" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -8986,15 +8996,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I21" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F22" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G22" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -9005,15 +9015,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F23" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G23" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -9024,15 +9034,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I23" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F24" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G24" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -9043,15 +9053,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I24" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F25" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G25" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -9062,15 +9072,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I25" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F26" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G26" t="str">
         <f>菜单SAAS版!E28</f>
@@ -9081,15 +9091,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I26" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F27" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G27" t="str">
         <f>菜单SAAS版!E17</f>
@@ -9100,7 +9110,7 @@
         <v>iam_label-21</v>
       </c>
       <c r="I27" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -9153,10 +9163,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -9171,72 +9181,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="J7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="O7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="P7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="Q7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="R7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="S7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="T7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="X7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="Y7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F8" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G8" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H8" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="I8" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="J8" t="s">
         <v>163</v>
@@ -9272,10 +9282,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="V8" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -9283,19 +9293,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="F9" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="G9" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="H9" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="I9" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -9331,10 +9341,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="V9" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -9342,16 +9352,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="F10" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G10" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H10" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -9388,33 +9398,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="V10" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="Y10" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="F11" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G11" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="H11" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -9451,33 +9461,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="V11" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="Y11" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="F12" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G12" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H12" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -9514,33 +9524,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="V12" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="Y12" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F13" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="G13" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H13" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -9577,33 +9587,33 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="V13" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Y13" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F14" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G14" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H14" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="J14" t="s">
         <v>163</v>
@@ -9640,10 +9650,10 @@
         <v>80</v>
       </c>
       <c r="U14" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="V14" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="W14" t="s">
         <v>80</v>
@@ -9657,33 +9667,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H16" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="I16" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -9694,18 +9704,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H17" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I17" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J17" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -9716,18 +9726,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I18" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J18" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -9738,18 +9748,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I19" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J19" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -9760,18 +9770,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H20" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I20" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J20" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -9782,18 +9792,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H21" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I21" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J21" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -9804,18 +9814,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H22" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I22" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J22" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -9826,18 +9836,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H23" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I23" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J23" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -9848,18 +9858,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H24" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I24" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J24" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -9870,18 +9880,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H25" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I25" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J25" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -9892,18 +9902,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H26" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I26" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J26" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -9914,18 +9924,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H27" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I27" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J27" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -9936,18 +9946,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H28" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I28" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J28" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -9958,18 +9968,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H29" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I29" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J29" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$12</f>
@@ -9980,18 +9990,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H30" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I30" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J30" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$12</f>
@@ -10002,18 +10012,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H31" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I31" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J31" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$12</f>
@@ -10024,18 +10034,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H32" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I32" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J32" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$12</f>
@@ -10046,18 +10056,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H33" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I33" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J33" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$12</f>
@@ -10068,18 +10078,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H34" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I34" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J34" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$13</f>
@@ -10090,18 +10100,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H35" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I35" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J35" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$13</f>
@@ -10112,18 +10122,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I36" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J36" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$13</f>
@@ -10134,18 +10144,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H37" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="I37" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J37" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$13</f>
@@ -10156,18 +10166,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H38" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I38" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J38" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$13</f>
@@ -10178,18 +10188,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H39" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I39" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J39" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$13</f>
@@ -10200,13 +10210,13 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H40" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I40" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J40" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -10262,66 +10272,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="I7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="J7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="N7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="O7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="F8" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="G8" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J8" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="K8" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -10335,25 +10345,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F9" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="G9" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J9" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="K9" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -10367,25 +10377,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F10" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="G10" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J10" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="K10" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -10399,25 +10409,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F11" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="G11" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J11" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="K11" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -10431,25 +10441,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F12" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="G12" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J12" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="K12" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -10463,25 +10473,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F13" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="G13" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J13" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="K13" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -10495,25 +10505,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="F14" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="G14" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J14" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="K14" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -10527,25 +10537,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="F15" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="G15" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J15" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="K15" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -10559,25 +10569,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="F16" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="G16" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J16" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="K16" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -10591,25 +10601,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="F17" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="G17" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J17" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="K17" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="8460" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="菜单标签数据" sheetId="4" r:id="rId4"/>
     <sheet name="角色" sheetId="5" r:id="rId5"/>
     <sheet name="角色标签数据" sheetId="6" r:id="rId6"/>
+    <sheet name="用户指引" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">菜单SAAS版!$L$1:$L$28</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="675">
   <si>
     <r>
       <rPr>
@@ -3615,6 +3616,153 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
+  </si>
+  <si>
+    <t>2020-06-05</t>
+  </si>
+  <si>
+    <t>用户指引表</t>
+  </si>
+  <si>
+    <t>fd_user_guide</t>
+  </si>
+  <si>
+    <t>*ID</t>
+  </si>
+  <si>
+    <t>#CODE</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>fd_user_guide-1</t>
+  </si>
+  <si>
+    <t>PROD-MANAGER</t>
+  </si>
+  <si>
+    <t>如何使用制品库管理？</t>
+  </si>
+  <si>
+    <t>用户指引菜单关系表</t>
+  </si>
+  <si>
+    <t>fd_user_guide_menu_rel</t>
+  </si>
+  <si>
+    <t>#MENU_ID</t>
+  </si>
+  <si>
+    <t>USER_GUIDE_ID</t>
+  </si>
+  <si>
+    <t>fd_user_guide_menu_rel-1</t>
+  </si>
+  <si>
+    <t>用户指引步骤表</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step</t>
+  </si>
+  <si>
+    <t>#STEP_CODE</t>
+  </si>
+  <si>
+    <t>STEP_NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>DOC_URL</t>
+  </si>
+  <si>
+    <t>PAGE_URL</t>
+  </si>
+  <si>
+    <t>PERMISSION_ID</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step-1</t>
+  </si>
+  <si>
+    <t>CREATE-MAVEN</t>
+  </si>
+  <si>
+    <t>创建一个Maven仓库</t>
+  </si>
+  <si>
+    <t>Maven仓库创建成功后，就能往里面推送jar包</t>
+  </si>
+  <si>
+    <t>/test</t>
+  </si>
+  <si>
+    <t>/rdupm/product-lib?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;organizationId=${organizationId}</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step-2</t>
+  </si>
+  <si>
+    <t>CREATE-DOCKER</t>
+  </si>
+  <si>
+    <t>创建一个Docker仓库</t>
+  </si>
+  <si>
+    <t>Docker仓库创建成功后，就能往里面上传镜像</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step-3</t>
+  </si>
+  <si>
+    <t>CREATE-NPM</t>
+  </si>
+  <si>
+    <t>创建一个NPM仓库</t>
+  </si>
+  <si>
+    <t>Npm仓库创建成功后，就能往里面上传npm包</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step-4</t>
+  </si>
+  <si>
+    <t>REPO-PERMISSION</t>
+  </si>
+  <si>
+    <t>仓库权限管理</t>
+  </si>
+  <si>
+    <t>可以为各个仓库控制成员的权限</t>
+  </si>
+  <si>
+    <t>用户指引步骤关系表</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step_rel</t>
+  </si>
+  <si>
+    <t>#USER_GUIDE_ID</t>
+  </si>
+  <si>
+    <t>#STEP_ID</t>
+  </si>
+  <si>
+    <t>STEP_ORDER</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step_rel-1</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step_rel-2</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step_rel-3</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step_rel-4</t>
   </si>
 </sst>
 </file>
@@ -3624,10 +3772,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3656,6 +3804,23 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3703,9 +3868,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3713,6 +3885,13 @@
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3730,38 +3909,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3769,7 +3926,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3791,19 +3964,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3812,14 +3984,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3839,15 +4003,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3929,13 +4094,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3947,43 +4124,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3995,25 +4142,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4025,13 +4178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4049,7 +4196,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4061,55 +4238,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4231,26 +4396,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4274,31 +4439,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4313,168 +4454,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4482,44 +4651,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4532,7 +4701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4677,7 +4846,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4933,155 +5102,155 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.2518518518519" style="11" customWidth="1"/>
-    <col min="3" max="3" width="28.162962962963" customWidth="1"/>
-    <col min="4" max="4" width="35.2518518518519" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="28.1597222222222" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.162962962963" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.162962962963" customWidth="1"/>
-    <col min="14" max="1025" width="10.2518518518519" customWidth="1"/>
+    <col min="11" max="11" width="19.1597222222222" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.1597222222222" customWidth="1"/>
+    <col min="14" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="15"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="19"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="18" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="16"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="22" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="28" t="s">
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="31" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="25" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="33" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="39" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5091,64 +5260,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="37" t="s">
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="37" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="37" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="37" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="39" t="s">
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="43" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5173,20 +5342,20 @@
   <sheetPr/>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
+    <sheetView topLeftCell="D6" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.74814814814815" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="17.5037037037037" customWidth="1"/>
-    <col min="6" max="6" width="62.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="17.5069444444444" customWidth="1"/>
+    <col min="6" max="6" width="62.25" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="16.0814814814815" customWidth="1"/>
-    <col min="10" max="10" width="15.2518518518519" customWidth="1"/>
-    <col min="11" max="11" width="19.5037037037037" customWidth="1"/>
-    <col min="15" max="15" width="38.0814814814815" customWidth="1"/>
-    <col min="16" max="16" width="29.162962962963" customWidth="1"/>
+    <col min="8" max="8" width="16.0833333333333" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="19.5069444444444" customWidth="1"/>
+    <col min="15" max="15" width="38.0833333333333" customWidth="1"/>
+    <col min="16" max="16" width="29.1597222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5292,7 +5461,7 @@
       </c>
     </row>
     <row r="8" spans="5:24">
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="12" t="s">
         <v>75</v>
       </c>
       <c r="F8" t="s">
@@ -5621,13 +5790,13 @@
       <c r="E14" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="9" t="s">
         <v>117</v>
       </c>
       <c r="J14" t="s">
@@ -5782,7 +5951,7 @@
       <c r="F17" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="9" t="s">
         <v>86</v>
       </c>
       <c r="H17" t="s">
@@ -6402,7 +6571,7 @@
       <c r="L28" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="13">
         <v>20</v>
       </c>
       <c r="N28" t="s">
@@ -6441,13 +6610,13 @@
   <sheetPr/>
   <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D133" workbookViewId="0">
+    <sheetView topLeftCell="D133" workbookViewId="0">
       <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.74814814814815" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.4" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="31.162962962963" customWidth="1"/>
+    <col min="5" max="5" width="31.1597222222222" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
@@ -6508,7 +6677,7 @@
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6520,7 +6689,7 @@
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="9" t="s">
         <v>182</v>
       </c>
     </row>
@@ -8476,7 +8645,7 @@
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
-      <c r="G172" s="7" t="s">
+      <c r="G172" s="9" t="s">
         <v>439</v>
       </c>
     </row>
@@ -8488,7 +8657,7 @@
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
-      <c r="G173" s="7" t="s">
+      <c r="G173" s="9" t="s">
         <v>441</v>
       </c>
     </row>
@@ -8603,18 +8772,18 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.74814814814815" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="13.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="23.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="27.7481481481481" customWidth="1"/>
-    <col min="8" max="8" width="14.7481481481481" customWidth="1"/>
-    <col min="9" max="9" width="15.9111111111111" customWidth="1"/>
-    <col min="10" max="10" width="24.8296296296296" customWidth="1"/>
-    <col min="11" max="11" width="16.9111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.9111111111111" customWidth="1"/>
-    <col min="13" max="13" width="15.0814814814815" customWidth="1"/>
-    <col min="14" max="14" width="19.5851851851852" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="27.75" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="15.9097222222222" customWidth="1"/>
+    <col min="10" max="10" width="24.8263888888889" customWidth="1"/>
+    <col min="11" max="11" width="16.9097222222222" customWidth="1"/>
+    <col min="12" max="12" width="18.9097222222222" customWidth="1"/>
+    <col min="13" max="13" width="15.0833333333333" customWidth="1"/>
+    <col min="14" max="14" width="19.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8805,35 +8974,35 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" ht="18" spans="5:15">
-      <c r="E12" s="5" t="s">
+    <row r="12" s="10" customFormat="1" spans="5:15">
+      <c r="E12" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="10">
         <v>1</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="10">
         <v>0</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="10">
         <v>1</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="10">
         <v>1</v>
       </c>
     </row>
@@ -9128,7 +9297,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.74814814814815" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -10234,9 +10403,9 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.74814814814815" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.4"/>
   <cols>
-    <col min="6" max="6" width="14.5037037037037" customWidth="1"/>
+    <col min="6" max="6" width="14.5069444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10636,4 +10805,399 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <cols>
+    <col min="3" max="3" width="18.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="23.4166666666667" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="20.4166666666667" customWidth="1"/>
+    <col min="8" max="8" width="25.0833333333333" customWidth="1"/>
+    <col min="9" max="9" width="23.75" customWidth="1"/>
+    <col min="10" max="10" width="41.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1"/>
+    <row r="3" customFormat="1"/>
+    <row r="4" customFormat="1" spans="5:7">
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1" spans="1:8">
+      <c r="A7" t="s">
+        <v>626</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>627</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="1" spans="4:7">
+      <c r="D8" s="1"/>
+      <c r="E8" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="F8" t="s">
+        <v>633</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="4:7">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" customFormat="1" spans="4:7">
+      <c r="D10" s="1"/>
+      <c r="E10" s="6"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" customFormat="1" spans="4:7">
+      <c r="D11" s="1"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" customFormat="1" spans="4:4">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:7">
+      <c r="A13" t="s">
+        <v>626</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>635</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="4:8">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F14" s="5" t="str">
+        <f>菜单SAAS版!E17</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="G14" s="5" t="str">
+        <f>E8</f>
+        <v>fd_user_guide-1</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" customFormat="1" spans="4:8">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" customFormat="1" spans="4:8">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" customFormat="1" spans="4:8">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1" spans="1:11">
+      <c r="A19" t="s">
+        <v>626</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>640</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="H19" t="s">
+        <v>644</v>
+      </c>
+      <c r="I19" t="s">
+        <v>645</v>
+      </c>
+      <c r="J19" t="s">
+        <v>646</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="5:11">
+      <c r="E20" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="I20" t="s">
+        <v>652</v>
+      </c>
+      <c r="J20" t="s">
+        <v>653</v>
+      </c>
+      <c r="K20" t="str">
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="5:11">
+      <c r="E21" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="I21" t="s">
+        <v>652</v>
+      </c>
+      <c r="J21" t="s">
+        <v>653</v>
+      </c>
+      <c r="K21" t="str">
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="5:11">
+      <c r="E22" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="F22" t="s">
+        <v>659</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="I22" t="s">
+        <v>652</v>
+      </c>
+      <c r="J22" t="s">
+        <v>653</v>
+      </c>
+      <c r="K22" t="str">
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-19</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="5:11">
+      <c r="E23" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="F23" t="s">
+        <v>663</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="I23" t="s">
+        <v>652</v>
+      </c>
+      <c r="J23" t="s">
+        <v>653</v>
+      </c>
+      <c r="K23" t="str">
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-19</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="7:7">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1" spans="1:8">
+      <c r="A26" t="s">
+        <v>626</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>666</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="H26" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="5:8">
+      <c r="E27" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="F27" t="str">
+        <f>E8</f>
+        <v>fd_user_guide-1</v>
+      </c>
+      <c r="G27" t="str">
+        <f>E20</f>
+        <v>fd_user_guide_step-1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="5:8">
+      <c r="E28" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="F28" t="str">
+        <f>E8</f>
+        <v>fd_user_guide-1</v>
+      </c>
+      <c r="G28" t="str">
+        <f>E21</f>
+        <v>fd_user_guide_step-2</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="5:8">
+      <c r="E29" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="F29" t="str">
+        <f>E8</f>
+        <v>fd_user_guide-1</v>
+      </c>
+      <c r="G29" t="str">
+        <f>E22</f>
+        <v>fd_user_guide_step-3</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8">
+      <c r="E30" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="F30" t="str">
+        <f>E8</f>
+        <v>fd_user_guide-1</v>
+      </c>
+      <c r="G30" t="str">
+        <f>E23</f>
+        <v>fd_user_guide_step-4</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="6"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="角色" sheetId="5" r:id="rId5"/>
     <sheet name="角色标签数据" sheetId="6" r:id="rId6"/>
     <sheet name="用户指引" sheetId="7" r:id="rId7"/>
+    <sheet name="帮助文档" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">菜单SAAS版!$L$1:$L$28</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="683">
   <si>
     <r>
       <rPr>
@@ -3763,6 +3764,30 @@
   </si>
   <si>
     <t>fd_user_guide_step_rel-4</t>
+  </si>
+  <si>
+    <t>fd_help_doc</t>
+  </si>
+  <si>
+    <t>#MENU_CODE</t>
+  </si>
+  <si>
+    <t>#TAB_CODE</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>fd_help_doc-1</t>
+  </si>
+  <si>
+    <t>project-product-lib</t>
+  </si>
+  <si>
+    <t>fd_help_doc-2</t>
+  </si>
+  <si>
+    <t>org-product-lib</t>
   </si>
 </sst>
 </file>
@@ -3770,12 +3795,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="49">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3824,6 +3849,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3868,9 +3934,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3888,42 +4014,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -3932,17 +4022,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3958,6 +4040,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3971,48 +4068,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4094,7 +4160,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4112,13 +4292,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4130,103 +4304,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4238,7 +4316,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4256,25 +4334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4396,21 +4462,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4435,11 +4486,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4455,21 +4527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4478,156 +4535,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4636,14 +4702,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4651,44 +4723,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4701,7 +4773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4846,7 +4918,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5104,10 +5176,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="15" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="20" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="21" customWidth="1"/>
     <col min="3" max="3" width="28.1597222222222" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="15" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
     <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
     <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
@@ -5121,79 +5193,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="19"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="22"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="40" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -5201,56 +5273,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="40" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="40" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="42" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="45" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5260,64 +5332,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="20"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="49" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5342,8 +5414,8 @@
   <sheetPr/>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.4"/>
@@ -5359,27 +5431,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5393,13 +5465,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="11" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -5411,10 +5483,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="12" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -5435,7 +5507,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="11" t="s">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -5461,7 +5533,7 @@
       </c>
     </row>
     <row r="8" spans="5:24">
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="18" t="s">
         <v>75</v>
       </c>
       <c r="F8" t="s">
@@ -5790,13 +5862,13 @@
       <c r="E14" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="15" t="s">
         <v>117</v>
       </c>
       <c r="J14" t="s">
@@ -5951,7 +6023,7 @@
       <c r="F17" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="15" t="s">
         <v>86</v>
       </c>
       <c r="H17" t="s">
@@ -6571,7 +6643,7 @@
       <c r="L28" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="19">
         <v>20</v>
       </c>
       <c r="N28" t="s">
@@ -6622,27 +6694,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6656,16 +6728,16 @@
       <c r="C7" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="11" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6677,7 +6749,7 @@
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="15" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6689,7 +6761,7 @@
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="15" t="s">
         <v>182</v>
       </c>
     </row>
@@ -8645,7 +8717,7 @@
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
-      <c r="G172" s="9" t="s">
+      <c r="G172" s="15" t="s">
         <v>439</v>
       </c>
     </row>
@@ -8657,7 +8729,7 @@
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
-      <c r="G173" s="9" t="s">
+      <c r="G173" s="15" t="s">
         <v>441</v>
       </c>
     </row>
@@ -8787,27 +8859,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8821,16 +8893,16 @@
       <c r="C7" t="s">
         <v>457</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="11" t="s">
         <v>460</v>
       </c>
       <c r="H7" t="s">
@@ -8974,35 +9046,35 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" s="10" customFormat="1" spans="5:15">
-      <c r="E12" s="10" t="s">
+    <row r="12" s="16" customFormat="1" spans="5:15">
+      <c r="E12" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="16">
         <v>1</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="16">
         <v>0</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="16">
         <v>1</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="16">
         <v>1</v>
       </c>
     </row>
@@ -9016,19 +9088,19 @@
       <c r="C14" t="s">
         <v>485</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="11" t="s">
         <v>490</v>
       </c>
       <c r="I14" t="s">
@@ -9300,27 +9372,27 @@
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.4"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9334,10 +9406,10 @@
       <c r="C7" t="s">
         <v>495</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -9346,7 +9418,7 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="11" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
@@ -9355,16 +9427,16 @@
       <c r="J7" t="s">
         <v>462</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="11" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>498</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="11" t="s">
         <v>500</v>
       </c>
       <c r="O7" t="s">
@@ -9391,7 +9463,7 @@
       <c r="V7" t="s">
         <v>507</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="W7" s="11" t="s">
         <v>508</v>
       </c>
       <c r="X7" t="s">
@@ -9838,16 +9910,16 @@
       <c r="C16" t="s">
         <v>558</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="11" t="s">
         <v>561</v>
       </c>
       <c r="H16" t="s">
@@ -9856,7 +9928,7 @@
       <c r="I16" t="s">
         <v>563</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="11" t="s">
         <v>460</v>
       </c>
     </row>
@@ -10409,27 +10481,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10443,16 +10515,16 @@
       <c r="C7" t="s">
         <v>457</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="11" t="s">
         <v>460</v>
       </c>
       <c r="H7" t="s">
@@ -10812,7 +10884,7 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -10829,29 +10901,29 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="1"/>
     <row r="3" customFormat="1"/>
     <row r="4" customFormat="1" spans="5:7">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10867,23 +10939,23 @@
       <c r="C7" t="s">
         <v>627</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" customFormat="1" spans="4:7">
-      <c r="D8" s="1"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="14" t="s">
         <v>632</v>
       </c>
       <c r="F8" t="s">
@@ -10894,22 +10966,22 @@
       </c>
     </row>
     <row r="9" customFormat="1" spans="4:7">
-      <c r="D9" s="1"/>
-      <c r="E9" s="6"/>
-      <c r="G9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="14"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="4:7">
-      <c r="D10" s="1"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="14"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" customFormat="1" spans="4:7">
-      <c r="D11" s="1"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" customFormat="1" spans="4:4">
-      <c r="D12" s="1"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" customFormat="1" spans="1:7">
       <c r="A13" t="s">
@@ -10921,54 +10993,54 @@
       <c r="C13" t="s">
         <v>635</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="13" t="s">
         <v>637</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="11" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="4:8">
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="F14" s="5" t="str">
+      <c r="F14" s="13" t="str">
         <f>菜单SAAS版!E17</f>
         <v>iam_menu-18</v>
       </c>
-      <c r="G14" s="5" t="str">
+      <c r="G14" s="13" t="str">
         <f>E8</f>
         <v>fd_user_guide-1</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" customFormat="1" spans="4:8">
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" customFormat="1" spans="4:8">
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" customFormat="1" spans="4:8">
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" customFormat="1"/>
     <row r="19" customFormat="1" spans="1:11">
@@ -10981,16 +11053,16 @@
       <c r="C19" t="s">
         <v>640</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="11" t="s">
         <v>643</v>
       </c>
       <c r="H19" t="s">
@@ -11002,15 +11074,15 @@
       <c r="J19" t="s">
         <v>646</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="13" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="5:11">
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="14" t="s">
         <v>648</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="11" t="s">
         <v>649</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -11031,10 +11103,10 @@
       </c>
     </row>
     <row r="21" customFormat="1" spans="5:11">
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="15" t="s">
         <v>655</v>
       </c>
       <c r="G21" s="7" t="s">
@@ -11055,7 +11127,7 @@
       </c>
     </row>
     <row r="22" customFormat="1" spans="5:11">
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="14" t="s">
         <v>658</v>
       </c>
       <c r="F22" t="s">
@@ -11079,7 +11151,7 @@
       </c>
     </row>
     <row r="23" customFormat="1" spans="5:11">
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="14" t="s">
         <v>662</v>
       </c>
       <c r="F23" t="s">
@@ -11103,7 +11175,7 @@
       </c>
     </row>
     <row r="24" customFormat="1" spans="7:7">
-      <c r="G24" s="8"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" customFormat="1"/>
     <row r="26" customFormat="1" spans="1:8">
@@ -11116,16 +11188,16 @@
       <c r="C26" t="s">
         <v>666</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="11" t="s">
         <v>669</v>
       </c>
       <c r="H26" t="s">
@@ -11133,7 +11205,7 @@
       </c>
     </row>
     <row r="27" customFormat="1" spans="5:8">
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="14" t="s">
         <v>671</v>
       </c>
       <c r="F27" t="str">
@@ -11149,7 +11221,7 @@
       </c>
     </row>
     <row r="28" customFormat="1" spans="5:8">
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="14" t="s">
         <v>672</v>
       </c>
       <c r="F28" t="str">
@@ -11165,7 +11237,7 @@
       </c>
     </row>
     <row r="29" customFormat="1" spans="5:8">
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="14" t="s">
         <v>673</v>
       </c>
       <c r="F29" t="str">
@@ -11181,7 +11253,7 @@
       </c>
     </row>
     <row r="30" spans="5:8">
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="14" t="s">
         <v>674</v>
       </c>
       <c r="F30" t="str">
@@ -11195,6 +11267,132 @@
       <c r="H30">
         <v>4</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="$A10:$XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="17.4"/>
+  <cols>
+    <col min="4" max="4" width="22.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="29.0833333333333" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="34.75" customWidth="1"/>
+    <col min="8" max="8" width="18.1666666666667" customWidth="1"/>
+    <col min="9" max="9" width="32.75" customWidth="1"/>
+    <col min="10" max="10" width="37.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>626</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>627</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9">
+      <c r="D8" s="1"/>
+      <c r="E8" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="F8" t="str">
+        <f>菜单SAAS版!E17</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="H8" t="s">
+        <v>680</v>
+      </c>
+      <c r="I8">
+        <v>119139</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="F9" t="str">
+        <f>菜单SAAS版!E9</f>
+        <v>iam_menu-9</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="H9" t="s">
+        <v>682</v>
+      </c>
+      <c r="I9">
+        <v>119136</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="D10" s="1"/>
+      <c r="E10" s="6"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="680">
   <si>
     <r>
       <rPr>
@@ -3697,9 +3697,6 @@
     <t>Maven仓库创建成功后，就能往里面推送jar包</t>
   </si>
   <si>
-    <t>/test</t>
-  </si>
-  <si>
     <t>/rdupm/product-lib?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;organizationId=${organizationId}</t>
   </si>
   <si>
@@ -3781,13 +3778,7 @@
     <t>fd_help_doc-1</t>
   </si>
   <si>
-    <t>project-product-lib</t>
-  </si>
-  <si>
     <t>fd_help_doc-2</t>
-  </si>
-  <si>
-    <t>org-product-lib</t>
   </si>
 </sst>
 </file>
@@ -3800,7 +3791,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3849,47 +3840,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3933,25 +3883,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3962,48 +3898,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4014,17 +3913,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4040,12 +3930,57 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -4054,10 +3989,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4069,16 +4011,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4160,31 +4110,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4202,7 +4128,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4214,19 +4188,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4238,13 +4248,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4256,7 +4272,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4268,79 +4290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4447,6 +4397,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4465,8 +4424,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4500,200 +4494,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4702,20 +4652,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4723,44 +4666,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4773,7 +4716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5176,10 +5119,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="20" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="21" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="14" customWidth="1"/>
     <col min="3" max="3" width="28.1597222222222" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="15" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="8" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
     <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
     <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
@@ -5193,79 +5136,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="22"/>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="15"/>
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="25"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="15"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="37"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="33" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -5273,56 +5216,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="33" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="38" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5332,64 +5275,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="26"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="26"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="42" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5431,27 +5374,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5465,13 +5408,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -5483,10 +5426,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -5507,7 +5450,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -5533,7 +5476,7 @@
       </c>
     </row>
     <row r="8" spans="5:24">
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F8" t="s">
@@ -5862,13 +5805,13 @@
       <c r="E14" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="8" t="s">
         <v>117</v>
       </c>
       <c r="J14" t="s">
@@ -6023,7 +5966,7 @@
       <c r="F17" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H17" t="s">
@@ -6643,7 +6586,7 @@
       <c r="L28" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M28" s="12">
         <v>20</v>
       </c>
       <c r="N28" t="s">
@@ -6694,27 +6637,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6728,16 +6671,16 @@
       <c r="C7" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="3" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6749,7 +6692,7 @@
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="8" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6761,7 +6704,7 @@
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="8" t="s">
         <v>182</v>
       </c>
     </row>
@@ -8717,7 +8660,7 @@
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
-      <c r="G172" s="15" t="s">
+      <c r="G172" s="8" t="s">
         <v>439</v>
       </c>
     </row>
@@ -8729,7 +8672,7 @@
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
-      <c r="G173" s="15" t="s">
+      <c r="G173" s="8" t="s">
         <v>441</v>
       </c>
     </row>
@@ -8859,27 +8802,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8893,16 +8836,16 @@
       <c r="C7" t="s">
         <v>457</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="3" t="s">
         <v>460</v>
       </c>
       <c r="H7" t="s">
@@ -9046,35 +8989,35 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" s="16" customFormat="1" spans="5:15">
-      <c r="E12" s="16" t="s">
+    <row r="12" s="9" customFormat="1" spans="5:15">
+      <c r="E12" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="9">
         <v>1</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="9">
         <v>0</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="9">
         <v>1</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="9">
         <v>1</v>
       </c>
     </row>
@@ -9088,19 +9031,19 @@
       <c r="C14" t="s">
         <v>485</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="3" t="s">
         <v>490</v>
       </c>
       <c r="I14" t="s">
@@ -9372,27 +9315,27 @@
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.4"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9406,10 +9349,10 @@
       <c r="C7" t="s">
         <v>495</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -9418,7 +9361,7 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
@@ -9427,16 +9370,16 @@
       <c r="J7" t="s">
         <v>462</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>498</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="3" t="s">
         <v>500</v>
       </c>
       <c r="O7" t="s">
@@ -9463,7 +9406,7 @@
       <c r="V7" t="s">
         <v>507</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="W7" s="3" t="s">
         <v>508</v>
       </c>
       <c r="X7" t="s">
@@ -9910,16 +9853,16 @@
       <c r="C16" t="s">
         <v>558</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="3" t="s">
         <v>561</v>
       </c>
       <c r="H16" t="s">
@@ -9928,7 +9871,7 @@
       <c r="I16" t="s">
         <v>563</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="3" t="s">
         <v>460</v>
       </c>
     </row>
@@ -10481,27 +10424,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10515,16 +10458,16 @@
       <c r="C7" t="s">
         <v>457</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="3" t="s">
         <v>460</v>
       </c>
       <c r="H7" t="s">
@@ -10885,7 +10828,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -10901,29 +10844,29 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="1"/>
     <row r="3" customFormat="1"/>
     <row r="4" customFormat="1" spans="5:7">
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10939,23 +10882,23 @@
       <c r="C7" t="s">
         <v>627</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="4:7">
-      <c r="D8" s="9"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="6" t="s">
         <v>632</v>
       </c>
       <c r="F8" t="s">
@@ -10966,22 +10909,22 @@
       </c>
     </row>
     <row r="9" customFormat="1" spans="4:7">
-      <c r="D9" s="9"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="6"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="4:7">
-      <c r="D10" s="9"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="6"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" customFormat="1" spans="4:7">
-      <c r="D11" s="9"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="6"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" customFormat="1" spans="4:4">
-      <c r="D12" s="9"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" customFormat="1" spans="1:7">
       <c r="A13" t="s">
@@ -10993,54 +10936,54 @@
       <c r="C13" t="s">
         <v>635</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="3" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="4:8">
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="F14" s="13" t="str">
+      <c r="F14" s="5" t="str">
         <f>菜单SAAS版!E17</f>
         <v>iam_menu-18</v>
       </c>
-      <c r="G14" s="13" t="str">
+      <c r="G14" s="5" t="str">
         <f>E8</f>
         <v>fd_user_guide-1</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" customFormat="1" spans="4:8">
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" customFormat="1" spans="4:8">
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" customFormat="1" spans="4:8">
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" customFormat="1"/>
     <row r="19" customFormat="1" spans="1:11">
@@ -11053,16 +10996,16 @@
       <c r="C19" t="s">
         <v>640</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="3" t="s">
         <v>643</v>
       </c>
       <c r="H19" t="s">
@@ -11074,15 +11017,15 @@
       <c r="J19" t="s">
         <v>646</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="5" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="5:11">
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="3" t="s">
         <v>649</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -11091,11 +11034,11 @@
       <c r="H20" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20">
+        <v>119821</v>
+      </c>
+      <c r="J20" t="s">
         <v>652</v>
-      </c>
-      <c r="J20" t="s">
-        <v>653</v>
       </c>
       <c r="K20" t="str">
         <f>菜单SAAS版!E18</f>
@@ -11103,23 +11046,23 @@
       </c>
     </row>
     <row r="21" customFormat="1" spans="5:11">
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="G21" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="I21">
+        <v>119820</v>
+      </c>
+      <c r="J21" t="s">
         <v>652</v>
-      </c>
-      <c r="J21" t="s">
-        <v>653</v>
       </c>
       <c r="K21" t="str">
         <f>菜单SAAS版!E18</f>
@@ -11127,23 +11070,23 @@
       </c>
     </row>
     <row r="22" customFormat="1" spans="5:11">
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="F22" t="s">
         <v>658</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="I22">
+        <v>119822</v>
+      </c>
+      <c r="J22" t="s">
         <v>652</v>
-      </c>
-      <c r="J22" t="s">
-        <v>653</v>
       </c>
       <c r="K22" t="str">
         <f>菜单SAAS版!E18</f>
@@ -11151,23 +11094,23 @@
       </c>
     </row>
     <row r="23" customFormat="1" spans="5:11">
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="F23" t="s">
         <v>662</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="I23">
+        <v>119823</v>
+      </c>
+      <c r="J23" t="s">
         <v>652</v>
-      </c>
-      <c r="J23" t="s">
-        <v>653</v>
       </c>
       <c r="K23" t="str">
         <f>菜单SAAS版!E18</f>
@@ -11186,27 +11129,27 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
+        <v>665</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="E26" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="F26" s="11" t="s">
+      <c r="G26" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="H26" t="s">
         <v>669</v>
       </c>
-      <c r="H26" t="s">
+    </row>
+    <row r="27" customFormat="1" spans="5:8">
+      <c r="E27" s="6" t="s">
         <v>670</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="5:8">
-      <c r="E27" s="14" t="s">
-        <v>671</v>
       </c>
       <c r="F27" t="str">
         <f>E8</f>
@@ -11221,8 +11164,8 @@
       </c>
     </row>
     <row r="28" customFormat="1" spans="5:8">
-      <c r="E28" s="14" t="s">
-        <v>672</v>
+      <c r="E28" s="6" t="s">
+        <v>671</v>
       </c>
       <c r="F28" t="str">
         <f>E8</f>
@@ -11237,8 +11180,8 @@
       </c>
     </row>
     <row r="29" customFormat="1" spans="5:8">
-      <c r="E29" s="14" t="s">
-        <v>673</v>
+      <c r="E29" s="6" t="s">
+        <v>672</v>
       </c>
       <c r="F29" t="str">
         <f>E8</f>
@@ -11253,8 +11196,8 @@
       </c>
     </row>
     <row r="30" spans="5:8">
-      <c r="E30" s="14" t="s">
-        <v>674</v>
+      <c r="E30" s="6" t="s">
+        <v>673</v>
       </c>
       <c r="F30" t="str">
         <f>E8</f>
@@ -11279,8 +11222,8 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="$A10:$XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="17.4"/>
@@ -11330,7 +11273,7 @@
         <v>627</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>629</v>
@@ -11339,29 +11282,29 @@
         <v>637</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>677</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="D8" s="1"/>
       <c r="E8" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!E17</f>
         <v>iam_menu-18</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="H8" t="s">
-        <v>680</v>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8">
         <v>119139</v>
@@ -11370,17 +11313,17 @@
     <row r="9" spans="4:9">
       <c r="D9" s="1"/>
       <c r="E9" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!E9</f>
         <v>iam_menu-9</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="H9" t="s">
-        <v>682</v>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="I9">
         <v>119136</v>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="681">
   <si>
     <r>
       <rPr>
@@ -3779,6 +3779,9 @@
   </si>
   <si>
     <t>fd_help_doc-2</t>
+  </si>
+  <si>
+    <t>fd_help_doc-3</t>
   </si>
 </sst>
 </file>
@@ -3884,7 +3887,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3898,23 +3901,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3928,32 +3924,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3982,15 +3954,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4003,8 +4014,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4018,17 +4030,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4116,13 +4119,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4140,19 +4149,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4170,13 +4173,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4194,7 +4197,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4206,7 +4221,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4218,43 +4245,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4266,31 +4269,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4397,15 +4400,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4421,11 +4415,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4441,10 +4452,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4465,17 +4474,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4500,10 +4503,10 @@
     <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4512,133 +4515,133 @@
     <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -11223,7 +11226,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="17.4"/>
@@ -11329,10 +11332,24 @@
         <v>119136</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
+    <row r="10" spans="4:9">
       <c r="D10" s="1"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="E10" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="F10" t="str">
+        <f>菜单SAAS版!E26</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>119131</v>
+      </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" s="1"/>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="7"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="683">
   <si>
     <r>
       <rPr>
@@ -3110,6 +3110,12 @@
   </si>
   <si>
     <t>prod-repo-service.harbor-image.queryImageScanDetailProject</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-182</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-project.checkName</t>
   </si>
   <si>
     <t>标签表</t>
@@ -3886,25 +3892,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3916,9 +3907,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3931,30 +3965,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3969,10 +3982,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3984,9 +3997,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4000,21 +4012,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -4030,8 +4035,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4113,13 +4119,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4132,36 +4174,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4191,7 +4203,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4203,25 +4215,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4239,19 +4245,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4263,19 +4275,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4287,13 +4293,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4415,6 +4421,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4430,35 +4445,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4470,6 +4456,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4497,151 +4492,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6626,10 +6632,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G182"/>
   <sheetViews>
-    <sheetView topLeftCell="D133" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView tabSelected="1" topLeftCell="D172" workbookViewId="0">
+      <selection activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.4" outlineLevelCol="6"/>
@@ -8773,6 +8779,18 @@
       </c>
       <c r="G181" t="s">
         <v>456</v>
+      </c>
+    </row>
+    <row r="182" spans="5:7">
+      <c r="E182" t="s">
+        <v>457</v>
+      </c>
+      <c r="F182" t="str">
+        <f>菜单SAAS版!E27</f>
+        <v>iam_menu-28</v>
+      </c>
+      <c r="G182" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -8837,66 +8855,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="N7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="O7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F8" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G8" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
+        <v>474</v>
+      </c>
+      <c r="J8" t="s">
+        <v>475</v>
+      </c>
+      <c r="K8" t="s">
         <v>472</v>
-      </c>
-      <c r="J8" t="s">
-        <v>473</v>
-      </c>
-      <c r="K8" t="s">
-        <v>470</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -8910,19 +8928,19 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F9" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -8936,25 +8954,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F10" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J10" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K10" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -8968,19 +8986,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F11" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G11" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M11" t="s">
         <v>82</v>
@@ -8994,25 +9012,25 @@
     </row>
     <row r="12" s="9" customFormat="1" spans="5:15">
       <c r="E12" s="9" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M12" s="9">
         <v>0</v>
@@ -9032,33 +9050,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I14" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F15" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -9069,15 +9087,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I15" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F16" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -9088,15 +9106,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F17" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -9107,15 +9125,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F18" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -9126,15 +9144,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F19" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -9145,15 +9163,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I19" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F20" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -9164,15 +9182,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I20" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F21" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -9183,15 +9201,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I21" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F22" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G22" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -9202,15 +9220,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F23" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G23" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -9221,15 +9239,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I23" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F24" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G24" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -9240,15 +9258,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I24" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F25" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G25" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -9259,15 +9277,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I25" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F26" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G26" t="str">
         <f>菜单SAAS版!E28</f>
@@ -9278,15 +9296,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I26" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F27" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G27" t="str">
         <f>菜单SAAS版!E17</f>
@@ -9297,7 +9315,7 @@
         <v>iam_label-21</v>
       </c>
       <c r="I27" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -9350,10 +9368,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -9368,72 +9386,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="O7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="P7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="Q7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="R7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="S7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="T7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="X7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="Y7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F8" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G8" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H8" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="I8" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="J8" t="s">
         <v>163</v>
@@ -9469,10 +9487,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="V8" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -9480,19 +9498,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F9" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H9" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="I9" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -9528,10 +9546,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="V9" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -9539,16 +9557,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F10" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G10" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H10" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -9585,33 +9603,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="V10" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="Y10" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F11" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G11" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H11" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -9648,33 +9666,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="V11" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="Y11" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F12" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H12" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -9711,33 +9729,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="V12" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Y12" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F13" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G13" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H13" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -9774,33 +9792,33 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="V13" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="Y13" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F14" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G14" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H14" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="J14" t="s">
         <v>163</v>
@@ -9837,10 +9855,10 @@
         <v>80</v>
       </c>
       <c r="U14" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="V14" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="W14" t="s">
         <v>80</v>
@@ -9854,33 +9872,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H16" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="I16" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -9891,18 +9909,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H17" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I17" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J17" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -9913,18 +9931,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I18" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J18" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -9935,18 +9953,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I19" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J19" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -9957,18 +9975,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H20" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I20" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J20" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -9979,18 +9997,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H21" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I21" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J21" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -10001,18 +10019,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H22" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I22" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J22" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -10023,18 +10041,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H23" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I23" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J23" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -10045,18 +10063,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H24" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I24" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J24" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -10067,18 +10085,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H25" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I25" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J25" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -10089,18 +10107,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H26" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I26" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J26" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -10111,18 +10129,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H27" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I27" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J27" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -10133,18 +10151,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H28" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I28" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J28" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -10155,18 +10173,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H29" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I29" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J29" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$12</f>
@@ -10177,18 +10195,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H30" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I30" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J30" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$12</f>
@@ -10199,18 +10217,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H31" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I31" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J31" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$12</f>
@@ -10221,18 +10239,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H32" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I32" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J32" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$12</f>
@@ -10243,18 +10261,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H33" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I33" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J33" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$12</f>
@@ -10265,18 +10283,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H34" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I34" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J34" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$13</f>
@@ -10287,18 +10305,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H35" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I35" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J35" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$13</f>
@@ -10309,18 +10327,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I36" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J36" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$13</f>
@@ -10331,18 +10349,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H37" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="I37" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J37" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$13</f>
@@ -10353,18 +10371,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H38" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I38" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J38" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$13</f>
@@ -10375,18 +10393,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H39" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I39" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J39" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$13</f>
@@ -10397,13 +10415,13 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H40" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I40" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J40" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -10459,66 +10477,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="N7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="O7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F8" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G8" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J8" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K8" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -10532,25 +10550,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F9" t="s">
+        <v>598</v>
+      </c>
+      <c r="G9" t="s">
         <v>596</v>
-      </c>
-      <c r="G9" t="s">
-        <v>594</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J9" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="K9" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -10564,25 +10582,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F10" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G10" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J10" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K10" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -10596,25 +10614,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F11" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G11" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J11" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="K11" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -10628,25 +10646,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F12" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G12" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J12" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="K12" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -10660,25 +10678,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F13" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G13" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J13" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K13" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -10692,25 +10710,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="F14" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G14" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J14" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="K14" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -10724,25 +10742,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F15" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="G15" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J15" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K15" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -10756,25 +10774,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F16" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G16" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J16" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K16" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -10788,25 +10806,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F17" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G17" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J17" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K17" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -10877,38 +10895,38 @@
     <row r="6" customFormat="1"/>
     <row r="7" customFormat="1" spans="1:8">
       <c r="A7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="4:7">
       <c r="D8" s="1"/>
       <c r="E8" s="6" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F8" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="4:7">
@@ -10931,31 +10949,31 @@
     </row>
     <row r="13" customFormat="1" spans="1:7">
       <c r="A13" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="4:8">
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F14" s="5" t="str">
         <f>菜单SAAS版!E17</f>
@@ -10991,57 +11009,57 @@
     <row r="18" customFormat="1"/>
     <row r="19" customFormat="1" spans="1:11">
       <c r="A19" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H19" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="I19" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="J19" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="5:11">
       <c r="E20" s="6" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="I20">
         <v>119821</v>
       </c>
       <c r="J20" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="K20" t="str">
         <f>菜单SAAS版!E18</f>
@@ -11050,22 +11068,22 @@
     </row>
     <row r="21" customFormat="1" spans="5:11">
       <c r="E21" s="6" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="I21">
         <v>119820</v>
       </c>
       <c r="J21" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="K21" t="str">
         <f>菜单SAAS版!E18</f>
@@ -11074,22 +11092,22 @@
     </row>
     <row r="22" customFormat="1" spans="5:11">
       <c r="E22" s="6" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F22" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="I22">
         <v>119822</v>
       </c>
       <c r="J22" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="K22" t="str">
         <f>菜单SAAS版!E18</f>
@@ -11098,22 +11116,22 @@
     </row>
     <row r="23" customFormat="1" spans="5:11">
       <c r="E23" s="6" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F23" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="I23">
         <v>119823</v>
       </c>
       <c r="J23" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="K23" t="str">
         <f>菜单SAAS版!E18</f>
@@ -11126,33 +11144,33 @@
     <row r="25" customFormat="1"/>
     <row r="26" customFormat="1" spans="1:8">
       <c r="A26" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H26" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="5:8">
       <c r="E27" s="6" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F27" t="str">
         <f>E8</f>
@@ -11168,7 +11186,7 @@
     </row>
     <row r="28" customFormat="1" spans="5:8">
       <c r="E28" s="6" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F28" t="str">
         <f>E8</f>
@@ -11184,7 +11202,7 @@
     </row>
     <row r="29" customFormat="1" spans="5:8">
       <c r="E29" s="6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="F29" t="str">
         <f>E8</f>
@@ -11200,7 +11218,7 @@
     </row>
     <row r="30" spans="5:8">
       <c r="E30" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F30" t="str">
         <f>E8</f>
@@ -11225,7 +11243,7 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -11267,37 +11285,37 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="D8" s="1"/>
       <c r="E8" s="6" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!E17</f>
@@ -11316,7 +11334,7 @@
     <row r="9" spans="4:9">
       <c r="D9" s="1"/>
       <c r="E9" s="6" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!E9</f>
@@ -11335,7 +11353,7 @@
     <row r="10" spans="4:9">
       <c r="D10" s="1"/>
       <c r="E10" s="6" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!E26</f>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -3899,31 +3899,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3938,14 +3916,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3965,17 +3936,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3990,6 +3952,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -3998,7 +3968,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4012,32 +4021,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4119,12 +4119,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4132,24 +4126,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4167,13 +4143,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4185,13 +4185,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4209,7 +4209,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4221,37 +4263,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4263,43 +4293,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4430,17 +4430,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4456,24 +4450,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4503,16 +4479,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4521,133 +4521,133 @@
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5367,7 +5367,7 @@
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.4"/>
@@ -8786,8 +8786,8 @@
         <v>457</v>
       </c>
       <c r="F182" t="str">
-        <f>菜单SAAS版!E27</f>
-        <v>iam_menu-28</v>
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G182" t="s">
         <v>458</v>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -3893,9 +3893,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3907,9 +3914,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3923,16 +3929,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3953,44 +3967,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4005,9 +3989,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4022,22 +4029,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4119,7 +4119,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4131,7 +4161,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4143,25 +4185,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4173,61 +4269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4239,19 +4281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4269,37 +4299,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4425,7 +4425,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4450,6 +4465,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4479,175 +4503,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5367,7 +5367,7 @@
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.4"/>
@@ -6634,7 +6634,7 @@
   <sheetPr/>
   <dimension ref="A1:G182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D172" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D169" workbookViewId="0">
       <selection activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
@@ -8786,8 +8786,8 @@
         <v>457</v>
       </c>
       <c r="F182" t="str">
-        <f>菜单SAAS版!E18</f>
-        <v>iam_menu-19</v>
+        <f>菜单SAAS版!E22</f>
+        <v>iam_menu-23</v>
       </c>
       <c r="G182" t="s">
         <v>458</v>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="685">
   <si>
     <r>
       <rPr>
@@ -3116,6 +3116,12 @@
   </si>
   <si>
     <t>prod-repo-service.harbor-project.checkName</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-183</t>
+  </si>
+  <si>
+    <t>prod-repo-service.harbor-image-tag.deleteProject</t>
   </si>
   <si>
     <t>标签表</t>
@@ -3795,10 +3801,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -3906,9 +3912,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3929,29 +3949,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3959,7 +3957,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3990,10 +3988,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4014,22 +4012,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4038,6 +4021,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4119,7 +4125,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4131,13 +4161,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4149,19 +4179,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4179,43 +4221,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4233,7 +4245,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4245,61 +4293,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4406,17 +4412,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4425,7 +4440,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4445,11 +4460,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4472,182 +4504,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5366,7 +5372,7 @@
   <sheetPr/>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -6632,10 +6638,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G182"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D169" workbookViewId="0">
-      <selection activeCell="F183" sqref="F183"/>
+      <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.4" outlineLevelCol="6"/>
@@ -8791,6 +8797,18 @@
       </c>
       <c r="G182" t="s">
         <v>458</v>
+      </c>
+    </row>
+    <row r="183" spans="5:7">
+      <c r="E183" t="s">
+        <v>459</v>
+      </c>
+      <c r="F183" t="str">
+        <f>菜单SAAS版!E22</f>
+        <v>iam_menu-23</v>
+      </c>
+      <c r="G183" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -8855,66 +8873,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="I7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="J7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F8" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G8" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
+        <v>476</v>
+      </c>
+      <c r="J8" t="s">
+        <v>477</v>
+      </c>
+      <c r="K8" t="s">
         <v>474</v>
-      </c>
-      <c r="J8" t="s">
-        <v>475</v>
-      </c>
-      <c r="K8" t="s">
-        <v>472</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -8928,19 +8946,19 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F9" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G9" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -8954,25 +8972,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F10" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J10" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K10" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -8986,19 +9004,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F11" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G11" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M11" t="s">
         <v>82</v>
@@ -9012,25 +9030,25 @@
     </row>
     <row r="12" s="9" customFormat="1" spans="5:15">
       <c r="E12" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M12" s="9">
         <v>0</v>
@@ -9050,33 +9068,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I14" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F15" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -9087,15 +9105,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I15" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F16" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -9106,15 +9124,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F17" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -9125,15 +9143,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F18" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -9144,15 +9162,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F19" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -9163,15 +9181,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I19" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F20" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -9182,15 +9200,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I20" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F21" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -9201,15 +9219,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I21" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F22" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G22" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -9220,15 +9238,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F23" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G23" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -9239,15 +9257,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I23" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F24" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G24" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -9258,15 +9276,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I24" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F25" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G25" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -9277,15 +9295,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I25" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F26" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G26" t="str">
         <f>菜单SAAS版!E28</f>
@@ -9296,15 +9314,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I26" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F27" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G27" t="str">
         <f>菜单SAAS版!E17</f>
@@ -9315,7 +9333,7 @@
         <v>iam_label-21</v>
       </c>
       <c r="I27" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -9368,10 +9386,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -9386,72 +9404,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="J7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="O7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="P7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Q7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="R7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="S7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="T7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="X7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="Y7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F8" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G8" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="I8" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="J8" t="s">
         <v>163</v>
@@ -9487,10 +9505,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="V8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -9498,19 +9516,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F9" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G9" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H9" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="I9" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -9546,10 +9564,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="V9" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -9557,16 +9575,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F10" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G10" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H10" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -9603,33 +9621,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="V10" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="Y10" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F11" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G11" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H11" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -9666,33 +9684,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="V11" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="Y11" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F12" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H12" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -9729,33 +9747,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="V12" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="Y12" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F13" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H13" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -9792,33 +9810,33 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="V13" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="Y13" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F14" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G14" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H14" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="J14" t="s">
         <v>163</v>
@@ -9855,10 +9873,10 @@
         <v>80</v>
       </c>
       <c r="U14" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="V14" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="W14" t="s">
         <v>80</v>
@@ -9872,33 +9890,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H16" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="I16" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -9909,18 +9927,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H17" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I17" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -9931,18 +9949,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I18" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J18" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -9953,18 +9971,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I19" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J19" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -9975,18 +9993,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H20" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I20" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J20" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -9997,18 +10015,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H21" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I21" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J21" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -10019,18 +10037,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H22" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I22" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J22" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -10041,18 +10059,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H23" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I23" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J23" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -10063,18 +10081,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H24" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I24" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J24" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -10085,18 +10103,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H25" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I25" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J25" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -10107,18 +10125,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H26" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I26" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J26" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -10129,18 +10147,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H27" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I27" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J27" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -10151,18 +10169,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H28" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I28" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J28" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -10173,18 +10191,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H29" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I29" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J29" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$12</f>
@@ -10195,18 +10213,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H30" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I30" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J30" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$12</f>
@@ -10217,18 +10235,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H31" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I31" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J31" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$12</f>
@@ -10239,18 +10257,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H32" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I32" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J32" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$12</f>
@@ -10261,18 +10279,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H33" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I33" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J33" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$12</f>
@@ -10283,18 +10301,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H34" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I34" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J34" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$13</f>
@@ -10305,18 +10323,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H35" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I35" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J35" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$13</f>
@@ -10327,18 +10345,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I36" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J36" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$13</f>
@@ -10349,18 +10367,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H37" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="I37" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J37" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$13</f>
@@ -10371,18 +10389,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H38" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I38" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J38" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$13</f>
@@ -10393,18 +10411,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H39" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I39" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J39" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$13</f>
@@ -10415,13 +10433,13 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H40" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I40" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J40" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -10477,66 +10495,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="I7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="J7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F8" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G8" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J8" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="K8" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -10550,25 +10568,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F9" t="s">
+        <v>600</v>
+      </c>
+      <c r="G9" t="s">
         <v>598</v>
-      </c>
-      <c r="G9" t="s">
-        <v>596</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J9" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K9" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -10582,25 +10600,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F10" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J10" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="K10" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -10614,25 +10632,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F11" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G11" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J11" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="K11" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -10646,25 +10664,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F12" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G12" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J12" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K12" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -10678,25 +10696,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F13" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="G13" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J13" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="K13" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -10710,25 +10728,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F14" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G14" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J14" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K14" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -10742,25 +10760,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="F15" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G15" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J15" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K15" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -10774,25 +10792,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F16" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G16" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J16" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="K16" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -10806,25 +10824,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F17" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G17" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J17" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K17" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -10895,38 +10913,38 @@
     <row r="6" customFormat="1"/>
     <row r="7" customFormat="1" spans="1:8">
       <c r="A7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="4:7">
       <c r="D8" s="1"/>
       <c r="E8" s="6" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F8" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="4:7">
@@ -10949,31 +10967,31 @@
     </row>
     <row r="13" customFormat="1" spans="1:7">
       <c r="A13" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="4:8">
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F14" s="5" t="str">
         <f>菜单SAAS版!E17</f>
@@ -11009,57 +11027,57 @@
     <row r="18" customFormat="1"/>
     <row r="19" customFormat="1" spans="1:11">
       <c r="A19" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H19" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="I19" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="J19" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="5:11">
       <c r="E20" s="6" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I20">
         <v>119821</v>
       </c>
       <c r="J20" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="K20" t="str">
         <f>菜单SAAS版!E18</f>
@@ -11068,22 +11086,22 @@
     </row>
     <row r="21" customFormat="1" spans="5:11">
       <c r="E21" s="6" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="I21">
         <v>119820</v>
       </c>
       <c r="J21" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="K21" t="str">
         <f>菜单SAAS版!E18</f>
@@ -11092,22 +11110,22 @@
     </row>
     <row r="22" customFormat="1" spans="5:11">
       <c r="E22" s="6" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F22" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="I22">
         <v>119822</v>
       </c>
       <c r="J22" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="K22" t="str">
         <f>菜单SAAS版!E18</f>
@@ -11116,22 +11134,22 @@
     </row>
     <row r="23" customFormat="1" spans="5:11">
       <c r="E23" s="6" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="F23" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="I23">
         <v>119823</v>
       </c>
       <c r="J23" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="K23" t="str">
         <f>菜单SAAS版!E18</f>
@@ -11144,33 +11162,33 @@
     <row r="25" customFormat="1"/>
     <row r="26" customFormat="1" spans="1:8">
       <c r="A26" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H26" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="5:8">
       <c r="E27" s="6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="F27" t="str">
         <f>E8</f>
@@ -11186,7 +11204,7 @@
     </row>
     <row r="28" customFormat="1" spans="5:8">
       <c r="E28" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F28" t="str">
         <f>E8</f>
@@ -11202,7 +11220,7 @@
     </row>
     <row r="29" customFormat="1" spans="5:8">
       <c r="E29" s="6" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F29" t="str">
         <f>E8</f>
@@ -11218,7 +11236,7 @@
     </row>
     <row r="30" spans="5:8">
       <c r="E30" s="6" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F30" t="str">
         <f>E8</f>
@@ -11285,37 +11303,37 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="D8" s="1"/>
       <c r="E8" s="6" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!E17</f>
@@ -11334,7 +11352,7 @@
     <row r="9" spans="4:9">
       <c r="D9" s="1"/>
       <c r="E9" s="6" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!E9</f>
@@ -11353,7 +11371,7 @@
     <row r="10" spans="4:9">
       <c r="D10" s="1"/>
       <c r="E10" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!E26</f>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="689">
   <si>
     <r>
       <rPr>
@@ -1975,6 +1975,9 @@
     <t>管理</t>
   </si>
   <si>
+    <t>Management</t>
+  </si>
+  <si>
     <t>GL</t>
   </si>
   <si>
@@ -2002,6 +2005,9 @@
     <t>制品库管理</t>
   </si>
   <si>
+    <t>Artifact Repository Management</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -2095,6 +2101,9 @@
     <t>个人</t>
   </si>
   <si>
+    <t>Personal</t>
+  </si>
+  <si>
     <t>iam_menu-15</t>
   </si>
   <si>
@@ -2102,6 +2111,9 @@
   </si>
   <si>
     <t>个人设置</t>
+  </si>
+  <si>
+    <t>Personal Settings</t>
   </si>
   <si>
     <t>manage_person</t>
@@ -3801,10 +3813,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -3920,17 +3932,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3949,7 +3962,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3957,41 +3970,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4012,9 +3993,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4027,6 +4031,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -4036,14 +4055,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4125,19 +4137,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4149,19 +4155,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4179,72 +4209,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4257,7 +4221,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4269,43 +4311,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4412,25 +4424,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4440,7 +4443,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4486,17 +4489,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4509,16 +4506,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4527,133 +4539,133 @@
     <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5372,16 +5384,16 @@
   <sheetPr/>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.4"/>
   <cols>
     <col min="5" max="5" width="17.5069444444444" customWidth="1"/>
-    <col min="6" max="6" width="62.25" customWidth="1"/>
+    <col min="6" max="6" width="70.4166666666667" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="16.0833333333333" customWidth="1"/>
+    <col min="8" max="8" width="32.9166666666667" customWidth="1"/>
     <col min="10" max="10" width="15.25" customWidth="1"/>
     <col min="11" max="11" width="19.5069444444444" customWidth="1"/>
     <col min="15" max="15" width="38.0833333333333" customWidth="1"/>
@@ -5501,1135 +5513,1132 @@
         <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s">
         <v>76</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s">
+        <v>84</v>
+      </c>
+      <c r="X8" t="s">
         <v>83</v>
-      </c>
-      <c r="X8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="5:24">
       <c r="E9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K9" t="str">
         <f>菜单SAAS版!$E$8</f>
         <v>iam_menu-8</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M9">
         <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s">
+        <v>84</v>
+      </c>
+      <c r="X9" t="s">
         <v>83</v>
-      </c>
-      <c r="X9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="5:24">
       <c r="E10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K10" t="str">
         <f>菜单SAAS版!$E$9</f>
         <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V10" t="s">
+        <v>84</v>
+      </c>
+      <c r="X10" t="s">
         <v>83</v>
-      </c>
-      <c r="X10" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11" spans="5:24">
       <c r="E11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K11" t="str">
         <f>菜单SAAS版!$E$9</f>
         <v>iam_menu-9</v>
       </c>
       <c r="L11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="T11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V11" t="s">
+        <v>84</v>
+      </c>
+      <c r="X11" t="s">
         <v>83</v>
-      </c>
-      <c r="X11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12" spans="5:24">
       <c r="E12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" t="str">
         <f>菜单SAAS版!$E$9</f>
         <v>iam_menu-9</v>
       </c>
       <c r="L12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="T12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s">
+        <v>84</v>
+      </c>
+      <c r="X12" t="s">
         <v>83</v>
-      </c>
-      <c r="X12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="5:24">
       <c r="E13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13" t="str">
         <f>菜单SAAS版!$E$9</f>
         <v>iam_menu-9</v>
       </c>
       <c r="L13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="T13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s">
+        <v>84</v>
+      </c>
+      <c r="X13" t="s">
         <v>83</v>
-      </c>
-      <c r="X13" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="5:24">
       <c r="E14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="T14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s">
+        <v>84</v>
+      </c>
+      <c r="X14" t="s">
         <v>83</v>
-      </c>
-      <c r="X14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="5:24">
       <c r="E15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H15" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K15" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="L15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="T15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s">
+        <v>84</v>
+      </c>
+      <c r="X15" t="s">
         <v>83</v>
-      </c>
-      <c r="X15" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="5:24">
       <c r="E16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="L16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="T16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V16" t="s">
+        <v>84</v>
+      </c>
+      <c r="X16" t="s">
         <v>83</v>
-      </c>
-      <c r="X16" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="5:24">
       <c r="E17" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K17" t="str">
         <f>E28</f>
         <v>iam_menu-29</v>
       </c>
       <c r="L17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M17">
         <v>70</v>
       </c>
       <c r="N17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="T17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s">
+        <v>84</v>
+      </c>
+      <c r="X17" t="s">
         <v>83</v>
-      </c>
-      <c r="X17" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="5:24">
       <c r="E18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K18" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="T18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V18" t="s">
+        <v>84</v>
+      </c>
+      <c r="X18" t="s">
         <v>83</v>
-      </c>
-      <c r="X18" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="19" spans="5:24">
       <c r="E19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K19" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="T19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V19" t="s">
+        <v>84</v>
+      </c>
+      <c r="X19" t="s">
         <v>83</v>
-      </c>
-      <c r="X19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="5:24">
       <c r="E20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K20" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="T20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s">
+        <v>84</v>
+      </c>
+      <c r="X20" t="s">
         <v>83</v>
-      </c>
-      <c r="X20" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="21" spans="5:24">
       <c r="E21" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F21" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K21" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="T21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s">
+        <v>84</v>
+      </c>
+      <c r="X21" t="s">
         <v>83</v>
-      </c>
-      <c r="X21" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" spans="5:24">
       <c r="E22" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H22" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K22" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="T22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V22" t="s">
+        <v>84</v>
+      </c>
+      <c r="X22" t="s">
         <v>83</v>
-      </c>
-      <c r="X22" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="5:24">
       <c r="E23" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F23" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K23" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="N23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="T23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s">
+        <v>84</v>
+      </c>
+      <c r="X23" t="s">
         <v>83</v>
-      </c>
-      <c r="X23" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" ht="16.8" customHeight="1" spans="5:24">
       <c r="E24" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G24" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H24" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K24" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="L24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M24" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="T24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s">
+        <v>84</v>
+      </c>
+      <c r="X24" t="s">
         <v>83</v>
-      </c>
-      <c r="X24" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="25" spans="5:24">
       <c r="E25" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M25">
         <v>10</v>
       </c>
       <c r="N25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="T25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s">
+        <v>84</v>
+      </c>
+      <c r="X25" t="s">
         <v>83</v>
-      </c>
-      <c r="X25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="26" spans="5:24">
       <c r="E26" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F26" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K26" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-26</v>
       </c>
       <c r="L26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M26">
         <v>100</v>
       </c>
       <c r="N26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="T26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s">
+        <v>84</v>
+      </c>
+      <c r="X26" t="s">
         <v>83</v>
-      </c>
-      <c r="X26" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="27" spans="5:24">
       <c r="E27" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F27" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K27" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
       <c r="L27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="T27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V27" t="s">
+        <v>84</v>
+      </c>
+      <c r="X27" t="s">
         <v>83</v>
-      </c>
-      <c r="X27" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" spans="5:24">
       <c r="E28" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F28" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G28" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H28" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I28" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="J28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M28" s="12">
         <v>20</v>
       </c>
       <c r="N28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="T28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s">
+        <v>84</v>
+      </c>
+      <c r="X28" t="s">
         <v>83</v>
       </c>
-      <c r="X28" t="s">
-        <v>82</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L28">
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -6640,7 +6649,7 @@
   <sheetPr/>
   <dimension ref="A1:G183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D169" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
@@ -6684,2131 +6693,2131 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G11" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G12" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G13" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G15" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G16" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G17" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G18" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G19" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G20" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G22" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G23" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G24" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G25" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G26" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G27" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G28" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G29" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G30" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G31" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G32" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G33" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G34" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G35" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G36" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G37" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G38" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G39" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G40" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G41" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G42" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G43" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G44" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G45" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G46" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G47" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G48" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G49" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G50" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G51" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F52" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G52" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G53" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G54" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F55" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G55" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G56" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G57" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G58" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G59" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G60" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F61" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G61" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G62" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G63" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G64" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G65" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G66" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G67" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G68" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G69" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G70" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G71" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G72" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G73" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G74" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G75" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G76" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G77" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G78" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G79" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G80" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G81" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G82" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G83" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G84" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G85" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G86" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G87" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G88" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G89" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G90" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G91" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G92" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G93" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G94" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G95" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G96" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G97" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G98" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G99" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G100" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G101" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G102" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G103" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G104" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G105" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G106" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G107" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G108" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G109" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G110" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F111" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G111" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F112" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G112" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F113" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G113" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F114" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G114" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="115" spans="5:7">
       <c r="E115" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F115" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G115" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F116" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G116" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F117" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G117" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="118" spans="5:7">
       <c r="E118" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F118" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G118" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="119" spans="5:7">
       <c r="E119" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F119" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G119" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="120" spans="5:7">
       <c r="E120" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F120" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G120" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="121" spans="5:7">
       <c r="E121" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F121" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G121" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="122" spans="5:7">
       <c r="E122" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F122" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G122" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="123" spans="5:7">
       <c r="E123" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F123" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G123" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="124" spans="5:7">
       <c r="E124" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F124" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G124" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="125" spans="5:7">
       <c r="E125" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F125" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G125" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="126" spans="5:7">
       <c r="E126" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F126" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G126" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="5:7">
       <c r="E127" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F127" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G127" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" spans="5:7">
       <c r="E128" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F128" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G128" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="129" spans="5:7">
       <c r="E129" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F129" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G129" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="130" spans="5:7">
       <c r="E130" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F130" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G130" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="131" spans="5:7">
       <c r="E131" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F131" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G131" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="132" spans="5:7">
       <c r="E132" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F132" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G132" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="133" spans="5:7">
       <c r="E133" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F133" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G133" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="134" spans="5:7">
       <c r="E134" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F134" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G134" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="135" spans="5:7">
       <c r="E135" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F135" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G135" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="136" spans="5:7">
       <c r="E136" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F136" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G136" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="137" spans="5:7">
       <c r="E137" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F137" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G137" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138" spans="5:7">
       <c r="E138" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F138" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G138" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="139" spans="5:7">
       <c r="E139" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F139" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G139" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="140" spans="5:7">
       <c r="E140" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F140" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G140" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="141" spans="5:7">
       <c r="E141" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F141" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G141" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="142" spans="5:7">
       <c r="E142" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F142" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G142" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="143" spans="5:7">
       <c r="E143" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F143" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G143" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="144" spans="5:7">
       <c r="E144" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F144" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G144" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F145" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G145" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F146" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G146" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="147" spans="5:7">
       <c r="E147" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F147" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G147" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="148" spans="5:7">
       <c r="E148" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F148" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G148" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="149" spans="5:7">
       <c r="E149" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F149" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G149" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F150" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G150" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F151" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G151" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F152" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G152" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="F153" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G153" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F154" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G154" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F155" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G155" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F156" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G156" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F157" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G157" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F158" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G158" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F159" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G159" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F160" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G160" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="161" spans="5:7">
       <c r="E161" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F161" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G161" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="162" spans="5:7">
       <c r="E162" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F162" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G162" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="163" spans="5:7">
       <c r="E163" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F163" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G163" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="164" spans="5:7">
       <c r="E164" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F164" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G164" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="165" spans="5:7">
       <c r="E165" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F165" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G165" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="166" spans="5:7">
       <c r="E166" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F166" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G166" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="167" spans="5:7">
       <c r="E167" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F167" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G167" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="168" spans="5:7">
       <c r="E168" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F168" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G168" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="169" spans="5:7">
       <c r="E169" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F169" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G169" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="170" spans="5:7">
       <c r="E170" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F170" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G170" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="171" spans="5:7">
       <c r="E171" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F171" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G171" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="172" spans="5:7">
       <c r="E172" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F172" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="173" spans="5:7">
       <c r="E173" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F173" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="174" spans="5:7">
       <c r="E174" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F174" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G174" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="175" spans="5:7">
       <c r="E175" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F175" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G175" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="176" spans="5:7">
       <c r="E176" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F176" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G176" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="177" spans="5:7">
       <c r="E177" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F177" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G177" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="178" spans="5:7">
       <c r="E178" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F178" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G178" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="179" spans="5:7">
       <c r="E179" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F179" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G179" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="180" spans="5:7">
       <c r="E180" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="F180" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G180" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="181" spans="5:7">
       <c r="E181" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F181" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G181" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="182" spans="5:7">
       <c r="E182" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F182" t="str">
         <f>菜单SAAS版!E22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G182" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="183" spans="5:7">
       <c r="E183" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="F183" t="str">
         <f>菜单SAAS版!E22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G183" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -8873,182 +8882,182 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="I7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="N7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="F8" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G8" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="J8" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K8" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="F9" t="s">
+        <v>483</v>
+      </c>
+      <c r="G9" t="s">
         <v>479</v>
       </c>
-      <c r="G9" t="s">
-        <v>475</v>
-      </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="F10" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="G10" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="J10" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="K10" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="M10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="F11" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" s="9" customFormat="1" spans="5:15">
       <c r="E12" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="M12" s="9">
         <v>0</v>
@@ -9068,33 +9077,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="I14" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F15" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -9105,15 +9114,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I15" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F16" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -9124,15 +9133,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F17" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -9143,15 +9152,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F18" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -9162,15 +9171,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F19" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -9181,15 +9190,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I19" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F20" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -9200,15 +9209,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I20" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F21" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -9219,15 +9228,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I21" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F22" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G22" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -9238,15 +9247,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F23" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G23" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -9257,15 +9266,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I23" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F24" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G24" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -9276,15 +9285,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I24" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F25" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G25" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -9295,15 +9304,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I25" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F26" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G26" t="str">
         <f>菜单SAAS版!E28</f>
@@ -9314,15 +9323,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I26" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F27" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G27" t="str">
         <f>菜单SAAS版!E17</f>
@@ -9333,7 +9342,7 @@
         <v>iam_label-21</v>
       </c>
       <c r="I27" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -9386,10 +9395,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -9404,482 +9413,482 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="J7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="O7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="Q7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="R7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="S7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="T7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="X7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="Y7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F8" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G8" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="H8" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="I8" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" t="s">
         <v>80</v>
       </c>
-      <c r="L8" t="s">
-        <v>80</v>
-      </c>
-      <c r="M8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N8" t="s">
-        <v>79</v>
-      </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="V8" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="W8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="F9" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="G9" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H9" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="I9" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" t="s">
         <v>80</v>
       </c>
-      <c r="L9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" t="s">
-        <v>79</v>
-      </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="V9" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="W9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="F10" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G10" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="H10" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M10" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="V10" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="W10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="Y10" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="F11" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G11" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H11" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M11" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="V11" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="W11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="Y11" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F12" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="G12" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H12" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="V12" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="W12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Y12" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F13" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G13" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="H13" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M13" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="V13" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="W13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="Y13" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F14" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G14" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="H14" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="J14" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M14" t="str">
         <f>角色!$E$8</f>
         <v>iam_role-8</v>
       </c>
       <c r="N14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="V14" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="W14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9890,33 +9899,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H16" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="I16" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -9927,18 +9936,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H17" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I17" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J17" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -9949,18 +9958,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I18" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J18" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -9971,18 +9980,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I19" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J19" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -9993,18 +10002,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H20" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I20" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J20" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -10015,18 +10024,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H21" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I21" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J21" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -10037,18 +10046,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H22" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I22" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J22" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -10059,18 +10068,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H23" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I23" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J23" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -10081,18 +10090,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H24" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I24" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J24" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -10103,18 +10112,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H25" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I25" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J25" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -10125,18 +10134,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H26" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I26" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J26" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -10147,18 +10156,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H27" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I27" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J27" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -10169,18 +10178,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H28" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I28" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J28" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -10191,18 +10200,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H29" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I29" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J29" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$12</f>
@@ -10213,18 +10222,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H30" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I30" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J30" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$12</f>
@@ -10235,18 +10244,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H31" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I31" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J31" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$12</f>
@@ -10257,18 +10266,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H32" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I32" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J32" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$12</f>
@@ -10279,18 +10288,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H33" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I33" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J33" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$12</f>
@@ -10301,18 +10310,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H34" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I34" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J34" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$13</f>
@@ -10323,18 +10332,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H35" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I35" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J35" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$13</f>
@@ -10345,18 +10354,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I36" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J36" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$13</f>
@@ -10367,18 +10376,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H37" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="I37" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J37" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$13</f>
@@ -10389,18 +10398,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H38" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I38" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J38" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$13</f>
@@ -10411,18 +10420,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H39" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I39" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J39" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$13</f>
@@ -10433,13 +10442,13 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H40" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I40" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J40" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -10495,104 +10504,104 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="I7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="N7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="F8" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="G8" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="J8" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="K8" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="F9" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="G9" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="J9" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="K9" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -10600,63 +10609,63 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F10" t="s">
+        <v>607</v>
+      </c>
+      <c r="G10" t="s">
+        <v>602</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" t="s">
         <v>480</v>
       </c>
-      <c r="F10" t="s">
-        <v>603</v>
-      </c>
-      <c r="G10" t="s">
-        <v>598</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>476</v>
-      </c>
       <c r="J10" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="K10" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="F11" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="G11" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="J11" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K11" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -10664,127 +10673,127 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="F12" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="G12" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="J12" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="K12" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="F13" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="G13" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="J13" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="K13" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="F14" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="G14" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="J14" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="K14" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="F15" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="G15" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="J15" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K15" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -10792,66 +10801,66 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="F16" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="G16" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="J16" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="K16" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="M16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="F17" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="G17" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="J17" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="K17" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -10913,38 +10922,38 @@
     <row r="6" customFormat="1"/>
     <row r="7" customFormat="1" spans="1:8">
       <c r="A7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="4:7">
       <c r="D8" s="1"/>
       <c r="E8" s="6" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F8" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="4:7">
@@ -10967,31 +10976,31 @@
     </row>
     <row r="13" customFormat="1" spans="1:7">
       <c r="A13" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="4:8">
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="F14" s="5" t="str">
         <f>菜单SAAS版!E17</f>
@@ -11027,57 +11036,57 @@
     <row r="18" customFormat="1"/>
     <row r="19" customFormat="1" spans="1:11">
       <c r="A19" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="H19" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="I19" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="J19" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="5:11">
       <c r="E20" s="6" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="I20">
         <v>119821</v>
       </c>
       <c r="J20" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="K20" t="str">
         <f>菜单SAAS版!E18</f>
@@ -11086,22 +11095,22 @@
     </row>
     <row r="21" customFormat="1" spans="5:11">
       <c r="E21" s="6" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="I21">
         <v>119820</v>
       </c>
       <c r="J21" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="K21" t="str">
         <f>菜单SAAS版!E18</f>
@@ -11110,22 +11119,22 @@
     </row>
     <row r="22" customFormat="1" spans="5:11">
       <c r="E22" s="6" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="F22" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="I22">
         <v>119822</v>
       </c>
       <c r="J22" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="K22" t="str">
         <f>菜单SAAS版!E18</f>
@@ -11134,22 +11143,22 @@
     </row>
     <row r="23" customFormat="1" spans="5:11">
       <c r="E23" s="6" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="F23" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="I23">
         <v>119823</v>
       </c>
       <c r="J23" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="K23" t="str">
         <f>菜单SAAS版!E18</f>
@@ -11162,33 +11171,33 @@
     <row r="25" customFormat="1"/>
     <row r="26" customFormat="1" spans="1:8">
       <c r="A26" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="H26" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="5:8">
       <c r="E27" s="6" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="F27" t="str">
         <f>E8</f>
@@ -11204,7 +11213,7 @@
     </row>
     <row r="28" customFormat="1" spans="5:8">
       <c r="E28" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="F28" t="str">
         <f>E8</f>
@@ -11220,7 +11229,7 @@
     </row>
     <row r="29" customFormat="1" spans="5:8">
       <c r="E29" s="6" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="F29" t="str">
         <f>E8</f>
@@ -11236,7 +11245,7 @@
     </row>
     <row r="30" spans="5:8">
       <c r="E30" s="6" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="F30" t="str">
         <f>E8</f>
@@ -11303,37 +11312,37 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="D8" s="1"/>
       <c r="E8" s="6" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!E17</f>
@@ -11352,7 +11361,7 @@
     <row r="9" spans="4:9">
       <c r="D9" s="1"/>
       <c r="E9" s="6" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!E9</f>
@@ -11371,7 +11380,7 @@
     <row r="10" spans="4:9">
       <c r="D10" s="1"/>
       <c r="E10" s="6" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!E26</f>

--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-prod-menu-user-role-label0622.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="690">
   <si>
     <r>
       <rPr>
@@ -2273,6 +2273,9 @@
   </si>
   <si>
     <t>开发</t>
+  </si>
+  <si>
+    <t>Dev</t>
   </si>
   <si>
     <t>KF</t>
@@ -3813,8 +3816,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3925,6 +3928,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3932,8 +3988,46 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3948,37 +4042,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3992,70 +4056,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4137,7 +4140,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4155,7 +4200,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4167,19 +4236,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4191,49 +4302,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4245,79 +4314,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4448,17 +4451,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4478,13 +4475,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4500,172 +4516,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5385,7 +5388,7 @@
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.4"/>
@@ -6599,10 +6602,10 @@
         <v>177</v>
       </c>
       <c r="H28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J28" t="s">
         <v>80</v>
@@ -6693,2131 +6696,2131 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G40" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G42" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G43" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G44" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G47" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G48" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G49" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G50" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G51" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F52" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G52" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G53" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G54" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F55" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G55" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G56" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G57" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G58" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G60" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F61" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G61" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G62" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G64" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G65" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G66" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G67" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G68" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G69" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G70" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G71" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G72" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G75" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G76" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G77" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G78" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G79" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G80" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G81" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G82" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G83" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G84" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G86" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G87" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G88" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G89" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G90" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G91" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G92" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G93" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G94" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G95" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G96" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G97" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G98" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G99" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G100" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G101" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G102" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G103" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G104" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G105" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G106" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G107" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G108" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G109" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G110" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F111" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G111" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F112" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G112" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F113" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G113" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F114" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G114" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="115" spans="5:7">
       <c r="E115" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F115" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G115" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F116" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G116" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F117" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G117" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="118" spans="5:7">
       <c r="E118" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F118" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G118" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="119" spans="5:7">
       <c r="E119" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F119" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G119" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="120" spans="5:7">
       <c r="E120" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F120" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G120" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="121" spans="5:7">
       <c r="E121" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F121" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G121" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="122" spans="5:7">
       <c r="E122" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F122" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G122" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="123" spans="5:7">
       <c r="E123" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F123" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G123" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="124" spans="5:7">
       <c r="E124" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F124" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G124" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="125" spans="5:7">
       <c r="E125" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F125" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G125" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="5:7">
       <c r="E126" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F126" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G126" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="127" spans="5:7">
       <c r="E127" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F127" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G127" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128" spans="5:7">
       <c r="E128" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F128" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G128" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="129" spans="5:7">
       <c r="E129" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F129" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G129" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="130" spans="5:7">
       <c r="E130" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F130" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G130" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="131" spans="5:7">
       <c r="E131" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F131" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G131" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="132" spans="5:7">
       <c r="E132" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F132" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G132" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="133" spans="5:7">
       <c r="E133" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F133" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G133" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="134" spans="5:7">
       <c r="E134" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F134" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G134" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="135" spans="5:7">
       <c r="E135" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F135" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G135" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="136" spans="5:7">
       <c r="E136" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F136" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G136" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="137" spans="5:7">
       <c r="E137" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F137" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G137" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="138" spans="5:7">
       <c r="E138" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F138" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G138" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="139" spans="5:7">
       <c r="E139" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F139" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G139" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="140" spans="5:7">
       <c r="E140" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F140" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G140" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="141" spans="5:7">
       <c r="E141" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F141" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G141" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="142" spans="5:7">
       <c r="E142" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F142" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G142" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="143" spans="5:7">
       <c r="E143" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F143" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G143" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="144" spans="5:7">
       <c r="E144" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F144" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G144" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F145" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G145" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F146" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G146" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="147" spans="5:7">
       <c r="E147" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F147" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G147" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="148" spans="5:7">
       <c r="E148" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F148" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G148" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="149" spans="5:7">
       <c r="E149" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F149" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G149" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F150" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G150" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F151" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G151" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F152" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G152" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F153" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G153" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F154" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G154" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F155" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G155" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F156" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G156" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F157" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G157" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F158" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G158" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F159" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G159" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F160" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G160" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="161" spans="5:7">
       <c r="E161" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F161" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G161" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="162" spans="5:7">
       <c r="E162" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F162" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G162" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="163" spans="5:7">
       <c r="E163" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F163" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G163" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="164" spans="5:7">
       <c r="E164" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F164" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G164" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="165" spans="5:7">
       <c r="E165" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F165" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G165" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="166" spans="5:7">
       <c r="E166" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F166" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G166" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="167" spans="5:7">
       <c r="E167" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F167" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G167" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="168" spans="5:7">
       <c r="E168" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F168" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G168" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="169" spans="5:7">
       <c r="E169" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F169" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G169" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="170" spans="5:7">
       <c r="E170" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F170" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G170" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="171" spans="5:7">
       <c r="E171" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F171" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G171" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="172" spans="5:7">
       <c r="E172" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F172" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="173" spans="5:7">
       <c r="E173" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F173" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="174" spans="5:7">
       <c r="E174" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F174" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G174" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="175" spans="5:7">
       <c r="E175" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F175" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G175" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="176" spans="5:7">
       <c r="E176" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F176" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G176" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="177" spans="5:7">
       <c r="E177" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F177" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G177" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="178" spans="5:7">
       <c r="E178" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F178" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G178" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="179" spans="5:7">
       <c r="E179" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F179" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G179" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="180" spans="5:7">
       <c r="E180" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F180" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G180" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="181" spans="5:7">
       <c r="E181" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F181" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G181" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="182" spans="5:7">
       <c r="E182" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F182" t="str">
         <f>菜单SAAS版!E22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G182" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="183" spans="5:7">
       <c r="E183" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F183" t="str">
         <f>菜单SAAS版!E22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G183" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -8882,66 +8885,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -8955,19 +8958,19 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M9" t="s">
         <v>81</v>
@@ -8981,25 +8984,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M10" t="s">
         <v>83</v>
@@ -9013,19 +9016,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F11" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G11" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M11" t="s">
         <v>83</v>
@@ -9039,25 +9042,25 @@
     </row>
     <row r="12" s="9" customFormat="1" spans="5:15">
       <c r="E12" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M12" s="9">
         <v>0</v>
@@ -9077,33 +9080,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I14" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F15" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -9114,15 +9117,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I15" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F16" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -9133,15 +9136,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F17" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -9152,15 +9155,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -9171,15 +9174,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F19" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -9190,15 +9193,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I19" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F20" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -9209,15 +9212,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I20" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F21" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -9228,15 +9231,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I21" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F22" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G22" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -9247,15 +9250,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F23" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G23" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -9266,15 +9269,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I23" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F24" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G24" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -9285,15 +9288,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I24" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F25" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G25" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -9304,15 +9307,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I25" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F26" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G26" t="str">
         <f>菜单SAAS版!E28</f>
@@ -9323,15 +9326,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I26" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F27" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G27" t="str">
         <f>菜单SAAS版!E17</f>
@@ -9342,7 +9345,7 @@
         <v>iam_label-21</v>
       </c>
       <c r="I27" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -9395,10 +9398,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -9413,72 +9416,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="R7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="S7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="T7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="X7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Y7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F8" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J8" t="s">
         <v>167</v>
@@ -9514,10 +9517,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="V8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -9525,19 +9528,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J9" t="s">
         <v>80</v>
@@ -9573,10 +9576,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="V9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -9584,16 +9587,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J10" t="s">
         <v>80</v>
@@ -9630,33 +9633,33 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="V10" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Y10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H11" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="J11" t="s">
         <v>80</v>
@@ -9693,33 +9696,33 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="V11" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Y11" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F12" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H12" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="J12" t="s">
         <v>80</v>
@@ -9756,33 +9759,33 @@
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="V12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="W12" t="s">
         <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Y12" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F13" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G13" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H13" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J13" t="s">
         <v>80</v>
@@ -9819,33 +9822,33 @@
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="V13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="W13" t="s">
         <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Y13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F14" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G14" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H14" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J14" t="s">
         <v>167</v>
@@ -9882,10 +9885,10 @@
         <v>81</v>
       </c>
       <c r="U14" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="V14" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="W14" t="s">
         <v>81</v>
@@ -9899,33 +9902,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H16" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="I16" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -9936,18 +9939,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I17" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J17" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -9958,18 +9961,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I18" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J18" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -9980,18 +9983,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I19" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J19" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -10002,18 +10005,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -10024,18 +10027,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H21" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I21" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J21" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -10046,18 +10049,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H22" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I22" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J22" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -10068,18 +10071,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H23" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I23" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J23" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -10090,18 +10093,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H24" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I24" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J24" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -10112,18 +10115,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H25" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I25" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J25" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -10134,18 +10137,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H26" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I26" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J26" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -10156,18 +10159,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H27" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I27" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J27" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -10178,18 +10181,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H28" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I28" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J28" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -10200,18 +10203,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H29" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I29" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J29" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$12</f>
@@ -10222,18 +10225,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H30" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I30" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J30" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$12</f>
@@ -10244,18 +10247,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H31" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I31" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J31" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$12</f>
@@ -10266,18 +10269,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H32" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I32" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J32" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$12</f>
@@ -10288,18 +10291,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H33" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I33" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J33" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$12</f>
@@ -10310,18 +10313,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H34" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I34" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J34" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$13</f>
@@ -10332,18 +10335,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H35" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I35" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J35" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$13</f>
@@ -10354,18 +10357,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I36" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J36" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$13</f>
@@ -10376,18 +10379,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H37" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I37" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J37" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$13</f>
@@ -10398,18 +10401,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H38" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I38" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J38" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$13</f>
@@ -10420,18 +10423,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H39" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I39" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J39" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$13</f>
@@ -10442,13 +10445,13 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H40" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I40" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J40" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -10504,66 +10507,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M8" t="s">
         <v>81</v>
@@ -10577,25 +10580,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J9" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M9" t="s">
         <v>81</v>
@@ -10609,25 +10612,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F10" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M10" t="s">
         <v>81</v>
@@ -10641,25 +10644,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F11" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G11" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J11" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K11" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -10673,25 +10676,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G12" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J12" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="K12" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M12" t="s">
         <v>81</v>
@@ -10705,25 +10708,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F13" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G13" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J13" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K13" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M13" t="s">
         <v>81</v>
@@ -10737,25 +10740,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F14" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G14" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J14" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K14" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M14" t="s">
         <v>81</v>
@@ -10769,25 +10772,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F15" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G15" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J15" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="K15" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M15" t="s">
         <v>81</v>
@@ -10801,25 +10804,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F16" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G16" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J16" t="s">
+        <v>631</v>
+      </c>
+      <c r="K16" t="s